--- a/exe/TSV/Excel/TH76_Tatehama_UIList.xlsx
+++ b/exe/TSV/Excel/TH76_Tatehama_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BB0893-EDB6-4907-9931-BB32CFDE4A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F9A03F-2054-41B4-81A8-814A6BB3C136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8205" yWindow="5235" windowWidth="24165" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6375" yWindow="3630" windowWidth="24165" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH76_館浜駅_UIList" sheetId="1" r:id="rId1"/>
@@ -423,7 +423,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="261">
   <si>
     <t>Type</t>
   </si>
@@ -1161,6 +1161,9 @@
   </si>
   <si>
     <t>列番館浜下り第2接近</t>
+  </si>
+  <si>
+    <t>列番駒野下り出発</t>
   </si>
   <si>
     <t>列番駒野5番線</t>
@@ -1535,7 +1538,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AF180"/>
+  <dimension ref="A1:AF181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -10037,7 +10040,7 @@
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
       <c r="H169" s="5">
-        <v>835</v>
+        <v>685</v>
       </c>
       <c r="I169" s="5">
         <v>574</v>
@@ -10083,7 +10086,7 @@
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
       <c r="H170" s="5">
-        <v>985</v>
+        <v>835</v>
       </c>
       <c r="I170" s="5">
         <v>574</v>
@@ -10129,10 +10132,10 @@
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
       <c r="H171" s="5">
-        <v>1135</v>
+        <v>985</v>
       </c>
       <c r="I171" s="5">
-        <v>482</v>
+        <v>574</v>
       </c>
       <c r="J171" s="5"/>
       <c r="K171" s="5"/>
@@ -10178,7 +10181,7 @@
         <v>1135</v>
       </c>
       <c r="I172" s="5">
-        <v>528</v>
+        <v>482</v>
       </c>
       <c r="J172" s="5"/>
       <c r="K172" s="5"/>
@@ -10224,7 +10227,7 @@
         <v>1135</v>
       </c>
       <c r="I173" s="5">
-        <v>574</v>
+        <v>528</v>
       </c>
       <c r="J173" s="5"/>
       <c r="K173" s="5"/>
@@ -10267,7 +10270,7 @@
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
       <c r="H174" s="5">
-        <v>1285</v>
+        <v>1135</v>
       </c>
       <c r="I174" s="5">
         <v>574</v>
@@ -10301,15 +10304,23 @@
       <c r="AF174" s="4"/>
     </row>
     <row r="175" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A175" s="5"/>
-      <c r="B175" s="10"/>
+      <c r="A175" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>250</v>
+      </c>
       <c r="C175" s="5"/>
-      <c r="D175" s="10"/>
-      <c r="E175" s="10"/>
-      <c r="F175" s="10"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
       <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
-      <c r="I175" s="5"/>
+      <c r="H175" s="5">
+        <v>1285</v>
+      </c>
+      <c r="I175" s="5">
+        <v>574</v>
+      </c>
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
       <c r="L175" s="5"/>
@@ -10319,11 +10330,15 @@
       <c r="P175" s="5"/>
       <c r="Q175" s="5"/>
       <c r="R175" s="5"/>
-      <c r="S175" s="10"/>
+      <c r="S175" s="5" t="s">
+        <v>250</v>
+      </c>
       <c r="T175" s="5"/>
       <c r="U175" s="5"/>
       <c r="V175" s="6"/>
-      <c r="W175" s="4"/>
+      <c r="W175" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="X175" s="4"/>
       <c r="Y175" s="4"/>
       <c r="Z175" s="4"/>
@@ -10504,6 +10519,40 @@
       <c r="AE180" s="4"/>
       <c r="AF180" s="4"/>
     </row>
+    <row r="181" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A181" s="5"/>
+      <c r="B181" s="10"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="10"/>
+      <c r="E181" s="10"/>
+      <c r="F181" s="10"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="5"/>
+      <c r="J181" s="5"/>
+      <c r="K181" s="5"/>
+      <c r="L181" s="5"/>
+      <c r="M181" s="5"/>
+      <c r="N181" s="5"/>
+      <c r="O181" s="5"/>
+      <c r="P181" s="5"/>
+      <c r="Q181" s="5"/>
+      <c r="R181" s="5"/>
+      <c r="S181" s="10"/>
+      <c r="T181" s="5"/>
+      <c r="U181" s="5"/>
+      <c r="V181" s="6"/>
+      <c r="W181" s="4"/>
+      <c r="X181" s="4"/>
+      <c r="Y181" s="4"/>
+      <c r="Z181" s="4"/>
+      <c r="AA181" s="4"/>
+      <c r="AB181" s="4"/>
+      <c r="AC181" s="4"/>
+      <c r="AD181" s="4"/>
+      <c r="AE181" s="4"/>
+      <c r="AF181" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10515,7 +10564,7 @@
           <x14:formula1>
             <xm:f>入力規則!$A$1:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A180</xm:sqref>
+          <xm:sqref>A2:A181</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10536,18 +10585,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -10555,7 +10604,7 @@
         <v>46</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -10563,7 +10612,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -10571,7 +10620,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -10579,7 +10628,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -10587,7 +10636,7 @@
         <v>36</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -10595,7 +10644,7 @@
         <v>115</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">

--- a/exe/TSV/Excel/TH76_Tatehama_UIList.xlsx
+++ b/exe/TSV/Excel/TH76_Tatehama_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917EA3B8-9BC2-467D-9E6C-CD641D549CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93CF20F-6DFD-4CBD-BE23-9D8AD6F18FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7125" yWindow="4710" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="4260" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH76_館浜駅_UIList" sheetId="1" r:id="rId1"/>
@@ -956,19 +956,19 @@
     <t>TH76_23T_P24ロR_2</t>
   </si>
   <si>
-    <t>TH76_24イT_P24イN_1</t>
-  </si>
-  <si>
-    <t>TH76_24イT_P24イN_2</t>
-  </si>
-  <si>
-    <t>TH76_24イT_P24イN_3</t>
-  </si>
-  <si>
-    <t>TH76_24イT_P24イR_1</t>
-  </si>
-  <si>
-    <t>TH76_24イT_P24イR_2</t>
+    <t>TH76_24T_P24イN_1</t>
+  </si>
+  <si>
+    <t>TH76_24T_P24イN_2</t>
+  </si>
+  <si>
+    <t>TH76_24T_P24イN_3</t>
+  </si>
+  <si>
+    <t>TH76_24T_P24イR_1</t>
+  </si>
+  <si>
+    <t>TH76_24T_P24イR_2</t>
   </si>
   <si>
     <t>TH76_25T_P25N_1</t>
@@ -1592,7 +1592,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/exe/TSV/Excel/TH76_Tatehama_UIList.xlsx
+++ b/exe/TSV/Excel/TH76_Tatehama_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93CF20F-6DFD-4CBD-BE23-9D8AD6F18FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACA1AE3-CA43-4F81-BE1C-E5723510A37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="4260" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7890" yWindow="4740" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH76_館浜駅_UIList" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="264">
   <si>
     <t>Type</t>
   </si>
@@ -4981,7 +4981,9 @@
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
+      <c r="G60" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>

--- a/exe/TSV/Excel/TH76_Tatehama_UIList.xlsx
+++ b/exe/TSV/Excel/TH76_Tatehama_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D022A096-12F8-41A6-842D-A740D52724A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2405A48-877A-4DFE-8F3A-15CB9B27D119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5010" yWindow="5010" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6690" yWindow="3495" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH76_館浜駅_UIList" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="322">
   <si>
     <t>Type</t>
   </si>
@@ -883,6 +883,9 @@
   </si>
   <si>
     <t>駅扱切換_PY</t>
+  </si>
+  <si>
+    <t>駅扱切換てこ</t>
   </si>
   <si>
     <t>駅扱切換_PG</t>
@@ -5264,7 +5267,7 @@
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>138</v>
@@ -5314,11 +5317,11 @@
         <v>29</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>138</v>
@@ -5368,14 +5371,14 @@
         <v>29</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
@@ -5398,17 +5401,17 @@
       <c r="T63" s="5"/>
       <c r="U63" s="5"/>
       <c r="V63" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W63" s="5">
         <v>0</v>
       </c>
       <c r="X63" s="6"/>
       <c r="Y63" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z63" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA63" s="4"/>
       <c r="AB63" s="4"/>
@@ -5424,14 +5427,14 @@
         <v>29</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -5454,14 +5457,14 @@
       <c r="T64" s="5"/>
       <c r="U64" s="5"/>
       <c r="V64" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W64" s="5">
         <v>0</v>
       </c>
       <c r="X64" s="6"/>
       <c r="Y64" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z64" s="4"/>
       <c r="AA64" s="4"/>
@@ -5478,14 +5481,14 @@
         <v>29</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
@@ -5508,14 +5511,14 @@
       <c r="T65" s="5"/>
       <c r="U65" s="5"/>
       <c r="V65" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W65" s="5">
         <v>0</v>
       </c>
       <c r="X65" s="6"/>
       <c r="Y65" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z65" s="4"/>
       <c r="AA65" s="4"/>
@@ -5532,14 +5535,14 @@
         <v>29</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
@@ -5562,14 +5565,14 @@
       <c r="T66" s="5"/>
       <c r="U66" s="5"/>
       <c r="V66" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W66" s="5">
         <v>0</v>
       </c>
       <c r="X66" s="6"/>
       <c r="Y66" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z66" s="4"/>
       <c r="AA66" s="4"/>
@@ -5586,14 +5589,14 @@
         <v>29</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
@@ -5616,14 +5619,14 @@
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
       <c r="V67" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W67" s="5">
         <v>0</v>
       </c>
       <c r="X67" s="6"/>
       <c r="Y67" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z67" s="4"/>
       <c r="AA67" s="4"/>
@@ -5640,14 +5643,14 @@
         <v>29</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
@@ -5670,14 +5673,14 @@
       <c r="T68" s="5"/>
       <c r="U68" s="5"/>
       <c r="V68" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W68" s="5">
         <v>0</v>
       </c>
       <c r="X68" s="6"/>
       <c r="Y68" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z68" s="4"/>
       <c r="AA68" s="4"/>
@@ -5694,14 +5697,14 @@
         <v>29</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
@@ -5724,14 +5727,14 @@
       <c r="T69" s="5"/>
       <c r="U69" s="5"/>
       <c r="V69" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W69" s="5">
         <v>0</v>
       </c>
       <c r="X69" s="6"/>
       <c r="Y69" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z69" s="4"/>
       <c r="AA69" s="4"/>
@@ -5748,14 +5751,14 @@
         <v>29</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -5778,14 +5781,14 @@
       <c r="T70" s="5"/>
       <c r="U70" s="5"/>
       <c r="V70" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W70" s="5">
         <v>0</v>
       </c>
       <c r="X70" s="6"/>
       <c r="Y70" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z70" s="4"/>
       <c r="AA70" s="4"/>
@@ -5802,14 +5805,14 @@
         <v>29</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>97</v>
@@ -5836,14 +5839,14 @@
       <c r="T71" s="5"/>
       <c r="U71" s="5"/>
       <c r="V71" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W71" s="5">
         <v>0</v>
       </c>
       <c r="X71" s="6"/>
       <c r="Y71" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z71" s="4"/>
       <c r="AA71" s="4"/>
@@ -5860,14 +5863,14 @@
         <v>29</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>97</v>
@@ -5894,17 +5897,17 @@
       <c r="T72" s="5"/>
       <c r="U72" s="5"/>
       <c r="V72" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W72" s="5">
         <v>0</v>
       </c>
       <c r="X72" s="6"/>
       <c r="Y72" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z72" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA72" s="4"/>
       <c r="AB72" s="4"/>
@@ -5920,14 +5923,14 @@
         <v>29</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>97</v>
@@ -5954,14 +5957,14 @@
       <c r="T73" s="5"/>
       <c r="U73" s="5"/>
       <c r="V73" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W73" s="5">
         <v>0</v>
       </c>
       <c r="X73" s="6"/>
       <c r="Y73" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z73" s="4"/>
       <c r="AA73" s="4"/>
@@ -5978,14 +5981,14 @@
         <v>29</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>97</v>
@@ -6012,17 +6015,17 @@
       <c r="T74" s="5"/>
       <c r="U74" s="5"/>
       <c r="V74" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W74" s="5">
         <v>0</v>
       </c>
       <c r="X74" s="6"/>
       <c r="Y74" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z74" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA74" s="4"/>
       <c r="AB74" s="4"/>
@@ -6038,14 +6041,14 @@
         <v>29</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>99</v>
@@ -6072,14 +6075,14 @@
       <c r="T75" s="5"/>
       <c r="U75" s="5"/>
       <c r="V75" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W75" s="5">
         <v>0</v>
       </c>
       <c r="X75" s="6"/>
       <c r="Y75" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z75" s="4"/>
       <c r="AA75" s="4"/>
@@ -6096,14 +6099,14 @@
         <v>29</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>99</v>
@@ -6130,14 +6133,14 @@
       <c r="T76" s="5"/>
       <c r="U76" s="5"/>
       <c r="V76" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W76" s="5">
         <v>0</v>
       </c>
       <c r="X76" s="6"/>
       <c r="Y76" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z76" s="4"/>
       <c r="AA76" s="4"/>
@@ -6154,14 +6157,14 @@
         <v>29</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>99</v>
@@ -6188,17 +6191,17 @@
       <c r="T77" s="5"/>
       <c r="U77" s="5"/>
       <c r="V77" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W77" s="5">
         <v>0</v>
       </c>
       <c r="X77" s="6"/>
       <c r="Y77" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z77" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA77" s="4"/>
       <c r="AB77" s="4"/>
@@ -6214,14 +6217,14 @@
         <v>29</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>99</v>
@@ -6248,17 +6251,17 @@
       <c r="T78" s="5"/>
       <c r="U78" s="5"/>
       <c r="V78" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W78" s="5">
         <v>0</v>
       </c>
       <c r="X78" s="6"/>
       <c r="Y78" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z78" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA78" s="4"/>
       <c r="AB78" s="4"/>
@@ -6274,14 +6277,14 @@
         <v>29</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>99</v>
@@ -6308,14 +6311,14 @@
       <c r="T79" s="5"/>
       <c r="U79" s="5"/>
       <c r="V79" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W79" s="5">
         <v>0</v>
       </c>
       <c r="X79" s="6"/>
       <c r="Y79" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z79" s="4"/>
       <c r="AA79" s="4"/>
@@ -6332,14 +6335,14 @@
         <v>29</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>99</v>
@@ -6366,17 +6369,17 @@
       <c r="T80" s="5"/>
       <c r="U80" s="5"/>
       <c r="V80" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W80" s="5">
         <v>0</v>
       </c>
       <c r="X80" s="6"/>
       <c r="Y80" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z80" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA80" s="4"/>
       <c r="AB80" s="4"/>
@@ -6392,14 +6395,14 @@
         <v>29</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>107</v>
@@ -6426,14 +6429,14 @@
       <c r="T81" s="5"/>
       <c r="U81" s="5"/>
       <c r="V81" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W81" s="5">
         <v>0</v>
       </c>
       <c r="X81" s="6"/>
       <c r="Y81" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z81" s="4"/>
       <c r="AA81" s="4"/>
@@ -6450,14 +6453,14 @@
         <v>29</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>107</v>
@@ -6484,17 +6487,17 @@
       <c r="T82" s="5"/>
       <c r="U82" s="5"/>
       <c r="V82" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W82" s="5">
         <v>0</v>
       </c>
       <c r="X82" s="6"/>
       <c r="Y82" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z82" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA82" s="4"/>
       <c r="AB82" s="4"/>
@@ -6510,14 +6513,14 @@
         <v>29</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>107</v>
@@ -6544,14 +6547,14 @@
       <c r="T83" s="5"/>
       <c r="U83" s="5"/>
       <c r="V83" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W83" s="5">
         <v>0</v>
       </c>
       <c r="X83" s="6"/>
       <c r="Y83" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z83" s="4"/>
       <c r="AA83" s="4"/>
@@ -6568,14 +6571,14 @@
         <v>29</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>107</v>
@@ -6602,14 +6605,14 @@
       <c r="T84" s="5"/>
       <c r="U84" s="5"/>
       <c r="V84" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W84" s="5">
         <v>0</v>
       </c>
       <c r="X84" s="6"/>
       <c r="Y84" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z84" s="4"/>
       <c r="AA84" s="4"/>
@@ -6626,14 +6629,14 @@
         <v>29</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>107</v>
@@ -6660,14 +6663,14 @@
       <c r="T85" s="5"/>
       <c r="U85" s="5"/>
       <c r="V85" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W85" s="5">
         <v>0</v>
       </c>
       <c r="X85" s="6"/>
       <c r="Y85" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z85" s="4"/>
       <c r="AA85" s="4"/>
@@ -6684,14 +6687,14 @@
         <v>29</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>112</v>
@@ -6700,7 +6703,7 @@
         <v>98</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I86" s="5" t="s">
         <v>98</v>
@@ -6722,17 +6725,17 @@
       <c r="T86" s="5"/>
       <c r="U86" s="5"/>
       <c r="V86" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W86" s="5">
         <v>0</v>
       </c>
       <c r="X86" s="6"/>
       <c r="Y86" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z86" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA86" s="4"/>
       <c r="AB86" s="4"/>
@@ -6748,14 +6751,14 @@
         <v>29</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>112</v>
@@ -6764,7 +6767,7 @@
         <v>98</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I87" s="5" t="s">
         <v>98</v>
@@ -6786,17 +6789,17 @@
       <c r="T87" s="5"/>
       <c r="U87" s="5"/>
       <c r="V87" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W87" s="5">
         <v>0</v>
       </c>
       <c r="X87" s="6"/>
       <c r="Y87" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z87" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA87" s="4"/>
       <c r="AB87" s="4"/>
@@ -6812,14 +6815,14 @@
         <v>29</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>112</v>
@@ -6828,7 +6831,7 @@
         <v>102</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I88" s="5" t="s">
         <v>98</v>
@@ -6850,14 +6853,14 @@
       <c r="T88" s="5"/>
       <c r="U88" s="5"/>
       <c r="V88" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W88" s="5">
         <v>0</v>
       </c>
       <c r="X88" s="6"/>
       <c r="Y88" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z88" s="4"/>
       <c r="AA88" s="4"/>
@@ -6874,14 +6877,14 @@
         <v>29</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>112</v>
@@ -6890,7 +6893,7 @@
         <v>102</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I89" s="5" t="s">
         <v>98</v>
@@ -6912,14 +6915,14 @@
       <c r="T89" s="5"/>
       <c r="U89" s="5"/>
       <c r="V89" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W89" s="5">
         <v>0</v>
       </c>
       <c r="X89" s="6"/>
       <c r="Y89" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z89" s="4"/>
       <c r="AA89" s="4"/>
@@ -6936,14 +6939,14 @@
         <v>29</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>112</v>
@@ -6952,7 +6955,7 @@
         <v>102</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I90" s="5" t="s">
         <v>98</v>
@@ -6974,17 +6977,17 @@
       <c r="T90" s="5"/>
       <c r="U90" s="5"/>
       <c r="V90" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W90" s="5">
         <v>0</v>
       </c>
       <c r="X90" s="6"/>
       <c r="Y90" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z90" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA90" s="4"/>
       <c r="AB90" s="4"/>
@@ -7000,14 +7003,14 @@
         <v>29</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>118</v>
@@ -7034,17 +7037,17 @@
       <c r="T91" s="5"/>
       <c r="U91" s="5"/>
       <c r="V91" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W91" s="5">
         <v>0</v>
       </c>
       <c r="X91" s="6"/>
       <c r="Y91" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z91" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AA91" s="4"/>
       <c r="AB91" s="4"/>
@@ -7060,14 +7063,14 @@
         <v>29</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>118</v>
@@ -7094,17 +7097,17 @@
       <c r="T92" s="5"/>
       <c r="U92" s="5"/>
       <c r="V92" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W92" s="5">
         <v>0</v>
       </c>
       <c r="X92" s="6"/>
       <c r="Y92" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z92" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA92" s="4"/>
       <c r="AB92" s="4"/>
@@ -7120,14 +7123,14 @@
         <v>29</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>117</v>
@@ -7154,17 +7157,17 @@
       <c r="T93" s="5"/>
       <c r="U93" s="5"/>
       <c r="V93" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W93" s="5">
         <v>0</v>
       </c>
       <c r="X93" s="6"/>
       <c r="Y93" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z93" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA93" s="4"/>
       <c r="AB93" s="4"/>
@@ -7180,14 +7183,14 @@
         <v>29</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>117</v>
@@ -7214,17 +7217,17 @@
       <c r="T94" s="5"/>
       <c r="U94" s="5"/>
       <c r="V94" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W94" s="5">
         <v>0</v>
       </c>
       <c r="X94" s="6"/>
       <c r="Y94" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z94" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA94" s="4"/>
       <c r="AB94" s="4"/>
@@ -7240,14 +7243,14 @@
         <v>29</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>117</v>
@@ -7274,17 +7277,17 @@
       <c r="T95" s="5"/>
       <c r="U95" s="5"/>
       <c r="V95" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W95" s="5">
         <v>0</v>
       </c>
       <c r="X95" s="6"/>
       <c r="Y95" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z95" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA95" s="4"/>
       <c r="AB95" s="4"/>
@@ -7300,14 +7303,14 @@
         <v>29</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>117</v>
@@ -7334,17 +7337,17 @@
       <c r="T96" s="5"/>
       <c r="U96" s="5"/>
       <c r="V96" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W96" s="5">
         <v>0</v>
       </c>
       <c r="X96" s="6"/>
       <c r="Y96" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z96" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA96" s="4"/>
       <c r="AB96" s="4"/>
@@ -7360,14 +7363,14 @@
         <v>29</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>117</v>
@@ -7394,17 +7397,17 @@
       <c r="T97" s="5"/>
       <c r="U97" s="5"/>
       <c r="V97" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W97" s="5">
         <v>0</v>
       </c>
       <c r="X97" s="6"/>
       <c r="Y97" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z97" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AA97" s="4"/>
       <c r="AB97" s="4"/>
@@ -7420,14 +7423,14 @@
         <v>29</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>123</v>
@@ -7454,17 +7457,17 @@
       <c r="T98" s="5"/>
       <c r="U98" s="5"/>
       <c r="V98" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W98" s="5">
         <v>0</v>
       </c>
       <c r="X98" s="6"/>
       <c r="Y98" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z98" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA98" s="4"/>
       <c r="AB98" s="4"/>
@@ -7480,14 +7483,14 @@
         <v>29</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>123</v>
@@ -7514,14 +7517,14 @@
       <c r="T99" s="5"/>
       <c r="U99" s="5"/>
       <c r="V99" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W99" s="5">
         <v>0</v>
       </c>
       <c r="X99" s="6"/>
       <c r="Y99" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z99" s="4"/>
       <c r="AA99" s="4"/>
@@ -7538,14 +7541,14 @@
         <v>29</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>123</v>
@@ -7572,14 +7575,14 @@
       <c r="T100" s="5"/>
       <c r="U100" s="5"/>
       <c r="V100" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W100" s="5">
         <v>0</v>
       </c>
       <c r="X100" s="6"/>
       <c r="Y100" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z100" s="4"/>
       <c r="AA100" s="4"/>
@@ -7596,14 +7599,14 @@
         <v>29</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>123</v>
@@ -7630,14 +7633,14 @@
       <c r="T101" s="5"/>
       <c r="U101" s="5"/>
       <c r="V101" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W101" s="5">
         <v>0</v>
       </c>
       <c r="X101" s="6"/>
       <c r="Y101" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z101" s="4"/>
       <c r="AA101" s="4"/>
@@ -7654,14 +7657,14 @@
         <v>29</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>128</v>
@@ -7688,14 +7691,14 @@
       <c r="T102" s="5"/>
       <c r="U102" s="5"/>
       <c r="V102" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W102" s="5">
         <v>0</v>
       </c>
       <c r="X102" s="6"/>
       <c r="Y102" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z102" s="4"/>
       <c r="AA102" s="4"/>
@@ -7712,14 +7715,14 @@
         <v>29</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>128</v>
@@ -7746,14 +7749,14 @@
       <c r="T103" s="5"/>
       <c r="U103" s="5"/>
       <c r="V103" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W103" s="5">
         <v>0</v>
       </c>
       <c r="X103" s="6"/>
       <c r="Y103" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z103" s="4"/>
       <c r="AA103" s="4"/>
@@ -7770,14 +7773,14 @@
         <v>29</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>128</v>
@@ -7804,14 +7807,14 @@
       <c r="T104" s="5"/>
       <c r="U104" s="5"/>
       <c r="V104" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W104" s="5">
         <v>0</v>
       </c>
       <c r="X104" s="6"/>
       <c r="Y104" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z104" s="4"/>
       <c r="AA104" s="4"/>
@@ -7828,14 +7831,14 @@
         <v>29</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>128</v>
@@ -7862,17 +7865,17 @@
       <c r="T105" s="5"/>
       <c r="U105" s="5"/>
       <c r="V105" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W105" s="5">
         <v>0</v>
       </c>
       <c r="X105" s="6"/>
       <c r="Y105" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z105" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA105" s="4"/>
       <c r="AB105" s="4"/>
@@ -7888,14 +7891,14 @@
         <v>29</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>129</v>
@@ -7922,14 +7925,14 @@
       <c r="T106" s="5"/>
       <c r="U106" s="5"/>
       <c r="V106" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W106" s="5">
         <v>0</v>
       </c>
       <c r="X106" s="6"/>
       <c r="Y106" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z106" s="4"/>
       <c r="AA106" s="4"/>
@@ -7946,14 +7949,14 @@
         <v>29</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>129</v>
@@ -7980,14 +7983,14 @@
       <c r="T107" s="5"/>
       <c r="U107" s="5"/>
       <c r="V107" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W107" s="5">
         <v>0</v>
       </c>
       <c r="X107" s="6"/>
       <c r="Y107" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z107" s="4"/>
       <c r="AA107" s="4"/>
@@ -8004,14 +8007,14 @@
         <v>29</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>129</v>
@@ -8038,17 +8041,17 @@
       <c r="T108" s="5"/>
       <c r="U108" s="5"/>
       <c r="V108" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W108" s="5">
         <v>0</v>
       </c>
       <c r="X108" s="6"/>
       <c r="Y108" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z108" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA108" s="4"/>
       <c r="AB108" s="4"/>
@@ -8064,14 +8067,14 @@
         <v>29</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>129</v>
@@ -8098,14 +8101,14 @@
       <c r="T109" s="5"/>
       <c r="U109" s="5"/>
       <c r="V109" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W109" s="5">
         <v>0</v>
       </c>
       <c r="X109" s="6"/>
       <c r="Y109" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z109" s="4"/>
       <c r="AA109" s="4"/>
@@ -8122,14 +8125,14 @@
         <v>29</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>134</v>
@@ -8156,17 +8159,17 @@
       <c r="T110" s="5"/>
       <c r="U110" s="5"/>
       <c r="V110" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W110" s="5">
         <v>0</v>
       </c>
       <c r="X110" s="6"/>
       <c r="Y110" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z110" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA110" s="4"/>
       <c r="AB110" s="4"/>
@@ -8182,14 +8185,14 @@
         <v>29</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>134</v>
@@ -8216,14 +8219,14 @@
       <c r="T111" s="5"/>
       <c r="U111" s="5"/>
       <c r="V111" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W111" s="5">
         <v>0</v>
       </c>
       <c r="X111" s="6"/>
       <c r="Y111" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z111" s="4"/>
       <c r="AA111" s="4"/>
@@ -8240,14 +8243,14 @@
         <v>29</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>134</v>
@@ -8274,14 +8277,14 @@
       <c r="T112" s="5"/>
       <c r="U112" s="5"/>
       <c r="V112" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W112" s="5">
         <v>0</v>
       </c>
       <c r="X112" s="6"/>
       <c r="Y112" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z112" s="4"/>
       <c r="AA112" s="4"/>
@@ -8298,14 +8301,14 @@
         <v>29</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>134</v>
@@ -8332,14 +8335,14 @@
       <c r="T113" s="5"/>
       <c r="U113" s="5"/>
       <c r="V113" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W113" s="5">
         <v>0</v>
       </c>
       <c r="X113" s="6"/>
       <c r="Y113" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z113" s="4"/>
       <c r="AA113" s="4"/>
@@ -8356,14 +8359,14 @@
         <v>29</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
@@ -8386,14 +8389,14 @@
       <c r="T114" s="5"/>
       <c r="U114" s="5"/>
       <c r="V114" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W114" s="5">
         <v>0</v>
       </c>
       <c r="X114" s="6"/>
       <c r="Y114" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z114" s="4"/>
       <c r="AA114" s="4"/>
@@ -8410,14 +8413,14 @@
         <v>29</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
@@ -8440,14 +8443,14 @@
       <c r="T115" s="5"/>
       <c r="U115" s="5"/>
       <c r="V115" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W115" s="5">
         <v>0</v>
       </c>
       <c r="X115" s="6"/>
       <c r="Y115" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z115" s="4"/>
       <c r="AA115" s="4"/>
@@ -8464,14 +8467,14 @@
         <v>29</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
@@ -8494,14 +8497,14 @@
       <c r="T116" s="5"/>
       <c r="U116" s="5"/>
       <c r="V116" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W116" s="5">
         <v>0</v>
       </c>
       <c r="X116" s="6"/>
       <c r="Y116" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z116" s="4"/>
       <c r="AA116" s="4"/>
@@ -8518,17 +8521,17 @@
         <v>29</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>98</v>
@@ -8552,14 +8555,14 @@
       <c r="T117" s="5"/>
       <c r="U117" s="5"/>
       <c r="V117" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W117" s="5">
         <v>0</v>
       </c>
       <c r="X117" s="6"/>
       <c r="Y117" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z117" s="4"/>
       <c r="AA117" s="4"/>
@@ -8576,17 +8579,17 @@
         <v>29</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G118" s="5" t="s">
         <v>98</v>
@@ -8610,14 +8613,14 @@
       <c r="T118" s="5"/>
       <c r="U118" s="5"/>
       <c r="V118" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W118" s="5">
         <v>0</v>
       </c>
       <c r="X118" s="6"/>
       <c r="Y118" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z118" s="4"/>
       <c r="AA118" s="4"/>
@@ -8634,17 +8637,17 @@
         <v>29</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G119" s="5" t="s">
         <v>102</v>
@@ -8668,14 +8671,14 @@
       <c r="T119" s="5"/>
       <c r="U119" s="5"/>
       <c r="V119" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W119" s="5">
         <v>0</v>
       </c>
       <c r="X119" s="6"/>
       <c r="Y119" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z119" s="4"/>
       <c r="AA119" s="4"/>
@@ -8692,17 +8695,17 @@
         <v>29</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G120" s="5" t="s">
         <v>102</v>
@@ -8726,17 +8729,17 @@
       <c r="T120" s="5"/>
       <c r="U120" s="5"/>
       <c r="V120" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W120" s="5">
         <v>0</v>
       </c>
       <c r="X120" s="6"/>
       <c r="Y120" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z120" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA120" s="4"/>
       <c r="AB120" s="4"/>
@@ -8752,17 +8755,17 @@
         <v>29</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G121" s="5" t="s">
         <v>98</v>
@@ -8786,14 +8789,14 @@
       <c r="T121" s="5"/>
       <c r="U121" s="5"/>
       <c r="V121" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W121" s="5">
         <v>0</v>
       </c>
       <c r="X121" s="6"/>
       <c r="Y121" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z121" s="4"/>
       <c r="AA121" s="4"/>
@@ -8810,17 +8813,17 @@
         <v>29</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G122" s="5" t="s">
         <v>98</v>
@@ -8844,14 +8847,14 @@
       <c r="T122" s="5"/>
       <c r="U122" s="5"/>
       <c r="V122" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W122" s="5">
         <v>0</v>
       </c>
       <c r="X122" s="6"/>
       <c r="Y122" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z122" s="4"/>
       <c r="AA122" s="4"/>
@@ -8868,17 +8871,17 @@
         <v>29</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>102</v>
@@ -8902,17 +8905,17 @@
       <c r="T123" s="5"/>
       <c r="U123" s="5"/>
       <c r="V123" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W123" s="5">
         <v>0</v>
       </c>
       <c r="X123" s="6"/>
       <c r="Y123" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z123" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA123" s="4"/>
       <c r="AB123" s="4"/>
@@ -8928,17 +8931,17 @@
         <v>29</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G124" s="5" t="s">
         <v>102</v>
@@ -8962,14 +8965,14 @@
       <c r="T124" s="5"/>
       <c r="U124" s="5"/>
       <c r="V124" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W124" s="5">
         <v>0</v>
       </c>
       <c r="X124" s="6"/>
       <c r="Y124" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z124" s="4"/>
       <c r="AA124" s="4"/>
@@ -8986,17 +8989,17 @@
         <v>29</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G125" s="5" t="s">
         <v>98</v>
@@ -9020,14 +9023,14 @@
       <c r="T125" s="5"/>
       <c r="U125" s="5"/>
       <c r="V125" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W125" s="5">
         <v>0</v>
       </c>
       <c r="X125" s="6"/>
       <c r="Y125" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z125" s="4"/>
       <c r="AA125" s="4"/>
@@ -9044,17 +9047,17 @@
         <v>29</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G126" s="5" t="s">
         <v>98</v>
@@ -9078,14 +9081,14 @@
       <c r="T126" s="5"/>
       <c r="U126" s="5"/>
       <c r="V126" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W126" s="5">
         <v>0</v>
       </c>
       <c r="X126" s="6"/>
       <c r="Y126" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z126" s="4"/>
       <c r="AA126" s="4"/>
@@ -9102,17 +9105,17 @@
         <v>29</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G127" s="5" t="s">
         <v>102</v>
@@ -9136,14 +9139,14 @@
       <c r="T127" s="5"/>
       <c r="U127" s="5"/>
       <c r="V127" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W127" s="5">
         <v>0</v>
       </c>
       <c r="X127" s="6"/>
       <c r="Y127" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z127" s="4"/>
       <c r="AA127" s="4"/>
@@ -9160,17 +9163,17 @@
         <v>29</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>102</v>
@@ -9194,17 +9197,17 @@
       <c r="T128" s="5"/>
       <c r="U128" s="5"/>
       <c r="V128" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W128" s="5">
         <v>0</v>
       </c>
       <c r="X128" s="6"/>
       <c r="Y128" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z128" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA128" s="4"/>
       <c r="AB128" s="4"/>
@@ -9220,17 +9223,17 @@
         <v>29</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G129" s="5" t="s">
         <v>98</v>
@@ -9254,14 +9257,14 @@
       <c r="T129" s="5"/>
       <c r="U129" s="5"/>
       <c r="V129" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W129" s="5">
         <v>0</v>
       </c>
       <c r="X129" s="6"/>
       <c r="Y129" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z129" s="4"/>
       <c r="AA129" s="4"/>
@@ -9278,17 +9281,17 @@
         <v>29</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G130" s="5" t="s">
         <v>98</v>
@@ -9312,14 +9315,14 @@
       <c r="T130" s="5"/>
       <c r="U130" s="5"/>
       <c r="V130" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W130" s="5">
         <v>0</v>
       </c>
       <c r="X130" s="6"/>
       <c r="Y130" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z130" s="4"/>
       <c r="AA130" s="4"/>
@@ -9336,17 +9339,17 @@
         <v>29</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>102</v>
@@ -9370,17 +9373,17 @@
       <c r="T131" s="5"/>
       <c r="U131" s="5"/>
       <c r="V131" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W131" s="5">
         <v>0</v>
       </c>
       <c r="X131" s="6"/>
       <c r="Y131" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z131" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA131" s="4"/>
       <c r="AB131" s="4"/>
@@ -9396,17 +9399,17 @@
         <v>29</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>102</v>
@@ -9430,14 +9433,14 @@
       <c r="T132" s="5"/>
       <c r="U132" s="5"/>
       <c r="V132" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W132" s="5">
         <v>0</v>
       </c>
       <c r="X132" s="6"/>
       <c r="Y132" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z132" s="4"/>
       <c r="AA132" s="4"/>
@@ -9454,23 +9457,23 @@
         <v>29</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>98</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I133" s="5" t="s">
         <v>98</v>
@@ -9492,14 +9495,14 @@
       <c r="T133" s="5"/>
       <c r="U133" s="5"/>
       <c r="V133" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W133" s="5">
         <v>0</v>
       </c>
       <c r="X133" s="6"/>
       <c r="Y133" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z133" s="4"/>
       <c r="AA133" s="4"/>
@@ -9516,23 +9519,23 @@
         <v>29</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G134" s="5" t="s">
         <v>98</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I134" s="5" t="s">
         <v>98</v>
@@ -9554,14 +9557,14 @@
       <c r="T134" s="5"/>
       <c r="U134" s="5"/>
       <c r="V134" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W134" s="5">
         <v>0</v>
       </c>
       <c r="X134" s="6"/>
       <c r="Y134" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z134" s="4"/>
       <c r="AA134" s="4"/>
@@ -9578,23 +9581,23 @@
         <v>29</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G135" s="5" t="s">
         <v>98</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I135" s="5" t="s">
         <v>98</v>
@@ -9616,14 +9619,14 @@
       <c r="T135" s="5"/>
       <c r="U135" s="5"/>
       <c r="V135" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W135" s="5">
         <v>0</v>
       </c>
       <c r="X135" s="6"/>
       <c r="Y135" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z135" s="4"/>
       <c r="AA135" s="4"/>
@@ -9640,23 +9643,23 @@
         <v>29</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>102</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I136" s="5" t="s">
         <v>102</v>
@@ -9678,17 +9681,17 @@
       <c r="T136" s="5"/>
       <c r="U136" s="5"/>
       <c r="V136" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W136" s="5">
         <v>0</v>
       </c>
       <c r="X136" s="6"/>
       <c r="Y136" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z136" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA136" s="4"/>
       <c r="AB136" s="4"/>
@@ -9704,23 +9707,23 @@
         <v>29</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G137" s="5" t="s">
         <v>102</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I137" s="5" t="s">
         <v>102</v>
@@ -9742,14 +9745,14 @@
       <c r="T137" s="5"/>
       <c r="U137" s="5"/>
       <c r="V137" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W137" s="5">
         <v>0</v>
       </c>
       <c r="X137" s="6"/>
       <c r="Y137" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z137" s="4"/>
       <c r="AA137" s="4"/>
@@ -9766,23 +9769,23 @@
         <v>29</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G138" s="5" t="s">
         <v>102</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I138" s="5" t="s">
         <v>102</v>
@@ -9804,14 +9807,14 @@
       <c r="T138" s="5"/>
       <c r="U138" s="5"/>
       <c r="V138" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W138" s="5">
         <v>0</v>
       </c>
       <c r="X138" s="6"/>
       <c r="Y138" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z138" s="4"/>
       <c r="AA138" s="4"/>
@@ -9828,23 +9831,23 @@
         <v>29</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G139" s="5" t="s">
         <v>98</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I139" s="5" t="s">
         <v>98</v>
@@ -9866,14 +9869,14 @@
       <c r="T139" s="5"/>
       <c r="U139" s="5"/>
       <c r="V139" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W139" s="5">
         <v>0</v>
       </c>
       <c r="X139" s="6"/>
       <c r="Y139" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z139" s="4"/>
       <c r="AA139" s="4"/>
@@ -9890,23 +9893,23 @@
         <v>29</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>98</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I140" s="5" t="s">
         <v>98</v>
@@ -9928,17 +9931,17 @@
       <c r="T140" s="5"/>
       <c r="U140" s="5"/>
       <c r="V140" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W140" s="5">
         <v>0</v>
       </c>
       <c r="X140" s="6"/>
       <c r="Y140" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Z140" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AA140" s="4"/>
       <c r="AB140" s="4"/>
@@ -9954,23 +9957,23 @@
         <v>29</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G141" s="5" t="s">
         <v>98</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I141" s="5" t="s">
         <v>98</v>
@@ -9992,14 +9995,14 @@
       <c r="T141" s="5"/>
       <c r="U141" s="5"/>
       <c r="V141" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W141" s="5">
         <v>0</v>
       </c>
       <c r="X141" s="6"/>
       <c r="Y141" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z141" s="4"/>
       <c r="AA141" s="4"/>
@@ -10016,23 +10019,23 @@
         <v>29</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G142" s="5" t="s">
         <v>98</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I142" s="5" t="s">
         <v>98</v>
@@ -10054,14 +10057,14 @@
       <c r="T142" s="5"/>
       <c r="U142" s="5"/>
       <c r="V142" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W142" s="5">
         <v>0</v>
       </c>
       <c r="X142" s="6"/>
       <c r="Y142" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z142" s="4"/>
       <c r="AA142" s="4"/>
@@ -10078,23 +10081,23 @@
         <v>29</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G143" s="5" t="s">
         <v>98</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I143" s="5" t="s">
         <v>98</v>
@@ -10116,14 +10119,14 @@
       <c r="T143" s="5"/>
       <c r="U143" s="5"/>
       <c r="V143" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W143" s="5">
         <v>0</v>
       </c>
       <c r="X143" s="6"/>
       <c r="Y143" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z143" s="4"/>
       <c r="AA143" s="4"/>
@@ -10140,23 +10143,23 @@
         <v>29</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G144" s="5" t="s">
         <v>102</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I144" s="5" t="s">
         <v>102</v>
@@ -10178,17 +10181,17 @@
       <c r="T144" s="5"/>
       <c r="U144" s="5"/>
       <c r="V144" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W144" s="5">
         <v>0</v>
       </c>
       <c r="X144" s="6"/>
       <c r="Y144" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Z144" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AA144" s="4"/>
       <c r="AB144" s="4"/>
@@ -10204,23 +10207,23 @@
         <v>29</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G145" s="5" t="s">
         <v>102</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I145" s="5" t="s">
         <v>102</v>
@@ -10242,14 +10245,14 @@
       <c r="T145" s="5"/>
       <c r="U145" s="5"/>
       <c r="V145" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W145" s="5">
         <v>0</v>
       </c>
       <c r="X145" s="6"/>
       <c r="Y145" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z145" s="4"/>
       <c r="AA145" s="4"/>
@@ -10266,23 +10269,23 @@
         <v>29</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G146" s="5" t="s">
         <v>102</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I146" s="5" t="s">
         <v>102</v>
@@ -10304,14 +10307,14 @@
       <c r="T146" s="5"/>
       <c r="U146" s="5"/>
       <c r="V146" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W146" s="5">
         <v>0</v>
       </c>
       <c r="X146" s="6"/>
       <c r="Y146" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z146" s="4"/>
       <c r="AA146" s="4"/>
@@ -10328,23 +10331,23 @@
         <v>29</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G147" s="5" t="s">
         <v>98</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I147" s="5" t="s">
         <v>98</v>
@@ -10366,14 +10369,14 @@
       <c r="T147" s="5"/>
       <c r="U147" s="5"/>
       <c r="V147" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W147" s="5">
         <v>0</v>
       </c>
       <c r="X147" s="6"/>
       <c r="Y147" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z147" s="4"/>
       <c r="AA147" s="4"/>
@@ -10390,23 +10393,23 @@
         <v>29</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G148" s="5" t="s">
         <v>98</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I148" s="5" t="s">
         <v>98</v>
@@ -10428,17 +10431,17 @@
       <c r="T148" s="5"/>
       <c r="U148" s="5"/>
       <c r="V148" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W148" s="5">
         <v>0</v>
       </c>
       <c r="X148" s="6"/>
       <c r="Y148" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z148" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA148" s="4"/>
       <c r="AB148" s="4"/>
@@ -10454,14 +10457,14 @@
         <v>29</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
@@ -10484,14 +10487,14 @@
       <c r="T149" s="5"/>
       <c r="U149" s="5"/>
       <c r="V149" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W149" s="5">
         <v>0</v>
       </c>
       <c r="X149" s="6"/>
       <c r="Y149" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z149" s="4"/>
       <c r="AA149" s="4"/>
@@ -10508,14 +10511,14 @@
         <v>29</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
@@ -10538,14 +10541,14 @@
       <c r="T150" s="5"/>
       <c r="U150" s="5"/>
       <c r="V150" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W150" s="5">
         <v>0</v>
       </c>
       <c r="X150" s="6"/>
       <c r="Y150" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z150" s="4"/>
       <c r="AA150" s="4"/>
@@ -10562,14 +10565,14 @@
         <v>29</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
@@ -10592,14 +10595,14 @@
       <c r="T151" s="5"/>
       <c r="U151" s="5"/>
       <c r="V151" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W151" s="5">
         <v>0</v>
       </c>
       <c r="X151" s="6"/>
       <c r="Y151" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z151" s="4"/>
       <c r="AA151" s="4"/>
@@ -10616,14 +10619,14 @@
         <v>29</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
@@ -10646,14 +10649,14 @@
       <c r="T152" s="5"/>
       <c r="U152" s="5"/>
       <c r="V152" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W152" s="5">
         <v>0</v>
       </c>
       <c r="X152" s="6"/>
       <c r="Y152" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z152" s="4"/>
       <c r="AA152" s="4"/>
@@ -10670,14 +10673,14 @@
         <v>29</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
@@ -10700,14 +10703,14 @@
       <c r="T153" s="5"/>
       <c r="U153" s="5"/>
       <c r="V153" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W153" s="5">
         <v>0</v>
       </c>
       <c r="X153" s="6"/>
       <c r="Y153" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z153" s="4"/>
       <c r="AA153" s="4"/>
@@ -10724,14 +10727,14 @@
         <v>29</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
@@ -10754,14 +10757,14 @@
       <c r="T154" s="5"/>
       <c r="U154" s="5"/>
       <c r="V154" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W154" s="5">
         <v>0</v>
       </c>
       <c r="X154" s="6"/>
       <c r="Y154" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z154" s="4"/>
       <c r="AA154" s="4"/>
@@ -10778,14 +10781,14 @@
         <v>29</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
@@ -10808,14 +10811,14 @@
       <c r="T155" s="5"/>
       <c r="U155" s="5"/>
       <c r="V155" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W155" s="5">
         <v>0</v>
       </c>
       <c r="X155" s="6"/>
       <c r="Y155" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z155" s="4"/>
       <c r="AA155" s="4"/>
@@ -10832,14 +10835,14 @@
         <v>29</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
@@ -10862,14 +10865,14 @@
       <c r="T156" s="5"/>
       <c r="U156" s="5"/>
       <c r="V156" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W156" s="5">
         <v>0</v>
       </c>
       <c r="X156" s="6"/>
       <c r="Y156" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z156" s="4"/>
       <c r="AA156" s="4"/>
@@ -10886,14 +10889,14 @@
         <v>29</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
@@ -10916,14 +10919,14 @@
       <c r="T157" s="5"/>
       <c r="U157" s="5"/>
       <c r="V157" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W157" s="5">
         <v>0</v>
       </c>
       <c r="X157" s="6"/>
       <c r="Y157" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z157" s="4"/>
       <c r="AA157" s="4"/>
@@ -10940,14 +10943,14 @@
         <v>29</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
@@ -10970,14 +10973,14 @@
       <c r="T158" s="5"/>
       <c r="U158" s="5"/>
       <c r="V158" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W158" s="5">
         <v>0</v>
       </c>
       <c r="X158" s="6"/>
       <c r="Y158" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z158" s="4"/>
       <c r="AA158" s="4"/>
@@ -10994,14 +10997,14 @@
         <v>29</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
@@ -11024,14 +11027,14 @@
       <c r="T159" s="5"/>
       <c r="U159" s="5"/>
       <c r="V159" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W159" s="5">
         <v>0</v>
       </c>
       <c r="X159" s="6"/>
       <c r="Y159" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z159" s="4"/>
       <c r="AA159" s="4"/>
@@ -11048,14 +11051,14 @@
         <v>29</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
@@ -11078,14 +11081,14 @@
       <c r="T160" s="5"/>
       <c r="U160" s="5"/>
       <c r="V160" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W160" s="5">
         <v>0</v>
       </c>
       <c r="X160" s="6"/>
       <c r="Y160" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z160" s="4"/>
       <c r="AA160" s="4"/>
@@ -11102,14 +11105,14 @@
         <v>29</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
@@ -11139,7 +11142,7 @@
       </c>
       <c r="X161" s="6"/>
       <c r="Y161" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z161" s="4"/>
       <c r="AA161" s="4"/>
@@ -11156,14 +11159,14 @@
         <v>29</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
@@ -11193,7 +11196,7 @@
       </c>
       <c r="X162" s="6"/>
       <c r="Y162" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z162" s="4"/>
       <c r="AA162" s="4"/>
@@ -11210,14 +11213,14 @@
         <v>29</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
@@ -11247,7 +11250,7 @@
       </c>
       <c r="X163" s="6"/>
       <c r="Y163" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z163" s="4"/>
       <c r="AA163" s="4"/>
@@ -11264,14 +11267,14 @@
         <v>29</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
@@ -11301,7 +11304,7 @@
       </c>
       <c r="X164" s="6"/>
       <c r="Y164" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z164" s="4"/>
       <c r="AA164" s="4"/>
@@ -11315,17 +11318,17 @@
     </row>
     <row r="165" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E165" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="E165" s="5" t="s">
-        <v>306</v>
       </c>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
@@ -11351,7 +11354,7 @@
       <c r="W165" s="5"/>
       <c r="X165" s="6"/>
       <c r="Y165" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z165" s="4"/>
       <c r="AA165" s="4"/>
@@ -11365,17 +11368,17 @@
     </row>
     <row r="166" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
@@ -11401,7 +11404,7 @@
       <c r="W166" s="5"/>
       <c r="X166" s="6"/>
       <c r="Y166" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z166" s="4"/>
       <c r="AA166" s="4"/>
@@ -11415,17 +11418,17 @@
     </row>
     <row r="167" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
@@ -11451,7 +11454,7 @@
       <c r="W167" s="5"/>
       <c r="X167" s="6"/>
       <c r="Y167" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z167" s="4"/>
       <c r="AA167" s="4"/>
@@ -11465,17 +11468,17 @@
     </row>
     <row r="168" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
@@ -11501,7 +11504,7 @@
       <c r="W168" s="5"/>
       <c r="X168" s="6"/>
       <c r="Y168" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z168" s="4"/>
       <c r="AA168" s="4"/>
@@ -11515,17 +11518,17 @@
     </row>
     <row r="169" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
@@ -11551,7 +11554,7 @@
       <c r="W169" s="5"/>
       <c r="X169" s="6"/>
       <c r="Y169" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z169" s="4"/>
       <c r="AA169" s="4"/>
@@ -11565,17 +11568,17 @@
     </row>
     <row r="170" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
@@ -11601,7 +11604,7 @@
       <c r="W170" s="5"/>
       <c r="X170" s="6"/>
       <c r="Y170" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z170" s="4"/>
       <c r="AA170" s="4"/>
@@ -11615,17 +11618,17 @@
     </row>
     <row r="171" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
@@ -11651,7 +11654,7 @@
       <c r="W171" s="5"/>
       <c r="X171" s="6"/>
       <c r="Y171" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z171" s="4"/>
       <c r="AA171" s="4"/>
@@ -11665,17 +11668,17 @@
     </row>
     <row r="172" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
@@ -11701,7 +11704,7 @@
       <c r="W172" s="5"/>
       <c r="X172" s="6"/>
       <c r="Y172" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z172" s="4"/>
       <c r="AA172" s="4"/>
@@ -11715,17 +11718,17 @@
     </row>
     <row r="173" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
@@ -11751,7 +11754,7 @@
       <c r="W173" s="5"/>
       <c r="X173" s="6"/>
       <c r="Y173" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z173" s="4"/>
       <c r="AA173" s="4"/>
@@ -11765,17 +11768,17 @@
     </row>
     <row r="174" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
@@ -11801,7 +11804,7 @@
       <c r="W174" s="5"/>
       <c r="X174" s="6"/>
       <c r="Y174" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z174" s="4"/>
       <c r="AA174" s="4"/>
@@ -11815,17 +11818,17 @@
     </row>
     <row r="175" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
@@ -11851,7 +11854,7 @@
       <c r="W175" s="5"/>
       <c r="X175" s="6"/>
       <c r="Y175" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z175" s="4"/>
       <c r="AA175" s="4"/>
@@ -12081,7 +12084,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>98</v>
@@ -12089,7 +12092,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>102</v>
@@ -12139,7 +12142,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B10" s="15"/>
     </row>

--- a/exe/TSV/Excel/TH76_Tatehama_UIList.xlsx
+++ b/exe/TSV/Excel/TH76_Tatehama_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2405A48-877A-4DFE-8F3A-15CB9B27D119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AE5985-0B3B-4A4D-880D-A1C7A18F3B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6690" yWindow="3495" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4905" yWindow="3900" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH76_館浜駅_UIList" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="329">
   <si>
     <t>Type</t>
   </si>
@@ -573,7 +573,7 @@
     <t>1R</t>
   </si>
   <si>
-    <t>てこ</t>
+    <t>物理てこ</t>
   </si>
   <si>
     <t>0,1</t>
@@ -591,10 +591,10 @@
     <t>1R_G</t>
   </si>
   <si>
-    <t>信号機</t>
-  </si>
-  <si>
-    <t>館浜上り出発1R</t>
+    <t>信号機表示灯</t>
+  </si>
+  <si>
+    <t>TH76_1R</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/G.png</t>
@@ -621,7 +621,7 @@
     <t>2R_G</t>
   </si>
   <si>
-    <t>館浜上り出発2R</t>
+    <t>TH76_2R</t>
   </si>
   <si>
     <t>2R_Label</t>
@@ -633,7 +633,7 @@
     <t>3R_G</t>
   </si>
   <si>
-    <t>館浜上り出発3R</t>
+    <t>TH76_3R</t>
   </si>
   <si>
     <t>3R_Label</t>
@@ -645,7 +645,7 @@
     <t>4R_G</t>
   </si>
   <si>
-    <t>館浜上り出発4R</t>
+    <t>TH76_4R</t>
   </si>
   <si>
     <t>4R_Label</t>
@@ -666,7 +666,7 @@
     <t>5L_G</t>
   </si>
   <si>
-    <t>館浜下り場内5L</t>
+    <t>TH76_5L</t>
   </si>
   <si>
     <t>5L_Label</t>
@@ -723,6 +723,9 @@
     <t>Image/Button/ApproachingButton_Green_OFF.png,Image/Button/ApproachingButton_Green_ON.png</t>
   </si>
   <si>
+    <t>W21</t>
+  </si>
+  <si>
     <t>P21</t>
   </si>
   <si>
@@ -738,25 +741,25 @@
     <t>転てつ器単独てこはNCR</t>
   </si>
   <si>
-    <t>P21_PG</t>
-  </si>
-  <si>
-    <t>転てつ器</t>
-  </si>
-  <si>
-    <t>TH76_P21イ</t>
+    <t>W21_PG</t>
+  </si>
+  <si>
+    <t>転てつ器表示灯</t>
+  </si>
+  <si>
+    <t>TH76_W21イ</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>TH76_P21ロ</t>
+    <t>TH76_W21ロ</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/PG.png</t>
   </si>
   <si>
-    <t>P21_PY</t>
+    <t>W21_PY</t>
   </si>
   <si>
     <t>R</t>
@@ -765,103 +768,121 @@
     <t>Image/Light/N.png,Image/Light/PY.png</t>
   </si>
   <si>
-    <t>P21_Label</t>
+    <t>W21_Label</t>
+  </si>
+  <si>
+    <t>W22</t>
   </si>
   <si>
     <t>P22</t>
   </si>
   <si>
-    <t>P22_PG</t>
-  </si>
-  <si>
-    <t>TH76_P22</t>
-  </si>
-  <si>
-    <t>P22_PY</t>
-  </si>
-  <si>
-    <t>P22_Label</t>
+    <t>W22_PG</t>
+  </si>
+  <si>
+    <t>TH76_W22</t>
+  </si>
+  <si>
+    <t>W22_PY</t>
+  </si>
+  <si>
+    <t>W22_Label</t>
+  </si>
+  <si>
+    <t>W23</t>
   </si>
   <si>
     <t>P23</t>
   </si>
   <si>
-    <t>P23_PG</t>
-  </si>
-  <si>
-    <t>TH76_P23</t>
-  </si>
-  <si>
-    <t>P23_PY</t>
-  </si>
-  <si>
-    <t>P23_Label</t>
+    <t>W23_PG</t>
+  </si>
+  <si>
+    <t>TH76_W23</t>
+  </si>
+  <si>
+    <t>W23_PY</t>
+  </si>
+  <si>
+    <t>W23_Label</t>
+  </si>
+  <si>
+    <t>W24</t>
   </si>
   <si>
     <t>P24</t>
   </si>
   <si>
-    <t>P24_PG</t>
-  </si>
-  <si>
-    <t>TH76_P24イ</t>
-  </si>
-  <si>
-    <t>TH76_P24ロ</t>
-  </si>
-  <si>
-    <t>P24_PY</t>
-  </si>
-  <si>
-    <t>P24_Label</t>
+    <t>W24_PG</t>
+  </si>
+  <si>
+    <t>TH76_W24イ</t>
+  </si>
+  <si>
+    <t>TH76_W24ロ</t>
+  </si>
+  <si>
+    <t>W24_PY</t>
+  </si>
+  <si>
+    <t>W24_Label</t>
+  </si>
+  <si>
+    <t>W25</t>
   </si>
   <si>
     <t>P25</t>
   </si>
   <si>
-    <t>P25_PG</t>
-  </si>
-  <si>
-    <t>TH76_P25</t>
-  </si>
-  <si>
-    <t>P25_PY</t>
-  </si>
-  <si>
-    <t>P25_Label</t>
+    <t>W25_PG</t>
+  </si>
+  <si>
+    <t>TH76_W25</t>
+  </si>
+  <si>
+    <t>W25_PY</t>
+  </si>
+  <si>
+    <t>W25_Label</t>
+  </si>
+  <si>
+    <t>W26</t>
   </si>
   <si>
     <t>P26</t>
   </si>
   <si>
-    <t>P26_PG</t>
-  </si>
-  <si>
-    <t>TH76_P26イ</t>
-  </si>
-  <si>
-    <t>TH76_P26ロ</t>
-  </si>
-  <si>
-    <t>P26_PY</t>
-  </si>
-  <si>
-    <t>P26_Label</t>
+    <t>W26_PG</t>
+  </si>
+  <si>
+    <t>TH76_W26イ</t>
+  </si>
+  <si>
+    <t>TH76_W26ロ</t>
+  </si>
+  <si>
+    <t>W26_PY</t>
+  </si>
+  <si>
+    <t>W26_Label</t>
+  </si>
+  <si>
+    <t>W27</t>
   </si>
   <si>
     <t>P27</t>
   </si>
   <si>
-    <t>P27_PG</t>
-  </si>
-  <si>
-    <t>TH76_P27</t>
-  </si>
-  <si>
-    <t>P27_PY</t>
-  </si>
-  <si>
-    <t>P27_Label</t>
+    <t>W27_PG</t>
+  </si>
+  <si>
+    <t>TH76_W27</t>
+  </si>
+  <si>
+    <t>W27_PY</t>
+  </si>
+  <si>
+    <t>W27_Label</t>
   </si>
   <si>
     <t>KeyImage</t>
@@ -885,7 +906,7 @@
     <t>駅扱切換_PY</t>
   </si>
   <si>
-    <t>駅扱切換てこ</t>
+    <t>駅扱切換表示灯</t>
   </si>
   <si>
     <t>駅扱切換_PG</t>
@@ -894,7 +915,7 @@
     <t>TH76_5LAT_1</t>
   </si>
   <si>
-    <t>軌道回路</t>
+    <t>軌道回路表示灯</t>
   </si>
   <si>
     <t>TH76_5LAT</t>
@@ -939,13 +960,13 @@
     <t>TH76_5LDT_2</t>
   </si>
   <si>
-    <t>TH76_21イT_P21イN_1</t>
+    <t>TH76_21イT_W21イN_1</t>
   </si>
   <si>
     <t>TH76_21イT</t>
   </si>
   <si>
-    <t>TH76_21イT_P21イN_2</t>
+    <t>TH76_21イT_W21イN_2</t>
   </si>
   <si>
     <t>Image/Light/45N.png,Image/Light/45Y.png,Image/Light/45R.png</t>
@@ -954,10 +975,10 @@
     <t>45度</t>
   </si>
   <si>
-    <t>TH76_21イT_P21イR_1</t>
-  </si>
-  <si>
-    <t>TH76_21イT_P21イR_2</t>
+    <t>TH76_21イT_W21イR_1</t>
+  </si>
+  <si>
+    <t>TH76_21イT_W21イR_2</t>
   </si>
   <si>
     <t>Image/Light/135N.png,Image/Light/135Y.png,Image/Light/135R.png</t>
@@ -966,67 +987,67 @@
     <t>135度</t>
   </si>
   <si>
-    <t>TH76_21ロT_P21ロN_1</t>
+    <t>TH76_21ロT_W21ロN_1</t>
   </si>
   <si>
     <t>TH76_21ロT</t>
   </si>
   <si>
-    <t>TH76_21ロT_P21ロN_2</t>
-  </si>
-  <si>
-    <t>TH76_21ロT_P21ロN_3</t>
-  </si>
-  <si>
-    <t>TH76_21ロT_P21ロR_1</t>
-  </si>
-  <si>
-    <t>TH76_21ロT_P21ロR_2</t>
-  </si>
-  <si>
-    <t>TH76_21ロT_P21ロR_3</t>
-  </si>
-  <si>
-    <t>TH76_22T_P22N_1</t>
+    <t>TH76_21ロT_W21ロN_2</t>
+  </si>
+  <si>
+    <t>TH76_21ロT_W21ロN_3</t>
+  </si>
+  <si>
+    <t>TH76_21ロT_W21ロR_1</t>
+  </si>
+  <si>
+    <t>TH76_21ロT_W21ロR_2</t>
+  </si>
+  <si>
+    <t>TH76_21ロT_W21ロR_3</t>
+  </si>
+  <si>
+    <t>TH76_22T_W22N_1</t>
   </si>
   <si>
     <t>TH76_22T</t>
   </si>
   <si>
-    <t>TH76_22T_P22N_2</t>
-  </si>
-  <si>
-    <t>TH76_22T_P22R_1</t>
-  </si>
-  <si>
-    <t>TH76_22T_P22R_2</t>
-  </si>
-  <si>
-    <t>TH76_22T_P22R_3</t>
-  </si>
-  <si>
-    <t>TH76_23T_P23N_P24ロN_1</t>
+    <t>TH76_22T_W22N_2</t>
+  </si>
+  <si>
+    <t>TH76_22T_W22R_1</t>
+  </si>
+  <si>
+    <t>TH76_22T_W22R_2</t>
+  </si>
+  <si>
+    <t>TH76_22T_W22R_3</t>
+  </si>
+  <si>
+    <t>TH76_23T_W23N_W24ロN_1</t>
   </si>
   <si>
     <t>TH76_23T</t>
   </si>
   <si>
-    <t>P24ロ</t>
-  </si>
-  <si>
-    <t>TH76_23T_P23N_P24ロN_2</t>
-  </si>
-  <si>
-    <t>TH76_23T_P23R_P24ロN_1</t>
-  </si>
-  <si>
-    <t>TH76_23T_P23R_P24ロN_2</t>
-  </si>
-  <si>
-    <t>TH76_23T_P23R_P24ロN_3</t>
-  </si>
-  <si>
-    <t>TH76_23T_P24ロR_1</t>
+    <t>W24ロ</t>
+  </si>
+  <si>
+    <t>TH76_23T_W23N_W24ロN_2</t>
+  </si>
+  <si>
+    <t>TH76_23T_W23R_W24ロN_1</t>
+  </si>
+  <si>
+    <t>TH76_23T_W23R_W24ロN_2</t>
+  </si>
+  <si>
+    <t>TH76_23T_W23R_W24ロN_3</t>
+  </si>
+  <si>
+    <t>TH76_23T_W24ロR_1</t>
   </si>
   <si>
     <t>Image/Light/90N.png,Image/Light/90Y.png,Image/Light/90R.png</t>
@@ -1035,85 +1056,85 @@
     <t>90度</t>
   </si>
   <si>
-    <t>TH76_23T_P24ロR_2</t>
-  </si>
-  <si>
-    <t>TH76_24T_P24イN_1</t>
+    <t>TH76_23T_W24ロR_2</t>
+  </si>
+  <si>
+    <t>TH76_24T_W24イN_1</t>
   </si>
   <si>
     <t>TH76_24T</t>
   </si>
   <si>
-    <t>TH76_24T_P24イN_2</t>
-  </si>
-  <si>
-    <t>TH76_24T_P24イN_3</t>
-  </si>
-  <si>
-    <t>TH76_24T_P24イR_1</t>
-  </si>
-  <si>
-    <t>TH76_24T_P24イR_2</t>
-  </si>
-  <si>
-    <t>TH76_25T_P25N_1</t>
+    <t>TH76_24T_W24イN_2</t>
+  </si>
+  <si>
+    <t>TH76_24T_W24イN_3</t>
+  </si>
+  <si>
+    <t>TH76_24T_W24イR_1</t>
+  </si>
+  <si>
+    <t>TH76_24T_W24イR_2</t>
+  </si>
+  <si>
+    <t>TH76_25T_W25N_1</t>
   </si>
   <si>
     <t>TH76_25T</t>
   </si>
   <si>
-    <t>TH76_25T_P25N_2</t>
-  </si>
-  <si>
-    <t>TH76_25T_P25R_1</t>
-  </si>
-  <si>
-    <t>TH76_25T_P25R_2</t>
-  </si>
-  <si>
-    <t>TH76_26イT_P26イN_1</t>
+    <t>TH76_25T_W25N_2</t>
+  </si>
+  <si>
+    <t>TH76_25T_W25R_1</t>
+  </si>
+  <si>
+    <t>TH76_25T_W25R_2</t>
+  </si>
+  <si>
+    <t>TH76_26イT_W26イN_1</t>
   </si>
   <si>
     <t>TH76_26イT</t>
   </si>
   <si>
-    <t>TH76_26イT_P26イN_2</t>
-  </si>
-  <si>
-    <t>TH76_26イT_P26イR_1</t>
-  </si>
-  <si>
-    <t>TH76_26イT_P26イR_2</t>
-  </si>
-  <si>
-    <t>TH76_26ロT_P26ロN_1</t>
+    <t>TH76_26イT_W26イN_2</t>
+  </si>
+  <si>
+    <t>TH76_26イT_W26イR_1</t>
+  </si>
+  <si>
+    <t>TH76_26イT_W26イR_2</t>
+  </si>
+  <si>
+    <t>TH76_26ロT_W26ロN_1</t>
   </si>
   <si>
     <t>TH76_26ロT</t>
   </si>
   <si>
-    <t>TH76_26ロT_P26ロN_2</t>
-  </si>
-  <si>
-    <t>TH76_26ロT_P26ロR_1</t>
-  </si>
-  <si>
-    <t>TH76_26ロT_P26ロR_2</t>
-  </si>
-  <si>
-    <t>TH76_27T_P27N_1</t>
+    <t>TH76_26ロT_W26ロN_2</t>
+  </si>
+  <si>
+    <t>TH76_26ロT_W26ロR_1</t>
+  </si>
+  <si>
+    <t>TH76_26ロT_W26ロR_2</t>
+  </si>
+  <si>
+    <t>TH76_27T_W27N_1</t>
   </si>
   <si>
     <t>TH76_27T</t>
   </si>
   <si>
-    <t>TH76_27T_P27N_2</t>
-  </si>
-  <si>
-    <t>TH76_27T_P27R_1</t>
-  </si>
-  <si>
-    <t>TH76_27T_P27R_2</t>
+    <t>TH76_27T_W27N_2</t>
+  </si>
+  <si>
+    <t>TH76_27T_W27R_1</t>
+  </si>
+  <si>
+    <t>TH76_27T_W27R_2</t>
   </si>
   <si>
     <t>7T_1</t>
@@ -1134,22 +1155,22 @@
     <t>TH75_TST</t>
   </si>
   <si>
-    <t>TH75_41イT_P41イN_1</t>
+    <t>TH75_41イT_W41イN_1</t>
   </si>
   <si>
     <t>TH75_41イT</t>
   </si>
   <si>
-    <t>TH75_P41イ</t>
-  </si>
-  <si>
-    <t>TH75_41イT_P41イN_2</t>
-  </si>
-  <si>
-    <t>TH75_41イT_P41イR_1</t>
-  </si>
-  <si>
-    <t>TH75_41イT_P41イR_2</t>
+    <t>TH75_W41イ</t>
+  </si>
+  <si>
+    <t>TH75_41イT_W41イN_2</t>
+  </si>
+  <si>
+    <t>TH75_41イT_W41イR_1</t>
+  </si>
+  <si>
+    <t>TH75_41イT_W41イR_2</t>
   </si>
   <si>
     <t>Image/Light/68N.png,Image/Light/68Y.png,Image/Light/68R.png</t>
@@ -1158,91 +1179,91 @@
     <t>68度</t>
   </si>
   <si>
-    <t>TH75_41ロT_P41ロN_1</t>
+    <t>TH75_41ロT_W41ロN_1</t>
   </si>
   <si>
     <t>TH75_41ロT</t>
   </si>
   <si>
-    <t>TH75_P41ロ</t>
-  </si>
-  <si>
-    <t>TH75_41ロT_P41ロN_2</t>
-  </si>
-  <si>
-    <t>TH75_41ロT_P41ロR_1</t>
-  </si>
-  <si>
-    <t>TH75_41ロT_P41ロR_2</t>
-  </si>
-  <si>
-    <t>TH75_43イT_P43イN_1</t>
+    <t>TH75_W41ロ</t>
+  </si>
+  <si>
+    <t>TH75_41ロT_W41ロN_2</t>
+  </si>
+  <si>
+    <t>TH75_41ロT_W41ロR_1</t>
+  </si>
+  <si>
+    <t>TH75_41ロT_W41ロR_2</t>
+  </si>
+  <si>
+    <t>TH75_43イT_W43イN_1</t>
   </si>
   <si>
     <t>TH75_43イT</t>
   </si>
   <si>
-    <t>TH75_P43イ</t>
-  </si>
-  <si>
-    <t>TH75_43イT_P43イN_2</t>
-  </si>
-  <si>
-    <t>TH75_43イT_P43イR_1</t>
-  </si>
-  <si>
-    <t>TH75_43イT_P43イR_2</t>
-  </si>
-  <si>
-    <t>TH75_43ロT_P43ロN_1</t>
+    <t>TH75_W43イ</t>
+  </si>
+  <si>
+    <t>TH75_43イT_W43イN_2</t>
+  </si>
+  <si>
+    <t>TH75_43イT_W43イR_1</t>
+  </si>
+  <si>
+    <t>TH75_43イT_W43イR_2</t>
+  </si>
+  <si>
+    <t>TH75_43ロT_W43ロN_1</t>
   </si>
   <si>
     <t>TH75_43ロT</t>
   </si>
   <si>
-    <t>TH75_P43ロ</t>
-  </si>
-  <si>
-    <t>TH75_43ロT_P43ロN_2</t>
-  </si>
-  <si>
-    <t>TH75_43ロT_P43ロR_1</t>
-  </si>
-  <si>
-    <t>TH75_43ロT_P43ロR_2</t>
-  </si>
-  <si>
-    <t>TH75_44T_P44イN_P45ロN_1</t>
+    <t>TH75_W43ロ</t>
+  </si>
+  <si>
+    <t>TH75_43ロT_W43ロN_2</t>
+  </si>
+  <si>
+    <t>TH75_43ロT_W43ロR_1</t>
+  </si>
+  <si>
+    <t>TH75_43ロT_W43ロR_2</t>
+  </si>
+  <si>
+    <t>TH75_44T_W44イN_W45ロN_1</t>
   </si>
   <si>
     <t>TH75_44T</t>
   </si>
   <si>
-    <t>TH75_P44イ</t>
-  </si>
-  <si>
-    <t>TH75_P45ロ</t>
-  </si>
-  <si>
-    <t>TH75_44T_P44イN_P45ロN_2</t>
-  </si>
-  <si>
-    <t>TH75_44T_P44イN_P45ロN_3</t>
-  </si>
-  <si>
-    <t>TH75_44T_P44イN_P45ロR_1</t>
-  </si>
-  <si>
-    <t>TH75_44T_P44イN_P45ロR_2</t>
-  </si>
-  <si>
-    <t>TH75_44T_P44イN_P45ロR_3</t>
-  </si>
-  <si>
-    <t>TH75_44T_P44イR_P45ロN_1</t>
-  </si>
-  <si>
-    <t>TH75_44T_P44イR_P45ロN_2</t>
+    <t>TH75_W44イ</t>
+  </si>
+  <si>
+    <t>TH75_W45ロ</t>
+  </si>
+  <si>
+    <t>TH75_44T_W44イN_W45ロN_2</t>
+  </si>
+  <si>
+    <t>TH75_44T_W44イN_W45ロN_3</t>
+  </si>
+  <si>
+    <t>TH75_44T_W44イN_W45ロR_1</t>
+  </si>
+  <si>
+    <t>TH75_44T_W44イN_W45ロR_2</t>
+  </si>
+  <si>
+    <t>TH75_44T_W44イN_W45ロR_3</t>
+  </si>
+  <si>
+    <t>TH75_44T_W44イR_W45ロN_1</t>
+  </si>
+  <si>
+    <t>TH75_44T_W44イR_W45ロN_2</t>
   </si>
   <si>
     <t>Image/Light/112N.png,Image/Light/112Y.png,Image/Light/112R.png</t>
@@ -1251,37 +1272,37 @@
     <t>112度</t>
   </si>
   <si>
-    <t>TH75_45T_P44ロN_P45イN_1</t>
+    <t>TH75_45T_W44ロN_W45イN_1</t>
   </si>
   <si>
     <t>TH75_45T</t>
   </si>
   <si>
-    <t>TH75_P44ロ</t>
-  </si>
-  <si>
-    <t>TH75_P45イ</t>
-  </si>
-  <si>
-    <t>TH75_45T_P44ロN_P45イN_2</t>
-  </si>
-  <si>
-    <t>TH75_45T_P44ロN_P45イN_3</t>
-  </si>
-  <si>
-    <t>TH75_45T_P44ロN_P45イR_1</t>
-  </si>
-  <si>
-    <t>TH75_45T_P44ロN_P45イR_2</t>
-  </si>
-  <si>
-    <t>TH75_45T_P44ロN_P45イR_3</t>
-  </si>
-  <si>
-    <t>TH75_45T_P44ロR_P45イN_1</t>
-  </si>
-  <si>
-    <t>TH75_45T_P44ロR_P45イN_2</t>
+    <t>TH75_W44ロ</t>
+  </si>
+  <si>
+    <t>TH75_W45イ</t>
+  </si>
+  <si>
+    <t>TH75_45T_W44ロN_W45イN_2</t>
+  </si>
+  <si>
+    <t>TH75_45T_W44ロN_W45イN_3</t>
+  </si>
+  <si>
+    <t>TH75_45T_W44ロN_W45イR_1</t>
+  </si>
+  <si>
+    <t>TH75_45T_W44ロN_W45イR_2</t>
+  </si>
+  <si>
+    <t>TH75_45T_W44ロN_W45イR_3</t>
+  </si>
+  <si>
+    <t>TH75_45T_W44ロR_W45イN_1</t>
+  </si>
+  <si>
+    <t>TH75_45T_W44ロR_W45イN_2</t>
   </si>
   <si>
     <t>TH75_6LT_1</t>
@@ -1344,7 +1365,7 @@
     <t>停電_R</t>
   </si>
   <si>
-    <t>ランプ</t>
+    <t>状態表示灯</t>
   </si>
   <si>
     <t>TH76_停電</t>
@@ -3596,22 +3617,22 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
       <c r="U32" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V32" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W32" s="5">
         <v>0</v>
       </c>
       <c r="X32" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y32" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z32" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
@@ -3627,24 +3648,24 @@
         <v>29</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H33" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I33" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="J33" s="5">
         <v>166</v>
@@ -3670,7 +3691,7 @@
       </c>
       <c r="X33" s="6"/>
       <c r="Y33" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
@@ -3687,24 +3708,24 @@
         <v>29</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J34" s="5">
         <v>200</v>
@@ -3730,7 +3751,7 @@
       </c>
       <c r="X34" s="6"/>
       <c r="Y34" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
@@ -3747,7 +3768,7 @@
         <v>50</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>90</v>
@@ -3786,7 +3807,7 @@
         <v>53</v>
       </c>
       <c r="U35" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V35" s="5"/>
       <c r="W35" s="5"/>
@@ -3807,14 +3828,14 @@
         <v>38</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="5"/>
@@ -3836,19 +3857,19 @@
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
       <c r="U36" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="V36" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W36" s="5">
         <v>0</v>
       </c>
       <c r="X36" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y36" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
@@ -3865,18 +3886,18 @@
         <v>29</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H37" s="14"/>
       <c r="I37" s="5"/>
@@ -3904,7 +3925,7 @@
       </c>
       <c r="X37" s="6"/>
       <c r="Y37" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
@@ -3921,18 +3942,18 @@
         <v>29</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="5"/>
@@ -3960,7 +3981,7 @@
       </c>
       <c r="X38" s="6"/>
       <c r="Y38" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
@@ -3977,10 +3998,10 @@
         <v>50</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="5"/>
@@ -4016,7 +4037,7 @@
         <v>53</v>
       </c>
       <c r="U39" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
@@ -4037,14 +4058,14 @@
         <v>38</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="5"/>
@@ -4066,19 +4087,19 @@
       <c r="S40" s="14"/>
       <c r="T40" s="14"/>
       <c r="U40" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="V40" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W40" s="5">
         <v>0</v>
       </c>
       <c r="X40" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
@@ -4095,18 +4116,18 @@
         <v>29</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="5"/>
@@ -4134,7 +4155,7 @@
       </c>
       <c r="X41" s="6"/>
       <c r="Y41" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
@@ -4151,18 +4172,18 @@
         <v>29</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H42" s="14"/>
       <c r="I42" s="5"/>
@@ -4190,7 +4211,7 @@
       </c>
       <c r="X42" s="6"/>
       <c r="Y42" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
@@ -4207,10 +4228,10 @@
         <v>50</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="5"/>
@@ -4246,7 +4267,7 @@
         <v>53</v>
       </c>
       <c r="U43" s="10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="V43" s="5"/>
       <c r="W43" s="5"/>
@@ -4267,14 +4288,14 @@
         <v>38</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F44" s="14"/>
       <c r="G44" s="5"/>
@@ -4296,19 +4317,19 @@
       <c r="S44" s="14"/>
       <c r="T44" s="14"/>
       <c r="U44" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="V44" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W44" s="5">
         <v>0</v>
       </c>
       <c r="X44" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y44" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
@@ -4325,24 +4346,24 @@
         <v>29</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J45" s="5">
         <v>370</v>
@@ -4368,7 +4389,7 @@
       </c>
       <c r="X45" s="6"/>
       <c r="Y45" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
@@ -4385,24 +4406,24 @@
         <v>29</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J46" s="5">
         <v>404</v>
@@ -4428,7 +4449,7 @@
       </c>
       <c r="X46" s="6"/>
       <c r="Y46" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
@@ -4445,10 +4466,10 @@
         <v>50</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="5"/>
@@ -4484,7 +4505,7 @@
         <v>53</v>
       </c>
       <c r="U47" s="10" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="V47" s="5"/>
       <c r="W47" s="5"/>
@@ -4505,14 +4526,14 @@
         <v>38</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -4534,19 +4555,19 @@
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
       <c r="U48" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="V48" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W48" s="5">
         <v>0</v>
       </c>
       <c r="X48" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y48" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z48" s="4"/>
       <c r="AA48" s="4"/>
@@ -4563,18 +4584,18 @@
         <v>29</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
@@ -4602,7 +4623,7 @@
       </c>
       <c r="X49" s="6"/>
       <c r="Y49" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z49" s="4"/>
       <c r="AA49" s="4"/>
@@ -4619,18 +4640,18 @@
         <v>29</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
@@ -4658,7 +4679,7 @@
       </c>
       <c r="X50" s="6"/>
       <c r="Y50" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
@@ -4675,10 +4696,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>121</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="5"/>
@@ -4714,7 +4735,7 @@
         <v>53</v>
       </c>
       <c r="U51" s="10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
@@ -4735,14 +4756,14 @@
         <v>38</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
@@ -4764,19 +4785,19 @@
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
       <c r="U52" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="V52" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W52" s="5">
         <v>0</v>
       </c>
       <c r="X52" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y52" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z52" s="4"/>
       <c r="AA52" s="4"/>
@@ -4793,24 +4814,24 @@
         <v>29</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J53" s="5">
         <v>506</v>
@@ -4836,7 +4857,7 @@
       </c>
       <c r="X53" s="6"/>
       <c r="Y53" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z53" s="4"/>
       <c r="AA53" s="4"/>
@@ -4853,24 +4874,24 @@
         <v>29</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J54" s="5">
         <v>540</v>
@@ -4896,7 +4917,7 @@
       </c>
       <c r="X54" s="6"/>
       <c r="Y54" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z54" s="4"/>
       <c r="AA54" s="4"/>
@@ -4913,10 +4934,10 @@
         <v>50</v>
       </c>
       <c r="B55" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>131</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="D55" s="10"/>
       <c r="E55" s="5"/>
@@ -4952,7 +4973,7 @@
         <v>53</v>
       </c>
       <c r="U55" s="10" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="V55" s="5"/>
       <c r="W55" s="5"/>
@@ -4973,14 +4994,14 @@
         <v>38</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
@@ -5002,19 +5023,19 @@
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
       <c r="U56" s="5" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="V56" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W56" s="5">
         <v>0</v>
       </c>
       <c r="X56" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y56" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z56" s="4"/>
       <c r="AA56" s="4"/>
@@ -5031,18 +5052,18 @@
         <v>29</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
@@ -5070,7 +5091,7 @@
       </c>
       <c r="X57" s="6"/>
       <c r="Y57" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z57" s="4"/>
       <c r="AA57" s="4"/>
@@ -5087,18 +5108,18 @@
         <v>29</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
@@ -5126,7 +5147,7 @@
       </c>
       <c r="X58" s="6"/>
       <c r="Y58" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z58" s="4"/>
       <c r="AA58" s="4"/>
@@ -5143,10 +5164,10 @@
         <v>50</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D59" s="10"/>
       <c r="E59" s="5"/>
@@ -5182,7 +5203,7 @@
         <v>53</v>
       </c>
       <c r="U59" s="10" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="V59" s="5"/>
       <c r="W59" s="5"/>
@@ -5200,17 +5221,17 @@
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -5232,22 +5253,22 @@
       <c r="S60" s="5"/>
       <c r="T60" s="5"/>
       <c r="U60" s="5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="V60" s="5" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="W60" s="5">
         <v>1</v>
       </c>
       <c r="X60" s="6" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="Y60" s="4" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="Z60" s="4" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="AA60" s="4"/>
       <c r="AB60" s="4"/>
@@ -5263,14 +5284,14 @@
         <v>29</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -5300,7 +5321,7 @@
       </c>
       <c r="X61" s="6"/>
       <c r="Y61" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z61" s="4"/>
       <c r="AA61" s="4"/>
@@ -5317,14 +5338,14 @@
         <v>29</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -5354,7 +5375,7 @@
       </c>
       <c r="X62" s="6"/>
       <c r="Y62" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z62" s="4"/>
       <c r="AA62" s="4"/>
@@ -5371,14 +5392,14 @@
         <v>29</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
@@ -5401,17 +5422,17 @@
       <c r="T63" s="5"/>
       <c r="U63" s="5"/>
       <c r="V63" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W63" s="5">
         <v>0</v>
       </c>
       <c r="X63" s="6"/>
       <c r="Y63" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z63" s="4" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="AA63" s="4"/>
       <c r="AB63" s="4"/>
@@ -5427,14 +5448,14 @@
         <v>29</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -5457,14 +5478,14 @@
       <c r="T64" s="5"/>
       <c r="U64" s="5"/>
       <c r="V64" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W64" s="5">
         <v>0</v>
       </c>
       <c r="X64" s="6"/>
       <c r="Y64" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z64" s="4"/>
       <c r="AA64" s="4"/>
@@ -5481,14 +5502,14 @@
         <v>29</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
@@ -5511,14 +5532,14 @@
       <c r="T65" s="5"/>
       <c r="U65" s="5"/>
       <c r="V65" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W65" s="5">
         <v>0</v>
       </c>
       <c r="X65" s="6"/>
       <c r="Y65" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z65" s="4"/>
       <c r="AA65" s="4"/>
@@ -5535,14 +5556,14 @@
         <v>29</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
@@ -5565,14 +5586,14 @@
       <c r="T66" s="5"/>
       <c r="U66" s="5"/>
       <c r="V66" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W66" s="5">
         <v>0</v>
       </c>
       <c r="X66" s="6"/>
       <c r="Y66" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z66" s="4"/>
       <c r="AA66" s="4"/>
@@ -5589,14 +5610,14 @@
         <v>29</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
@@ -5619,14 +5640,14 @@
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
       <c r="V67" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W67" s="5">
         <v>0</v>
       </c>
       <c r="X67" s="6"/>
       <c r="Y67" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z67" s="4"/>
       <c r="AA67" s="4"/>
@@ -5643,14 +5664,14 @@
         <v>29</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
@@ -5673,14 +5694,14 @@
       <c r="T68" s="5"/>
       <c r="U68" s="5"/>
       <c r="V68" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W68" s="5">
         <v>0</v>
       </c>
       <c r="X68" s="6"/>
       <c r="Y68" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z68" s="4"/>
       <c r="AA68" s="4"/>
@@ -5697,14 +5718,14 @@
         <v>29</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
@@ -5727,14 +5748,14 @@
       <c r="T69" s="5"/>
       <c r="U69" s="5"/>
       <c r="V69" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W69" s="5">
         <v>0</v>
       </c>
       <c r="X69" s="6"/>
       <c r="Y69" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z69" s="4"/>
       <c r="AA69" s="4"/>
@@ -5751,14 +5772,14 @@
         <v>29</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -5781,14 +5802,14 @@
       <c r="T70" s="5"/>
       <c r="U70" s="5"/>
       <c r="V70" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W70" s="5">
         <v>0</v>
       </c>
       <c r="X70" s="6"/>
       <c r="Y70" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z70" s="4"/>
       <c r="AA70" s="4"/>
@@ -5805,20 +5826,20 @@
         <v>29</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
@@ -5839,14 +5860,14 @@
       <c r="T71" s="5"/>
       <c r="U71" s="5"/>
       <c r="V71" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W71" s="5">
         <v>0</v>
       </c>
       <c r="X71" s="6"/>
       <c r="Y71" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z71" s="4"/>
       <c r="AA71" s="4"/>
@@ -5863,20 +5884,20 @@
         <v>29</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
@@ -5897,17 +5918,17 @@
       <c r="T72" s="5"/>
       <c r="U72" s="5"/>
       <c r="V72" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W72" s="5">
         <v>0</v>
       </c>
       <c r="X72" s="6"/>
       <c r="Y72" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Z72" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AA72" s="4"/>
       <c r="AB72" s="4"/>
@@ -5923,20 +5944,20 @@
         <v>29</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
@@ -5957,14 +5978,14 @@
       <c r="T73" s="5"/>
       <c r="U73" s="5"/>
       <c r="V73" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W73" s="5">
         <v>0</v>
       </c>
       <c r="X73" s="6"/>
       <c r="Y73" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z73" s="4"/>
       <c r="AA73" s="4"/>
@@ -5981,20 +6002,20 @@
         <v>29</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
@@ -6015,17 +6036,17 @@
       <c r="T74" s="5"/>
       <c r="U74" s="5"/>
       <c r="V74" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W74" s="5">
         <v>0</v>
       </c>
       <c r="X74" s="6"/>
       <c r="Y74" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="Z74" s="4" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AA74" s="4"/>
       <c r="AB74" s="4"/>
@@ -6041,20 +6062,20 @@
         <v>29</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F75" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G75" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
@@ -6075,14 +6096,14 @@
       <c r="T75" s="5"/>
       <c r="U75" s="5"/>
       <c r="V75" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W75" s="5">
         <v>0</v>
       </c>
       <c r="X75" s="6"/>
       <c r="Y75" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z75" s="4"/>
       <c r="AA75" s="4"/>
@@ -6099,20 +6120,20 @@
         <v>29</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F76" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G76" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
@@ -6133,14 +6154,14 @@
       <c r="T76" s="5"/>
       <c r="U76" s="5"/>
       <c r="V76" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W76" s="5">
         <v>0</v>
       </c>
       <c r="X76" s="6"/>
       <c r="Y76" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z76" s="4"/>
       <c r="AA76" s="4"/>
@@ -6157,20 +6178,20 @@
         <v>29</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F77" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G77" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
@@ -6191,17 +6212,17 @@
       <c r="T77" s="5"/>
       <c r="U77" s="5"/>
       <c r="V77" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W77" s="5">
         <v>0</v>
       </c>
       <c r="X77" s="6"/>
       <c r="Y77" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Z77" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AA77" s="4"/>
       <c r="AB77" s="4"/>
@@ -6217,20 +6238,20 @@
         <v>29</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
@@ -6251,17 +6272,17 @@
       <c r="T78" s="5"/>
       <c r="U78" s="5"/>
       <c r="V78" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W78" s="5">
         <v>0</v>
       </c>
       <c r="X78" s="6"/>
       <c r="Y78" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="Z78" s="4" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AA78" s="4"/>
       <c r="AB78" s="4"/>
@@ -6277,20 +6298,20 @@
         <v>29</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
@@ -6311,14 +6332,14 @@
       <c r="T79" s="5"/>
       <c r="U79" s="5"/>
       <c r="V79" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W79" s="5">
         <v>0</v>
       </c>
       <c r="X79" s="6"/>
       <c r="Y79" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z79" s="4"/>
       <c r="AA79" s="4"/>
@@ -6335,20 +6356,20 @@
         <v>29</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
@@ -6369,17 +6390,17 @@
       <c r="T80" s="5"/>
       <c r="U80" s="5"/>
       <c r="V80" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W80" s="5">
         <v>0</v>
       </c>
       <c r="X80" s="6"/>
       <c r="Y80" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Z80" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AA80" s="4"/>
       <c r="AB80" s="4"/>
@@ -6395,20 +6416,20 @@
         <v>29</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
@@ -6429,14 +6450,14 @@
       <c r="T81" s="5"/>
       <c r="U81" s="5"/>
       <c r="V81" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W81" s="5">
         <v>0</v>
       </c>
       <c r="X81" s="6"/>
       <c r="Y81" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z81" s="4"/>
       <c r="AA81" s="4"/>
@@ -6453,20 +6474,20 @@
         <v>29</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
@@ -6487,17 +6508,17 @@
       <c r="T82" s="5"/>
       <c r="U82" s="5"/>
       <c r="V82" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W82" s="5">
         <v>0</v>
       </c>
       <c r="X82" s="6"/>
       <c r="Y82" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="Z82" s="4" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AA82" s="4"/>
       <c r="AB82" s="4"/>
@@ -6513,20 +6534,20 @@
         <v>29</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
@@ -6547,14 +6568,14 @@
       <c r="T83" s="5"/>
       <c r="U83" s="5"/>
       <c r="V83" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W83" s="5">
         <v>0</v>
       </c>
       <c r="X83" s="6"/>
       <c r="Y83" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z83" s="4"/>
       <c r="AA83" s="4"/>
@@ -6571,20 +6592,20 @@
         <v>29</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
@@ -6605,14 +6626,14 @@
       <c r="T84" s="5"/>
       <c r="U84" s="5"/>
       <c r="V84" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W84" s="5">
         <v>0</v>
       </c>
       <c r="X84" s="6"/>
       <c r="Y84" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z84" s="4"/>
       <c r="AA84" s="4"/>
@@ -6629,20 +6650,20 @@
         <v>29</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
@@ -6663,14 +6684,14 @@
       <c r="T85" s="5"/>
       <c r="U85" s="5"/>
       <c r="V85" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W85" s="5">
         <v>0</v>
       </c>
       <c r="X85" s="6"/>
       <c r="Y85" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z85" s="4"/>
       <c r="AA85" s="4"/>
@@ -6687,26 +6708,26 @@
         <v>29</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J86" s="5">
         <v>550</v>
@@ -6725,17 +6746,17 @@
       <c r="T86" s="5"/>
       <c r="U86" s="5"/>
       <c r="V86" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W86" s="5">
         <v>0</v>
       </c>
       <c r="X86" s="6"/>
       <c r="Y86" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Z86" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AA86" s="4"/>
       <c r="AB86" s="4"/>
@@ -6751,26 +6772,26 @@
         <v>29</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J87" s="5">
         <v>594</v>
@@ -6789,17 +6810,17 @@
       <c r="T87" s="5"/>
       <c r="U87" s="5"/>
       <c r="V87" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W87" s="5">
         <v>0</v>
       </c>
       <c r="X87" s="6"/>
       <c r="Y87" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Z87" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AA87" s="4"/>
       <c r="AB87" s="4"/>
@@ -6815,26 +6836,26 @@
         <v>29</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J88" s="5">
         <v>480</v>
@@ -6853,14 +6874,14 @@
       <c r="T88" s="5"/>
       <c r="U88" s="5"/>
       <c r="V88" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W88" s="5">
         <v>0</v>
       </c>
       <c r="X88" s="6"/>
       <c r="Y88" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z88" s="4"/>
       <c r="AA88" s="4"/>
@@ -6877,26 +6898,26 @@
         <v>29</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J89" s="5">
         <v>539</v>
@@ -6915,14 +6936,14 @@
       <c r="T89" s="5"/>
       <c r="U89" s="5"/>
       <c r="V89" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W89" s="5">
         <v>0</v>
       </c>
       <c r="X89" s="6"/>
       <c r="Y89" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z89" s="4"/>
       <c r="AA89" s="4"/>
@@ -6939,26 +6960,26 @@
         <v>29</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J90" s="5">
         <v>594</v>
@@ -6977,17 +6998,17 @@
       <c r="T90" s="5"/>
       <c r="U90" s="5"/>
       <c r="V90" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W90" s="5">
         <v>0</v>
       </c>
       <c r="X90" s="6"/>
       <c r="Y90" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Z90" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AA90" s="4"/>
       <c r="AB90" s="4"/>
@@ -7003,20 +7024,20 @@
         <v>29</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
@@ -7037,17 +7058,17 @@
       <c r="T91" s="5"/>
       <c r="U91" s="5"/>
       <c r="V91" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W91" s="5">
         <v>0</v>
       </c>
       <c r="X91" s="6"/>
       <c r="Y91" s="4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="Z91" s="4" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AA91" s="4"/>
       <c r="AB91" s="4"/>
@@ -7063,20 +7084,20 @@
         <v>29</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
@@ -7097,17 +7118,17 @@
       <c r="T92" s="5"/>
       <c r="U92" s="5"/>
       <c r="V92" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W92" s="5">
         <v>0</v>
       </c>
       <c r="X92" s="6"/>
       <c r="Y92" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Z92" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AA92" s="4"/>
       <c r="AB92" s="4"/>
@@ -7123,20 +7144,20 @@
         <v>29</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
@@ -7157,17 +7178,17 @@
       <c r="T93" s="5"/>
       <c r="U93" s="5"/>
       <c r="V93" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W93" s="5">
         <v>0</v>
       </c>
       <c r="X93" s="6"/>
       <c r="Y93" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Z93" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AA93" s="4"/>
       <c r="AB93" s="4"/>
@@ -7183,20 +7204,20 @@
         <v>29</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
@@ -7217,17 +7238,17 @@
       <c r="T94" s="5"/>
       <c r="U94" s="5"/>
       <c r="V94" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W94" s="5">
         <v>0</v>
       </c>
       <c r="X94" s="6"/>
       <c r="Y94" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Z94" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AA94" s="4"/>
       <c r="AB94" s="4"/>
@@ -7243,20 +7264,20 @@
         <v>29</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
@@ -7277,17 +7298,17 @@
       <c r="T95" s="5"/>
       <c r="U95" s="5"/>
       <c r="V95" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W95" s="5">
         <v>0</v>
       </c>
       <c r="X95" s="6"/>
       <c r="Y95" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Z95" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AA95" s="4"/>
       <c r="AB95" s="4"/>
@@ -7303,20 +7324,20 @@
         <v>29</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
@@ -7337,17 +7358,17 @@
       <c r="T96" s="5"/>
       <c r="U96" s="5"/>
       <c r="V96" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W96" s="5">
         <v>0</v>
       </c>
       <c r="X96" s="6"/>
       <c r="Y96" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Z96" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AA96" s="4"/>
       <c r="AB96" s="4"/>
@@ -7363,20 +7384,20 @@
         <v>29</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
@@ -7397,17 +7418,17 @@
       <c r="T97" s="5"/>
       <c r="U97" s="5"/>
       <c r="V97" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W97" s="5">
         <v>0</v>
       </c>
       <c r="X97" s="6"/>
       <c r="Y97" s="4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="Z97" s="4" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AA97" s="4"/>
       <c r="AB97" s="4"/>
@@ -7423,20 +7444,20 @@
         <v>29</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
@@ -7457,17 +7478,17 @@
       <c r="T98" s="5"/>
       <c r="U98" s="5"/>
       <c r="V98" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W98" s="5">
         <v>0</v>
       </c>
       <c r="X98" s="6"/>
       <c r="Y98" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Z98" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AA98" s="4"/>
       <c r="AB98" s="4"/>
@@ -7483,20 +7504,20 @@
         <v>29</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
@@ -7517,14 +7538,14 @@
       <c r="T99" s="5"/>
       <c r="U99" s="5"/>
       <c r="V99" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W99" s="5">
         <v>0</v>
       </c>
       <c r="X99" s="6"/>
       <c r="Y99" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z99" s="4"/>
       <c r="AA99" s="4"/>
@@ -7541,20 +7562,20 @@
         <v>29</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
@@ -7575,14 +7596,14 @@
       <c r="T100" s="5"/>
       <c r="U100" s="5"/>
       <c r="V100" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W100" s="5">
         <v>0</v>
       </c>
       <c r="X100" s="6"/>
       <c r="Y100" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z100" s="4"/>
       <c r="AA100" s="4"/>
@@ -7599,20 +7620,20 @@
         <v>29</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
@@ -7633,14 +7654,14 @@
       <c r="T101" s="5"/>
       <c r="U101" s="5"/>
       <c r="V101" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W101" s="5">
         <v>0</v>
       </c>
       <c r="X101" s="6"/>
       <c r="Y101" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z101" s="4"/>
       <c r="AA101" s="4"/>
@@ -7657,20 +7678,20 @@
         <v>29</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
@@ -7691,14 +7712,14 @@
       <c r="T102" s="5"/>
       <c r="U102" s="5"/>
       <c r="V102" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W102" s="5">
         <v>0</v>
       </c>
       <c r="X102" s="6"/>
       <c r="Y102" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z102" s="4"/>
       <c r="AA102" s="4"/>
@@ -7715,20 +7736,20 @@
         <v>29</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
@@ -7749,14 +7770,14 @@
       <c r="T103" s="5"/>
       <c r="U103" s="5"/>
       <c r="V103" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W103" s="5">
         <v>0</v>
       </c>
       <c r="X103" s="6"/>
       <c r="Y103" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z103" s="4"/>
       <c r="AA103" s="4"/>
@@ -7773,20 +7794,20 @@
         <v>29</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
@@ -7807,14 +7828,14 @@
       <c r="T104" s="5"/>
       <c r="U104" s="5"/>
       <c r="V104" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W104" s="5">
         <v>0</v>
       </c>
       <c r="X104" s="6"/>
       <c r="Y104" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z104" s="4"/>
       <c r="AA104" s="4"/>
@@ -7831,20 +7852,20 @@
         <v>29</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
@@ -7865,17 +7886,17 @@
       <c r="T105" s="5"/>
       <c r="U105" s="5"/>
       <c r="V105" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W105" s="5">
         <v>0</v>
       </c>
       <c r="X105" s="6"/>
       <c r="Y105" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Z105" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AA105" s="4"/>
       <c r="AB105" s="4"/>
@@ -7891,20 +7912,20 @@
         <v>29</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
@@ -7925,14 +7946,14 @@
       <c r="T106" s="5"/>
       <c r="U106" s="5"/>
       <c r="V106" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W106" s="5">
         <v>0</v>
       </c>
       <c r="X106" s="6"/>
       <c r="Y106" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z106" s="4"/>
       <c r="AA106" s="4"/>
@@ -7949,20 +7970,20 @@
         <v>29</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
@@ -7983,14 +8004,14 @@
       <c r="T107" s="5"/>
       <c r="U107" s="5"/>
       <c r="V107" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W107" s="5">
         <v>0</v>
       </c>
       <c r="X107" s="6"/>
       <c r="Y107" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z107" s="4"/>
       <c r="AA107" s="4"/>
@@ -8007,20 +8028,20 @@
         <v>29</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
@@ -8041,17 +8062,17 @@
       <c r="T108" s="5"/>
       <c r="U108" s="5"/>
       <c r="V108" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W108" s="5">
         <v>0</v>
       </c>
       <c r="X108" s="6"/>
       <c r="Y108" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Z108" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AA108" s="4"/>
       <c r="AB108" s="4"/>
@@ -8067,20 +8088,20 @@
         <v>29</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
@@ -8101,14 +8122,14 @@
       <c r="T109" s="5"/>
       <c r="U109" s="5"/>
       <c r="V109" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W109" s="5">
         <v>0</v>
       </c>
       <c r="X109" s="6"/>
       <c r="Y109" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z109" s="4"/>
       <c r="AA109" s="4"/>
@@ -8125,20 +8146,20 @@
         <v>29</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
@@ -8159,17 +8180,17 @@
       <c r="T110" s="5"/>
       <c r="U110" s="5"/>
       <c r="V110" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W110" s="5">
         <v>0</v>
       </c>
       <c r="X110" s="6"/>
       <c r="Y110" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Z110" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AA110" s="4"/>
       <c r="AB110" s="4"/>
@@ -8185,20 +8206,20 @@
         <v>29</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
@@ -8219,14 +8240,14 @@
       <c r="T111" s="5"/>
       <c r="U111" s="5"/>
       <c r="V111" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W111" s="5">
         <v>0</v>
       </c>
       <c r="X111" s="6"/>
       <c r="Y111" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z111" s="4"/>
       <c r="AA111" s="4"/>
@@ -8243,20 +8264,20 @@
         <v>29</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
@@ -8277,14 +8298,14 @@
       <c r="T112" s="5"/>
       <c r="U112" s="5"/>
       <c r="V112" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W112" s="5">
         <v>0</v>
       </c>
       <c r="X112" s="6"/>
       <c r="Y112" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z112" s="4"/>
       <c r="AA112" s="4"/>
@@ -8301,20 +8322,20 @@
         <v>29</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
@@ -8335,14 +8356,14 @@
       <c r="T113" s="5"/>
       <c r="U113" s="5"/>
       <c r="V113" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W113" s="5">
         <v>0</v>
       </c>
       <c r="X113" s="6"/>
       <c r="Y113" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z113" s="4"/>
       <c r="AA113" s="4"/>
@@ -8359,14 +8380,14 @@
         <v>29</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
@@ -8389,14 +8410,14 @@
       <c r="T114" s="5"/>
       <c r="U114" s="5"/>
       <c r="V114" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W114" s="5">
         <v>0</v>
       </c>
       <c r="X114" s="6"/>
       <c r="Y114" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z114" s="4"/>
       <c r="AA114" s="4"/>
@@ -8413,14 +8434,14 @@
         <v>29</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
@@ -8443,14 +8464,14 @@
       <c r="T115" s="5"/>
       <c r="U115" s="5"/>
       <c r="V115" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W115" s="5">
         <v>0</v>
       </c>
       <c r="X115" s="6"/>
       <c r="Y115" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z115" s="4"/>
       <c r="AA115" s="4"/>
@@ -8467,14 +8488,14 @@
         <v>29</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
@@ -8497,14 +8518,14 @@
       <c r="T116" s="5"/>
       <c r="U116" s="5"/>
       <c r="V116" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W116" s="5">
         <v>0</v>
       </c>
       <c r="X116" s="6"/>
       <c r="Y116" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z116" s="4"/>
       <c r="AA116" s="4"/>
@@ -8521,20 +8542,20 @@
         <v>29</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
@@ -8555,14 +8576,14 @@
       <c r="T117" s="5"/>
       <c r="U117" s="5"/>
       <c r="V117" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W117" s="5">
         <v>0</v>
       </c>
       <c r="X117" s="6"/>
       <c r="Y117" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z117" s="4"/>
       <c r="AA117" s="4"/>
@@ -8579,20 +8600,20 @@
         <v>29</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
@@ -8613,14 +8634,14 @@
       <c r="T118" s="5"/>
       <c r="U118" s="5"/>
       <c r="V118" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W118" s="5">
         <v>0</v>
       </c>
       <c r="X118" s="6"/>
       <c r="Y118" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z118" s="4"/>
       <c r="AA118" s="4"/>
@@ -8637,20 +8658,20 @@
         <v>29</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
@@ -8671,14 +8692,14 @@
       <c r="T119" s="5"/>
       <c r="U119" s="5"/>
       <c r="V119" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W119" s="5">
         <v>0</v>
       </c>
       <c r="X119" s="6"/>
       <c r="Y119" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z119" s="4"/>
       <c r="AA119" s="4"/>
@@ -8695,20 +8716,20 @@
         <v>29</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
@@ -8729,17 +8750,17 @@
       <c r="T120" s="5"/>
       <c r="U120" s="5"/>
       <c r="V120" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W120" s="5">
         <v>0</v>
       </c>
       <c r="X120" s="6"/>
       <c r="Y120" s="4" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Z120" s="4" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="AA120" s="4"/>
       <c r="AB120" s="4"/>
@@ -8755,20 +8776,20 @@
         <v>29</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
@@ -8789,14 +8810,14 @@
       <c r="T121" s="5"/>
       <c r="U121" s="5"/>
       <c r="V121" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W121" s="5">
         <v>0</v>
       </c>
       <c r="X121" s="6"/>
       <c r="Y121" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z121" s="4"/>
       <c r="AA121" s="4"/>
@@ -8813,20 +8834,20 @@
         <v>29</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
@@ -8847,14 +8868,14 @@
       <c r="T122" s="5"/>
       <c r="U122" s="5"/>
       <c r="V122" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W122" s="5">
         <v>0</v>
       </c>
       <c r="X122" s="6"/>
       <c r="Y122" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z122" s="4"/>
       <c r="AA122" s="4"/>
@@ -8871,20 +8892,20 @@
         <v>29</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
@@ -8905,17 +8926,17 @@
       <c r="T123" s="5"/>
       <c r="U123" s="5"/>
       <c r="V123" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W123" s="5">
         <v>0</v>
       </c>
       <c r="X123" s="6"/>
       <c r="Y123" s="4" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Z123" s="4" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="AA123" s="4"/>
       <c r="AB123" s="4"/>
@@ -8931,20 +8952,20 @@
         <v>29</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
@@ -8965,14 +8986,14 @@
       <c r="T124" s="5"/>
       <c r="U124" s="5"/>
       <c r="V124" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W124" s="5">
         <v>0</v>
       </c>
       <c r="X124" s="6"/>
       <c r="Y124" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z124" s="4"/>
       <c r="AA124" s="4"/>
@@ -8989,20 +9010,20 @@
         <v>29</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
@@ -9023,14 +9044,14 @@
       <c r="T125" s="5"/>
       <c r="U125" s="5"/>
       <c r="V125" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W125" s="5">
         <v>0</v>
       </c>
       <c r="X125" s="6"/>
       <c r="Y125" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z125" s="4"/>
       <c r="AA125" s="4"/>
@@ -9047,20 +9068,20 @@
         <v>29</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
@@ -9081,14 +9102,14 @@
       <c r="T126" s="5"/>
       <c r="U126" s="5"/>
       <c r="V126" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W126" s="5">
         <v>0</v>
       </c>
       <c r="X126" s="6"/>
       <c r="Y126" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z126" s="4"/>
       <c r="AA126" s="4"/>
@@ -9105,20 +9126,20 @@
         <v>29</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
@@ -9139,14 +9160,14 @@
       <c r="T127" s="5"/>
       <c r="U127" s="5"/>
       <c r="V127" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W127" s="5">
         <v>0</v>
       </c>
       <c r="X127" s="6"/>
       <c r="Y127" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z127" s="4"/>
       <c r="AA127" s="4"/>
@@ -9163,20 +9184,20 @@
         <v>29</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
@@ -9197,17 +9218,17 @@
       <c r="T128" s="5"/>
       <c r="U128" s="5"/>
       <c r="V128" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W128" s="5">
         <v>0</v>
       </c>
       <c r="X128" s="6"/>
       <c r="Y128" s="4" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Z128" s="4" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="AA128" s="4"/>
       <c r="AB128" s="4"/>
@@ -9223,20 +9244,20 @@
         <v>29</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
@@ -9257,14 +9278,14 @@
       <c r="T129" s="5"/>
       <c r="U129" s="5"/>
       <c r="V129" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W129" s="5">
         <v>0</v>
       </c>
       <c r="X129" s="6"/>
       <c r="Y129" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z129" s="4"/>
       <c r="AA129" s="4"/>
@@ -9281,20 +9302,20 @@
         <v>29</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
@@ -9315,14 +9336,14 @@
       <c r="T130" s="5"/>
       <c r="U130" s="5"/>
       <c r="V130" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W130" s="5">
         <v>0</v>
       </c>
       <c r="X130" s="6"/>
       <c r="Y130" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z130" s="4"/>
       <c r="AA130" s="4"/>
@@ -9339,20 +9360,20 @@
         <v>29</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
@@ -9373,17 +9394,17 @@
       <c r="T131" s="5"/>
       <c r="U131" s="5"/>
       <c r="V131" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W131" s="5">
         <v>0</v>
       </c>
       <c r="X131" s="6"/>
       <c r="Y131" s="4" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Z131" s="4" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="AA131" s="4"/>
       <c r="AB131" s="4"/>
@@ -9399,20 +9420,20 @@
         <v>29</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
@@ -9433,14 +9454,14 @@
       <c r="T132" s="5"/>
       <c r="U132" s="5"/>
       <c r="V132" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W132" s="5">
         <v>0</v>
       </c>
       <c r="X132" s="6"/>
       <c r="Y132" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z132" s="4"/>
       <c r="AA132" s="4"/>
@@ -9457,26 +9478,26 @@
         <v>29</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J133" s="5">
         <v>1066</v>
@@ -9495,14 +9516,14 @@
       <c r="T133" s="5"/>
       <c r="U133" s="5"/>
       <c r="V133" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W133" s="5">
         <v>0</v>
       </c>
       <c r="X133" s="6"/>
       <c r="Y133" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z133" s="4"/>
       <c r="AA133" s="4"/>
@@ -9519,26 +9540,26 @@
         <v>29</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J134" s="5">
         <v>1096</v>
@@ -9557,14 +9578,14 @@
       <c r="T134" s="5"/>
       <c r="U134" s="5"/>
       <c r="V134" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W134" s="5">
         <v>0</v>
       </c>
       <c r="X134" s="6"/>
       <c r="Y134" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z134" s="4"/>
       <c r="AA134" s="4"/>
@@ -9581,26 +9602,26 @@
         <v>29</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J135" s="5">
         <v>1126</v>
@@ -9619,14 +9640,14 @@
       <c r="T135" s="5"/>
       <c r="U135" s="5"/>
       <c r="V135" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W135" s="5">
         <v>0</v>
       </c>
       <c r="X135" s="6"/>
       <c r="Y135" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z135" s="4"/>
       <c r="AA135" s="4"/>
@@ -9643,26 +9664,26 @@
         <v>29</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J136" s="5">
         <v>1088</v>
@@ -9681,17 +9702,17 @@
       <c r="T136" s="5"/>
       <c r="U136" s="5"/>
       <c r="V136" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W136" s="5">
         <v>0</v>
       </c>
       <c r="X136" s="6"/>
       <c r="Y136" s="4" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Z136" s="4" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="AA136" s="4"/>
       <c r="AB136" s="4"/>
@@ -9707,26 +9728,26 @@
         <v>29</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J137" s="5">
         <v>1096</v>
@@ -9745,14 +9766,14 @@
       <c r="T137" s="5"/>
       <c r="U137" s="5"/>
       <c r="V137" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W137" s="5">
         <v>0</v>
       </c>
       <c r="X137" s="6"/>
       <c r="Y137" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z137" s="4"/>
       <c r="AA137" s="4"/>
@@ -9769,26 +9790,26 @@
         <v>29</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J138" s="5">
         <v>1126</v>
@@ -9807,14 +9828,14 @@
       <c r="T138" s="5"/>
       <c r="U138" s="5"/>
       <c r="V138" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W138" s="5">
         <v>0</v>
       </c>
       <c r="X138" s="6"/>
       <c r="Y138" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z138" s="4"/>
       <c r="AA138" s="4"/>
@@ -9831,26 +9852,26 @@
         <v>29</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J139" s="5">
         <v>1066</v>
@@ -9869,14 +9890,14 @@
       <c r="T139" s="5"/>
       <c r="U139" s="5"/>
       <c r="V139" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W139" s="5">
         <v>0</v>
       </c>
       <c r="X139" s="6"/>
       <c r="Y139" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z139" s="4"/>
       <c r="AA139" s="4"/>
@@ -9893,26 +9914,26 @@
         <v>29</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J140" s="5">
         <v>1078</v>
@@ -9931,17 +9952,17 @@
       <c r="T140" s="5"/>
       <c r="U140" s="5"/>
       <c r="V140" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W140" s="5">
         <v>0</v>
       </c>
       <c r="X140" s="6"/>
       <c r="Y140" s="4" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Z140" s="4" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="AA140" s="4"/>
       <c r="AB140" s="4"/>
@@ -9957,26 +9978,26 @@
         <v>29</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J141" s="5">
         <v>1066</v>
@@ -9995,14 +10016,14 @@
       <c r="T141" s="5"/>
       <c r="U141" s="5"/>
       <c r="V141" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W141" s="5">
         <v>0</v>
       </c>
       <c r="X141" s="6"/>
       <c r="Y141" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z141" s="4"/>
       <c r="AA141" s="4"/>
@@ -10019,26 +10040,26 @@
         <v>29</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J142" s="5">
         <v>1096</v>
@@ -10057,14 +10078,14 @@
       <c r="T142" s="5"/>
       <c r="U142" s="5"/>
       <c r="V142" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W142" s="5">
         <v>0</v>
       </c>
       <c r="X142" s="6"/>
       <c r="Y142" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z142" s="4"/>
       <c r="AA142" s="4"/>
@@ -10081,26 +10102,26 @@
         <v>29</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J143" s="5">
         <v>1126</v>
@@ -10119,14 +10140,14 @@
       <c r="T143" s="5"/>
       <c r="U143" s="5"/>
       <c r="V143" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W143" s="5">
         <v>0</v>
       </c>
       <c r="X143" s="6"/>
       <c r="Y143" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z143" s="4"/>
       <c r="AA143" s="4"/>
@@ -10143,26 +10164,26 @@
         <v>29</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J144" s="5">
         <v>1088</v>
@@ -10181,17 +10202,17 @@
       <c r="T144" s="5"/>
       <c r="U144" s="5"/>
       <c r="V144" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W144" s="5">
         <v>0</v>
       </c>
       <c r="X144" s="6"/>
       <c r="Y144" s="4" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Z144" s="4" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="AA144" s="4"/>
       <c r="AB144" s="4"/>
@@ -10207,26 +10228,26 @@
         <v>29</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="I145" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J145" s="5">
         <v>1096</v>
@@ -10245,14 +10266,14 @@
       <c r="T145" s="5"/>
       <c r="U145" s="5"/>
       <c r="V145" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W145" s="5">
         <v>0</v>
       </c>
       <c r="X145" s="6"/>
       <c r="Y145" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z145" s="4"/>
       <c r="AA145" s="4"/>
@@ -10269,26 +10290,26 @@
         <v>29</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="I146" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J146" s="5">
         <v>1126</v>
@@ -10307,14 +10328,14 @@
       <c r="T146" s="5"/>
       <c r="U146" s="5"/>
       <c r="V146" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W146" s="5">
         <v>0</v>
       </c>
       <c r="X146" s="6"/>
       <c r="Y146" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z146" s="4"/>
       <c r="AA146" s="4"/>
@@ -10331,26 +10352,26 @@
         <v>29</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="I147" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J147" s="5">
         <v>1066</v>
@@ -10369,14 +10390,14 @@
       <c r="T147" s="5"/>
       <c r="U147" s="5"/>
       <c r="V147" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W147" s="5">
         <v>0</v>
       </c>
       <c r="X147" s="6"/>
       <c r="Y147" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z147" s="4"/>
       <c r="AA147" s="4"/>
@@ -10393,26 +10414,26 @@
         <v>29</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="I148" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J148" s="5">
         <v>1078</v>
@@ -10431,17 +10452,17 @@
       <c r="T148" s="5"/>
       <c r="U148" s="5"/>
       <c r="V148" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W148" s="5">
         <v>0</v>
       </c>
       <c r="X148" s="6"/>
       <c r="Y148" s="4" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Z148" s="4" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="AA148" s="4"/>
       <c r="AB148" s="4"/>
@@ -10457,14 +10478,14 @@
         <v>29</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
@@ -10487,14 +10508,14 @@
       <c r="T149" s="5"/>
       <c r="U149" s="5"/>
       <c r="V149" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W149" s="5">
         <v>0</v>
       </c>
       <c r="X149" s="6"/>
       <c r="Y149" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z149" s="4"/>
       <c r="AA149" s="4"/>
@@ -10511,14 +10532,14 @@
         <v>29</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
@@ -10541,14 +10562,14 @@
       <c r="T150" s="5"/>
       <c r="U150" s="5"/>
       <c r="V150" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W150" s="5">
         <v>0</v>
       </c>
       <c r="X150" s="6"/>
       <c r="Y150" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z150" s="4"/>
       <c r="AA150" s="4"/>
@@ -10565,14 +10586,14 @@
         <v>29</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
@@ -10595,14 +10616,14 @@
       <c r="T151" s="5"/>
       <c r="U151" s="5"/>
       <c r="V151" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W151" s="5">
         <v>0</v>
       </c>
       <c r="X151" s="6"/>
       <c r="Y151" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z151" s="4"/>
       <c r="AA151" s="4"/>
@@ -10619,14 +10640,14 @@
         <v>29</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
@@ -10649,14 +10670,14 @@
       <c r="T152" s="5"/>
       <c r="U152" s="5"/>
       <c r="V152" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W152" s="5">
         <v>0</v>
       </c>
       <c r="X152" s="6"/>
       <c r="Y152" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z152" s="4"/>
       <c r="AA152" s="4"/>
@@ -10673,14 +10694,14 @@
         <v>29</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
@@ -10703,14 +10724,14 @@
       <c r="T153" s="5"/>
       <c r="U153" s="5"/>
       <c r="V153" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W153" s="5">
         <v>0</v>
       </c>
       <c r="X153" s="6"/>
       <c r="Y153" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z153" s="4"/>
       <c r="AA153" s="4"/>
@@ -10727,14 +10748,14 @@
         <v>29</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
@@ -10757,14 +10778,14 @@
       <c r="T154" s="5"/>
       <c r="U154" s="5"/>
       <c r="V154" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W154" s="5">
         <v>0</v>
       </c>
       <c r="X154" s="6"/>
       <c r="Y154" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z154" s="4"/>
       <c r="AA154" s="4"/>
@@ -10781,14 +10802,14 @@
         <v>29</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
@@ -10811,14 +10832,14 @@
       <c r="T155" s="5"/>
       <c r="U155" s="5"/>
       <c r="V155" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W155" s="5">
         <v>0</v>
       </c>
       <c r="X155" s="6"/>
       <c r="Y155" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z155" s="4"/>
       <c r="AA155" s="4"/>
@@ -10835,14 +10856,14 @@
         <v>29</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
@@ -10865,14 +10886,14 @@
       <c r="T156" s="5"/>
       <c r="U156" s="5"/>
       <c r="V156" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W156" s="5">
         <v>0</v>
       </c>
       <c r="X156" s="6"/>
       <c r="Y156" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z156" s="4"/>
       <c r="AA156" s="4"/>
@@ -10889,14 +10910,14 @@
         <v>29</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
@@ -10919,14 +10940,14 @@
       <c r="T157" s="5"/>
       <c r="U157" s="5"/>
       <c r="V157" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W157" s="5">
         <v>0</v>
       </c>
       <c r="X157" s="6"/>
       <c r="Y157" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z157" s="4"/>
       <c r="AA157" s="4"/>
@@ -10943,14 +10964,14 @@
         <v>29</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
@@ -10973,14 +10994,14 @@
       <c r="T158" s="5"/>
       <c r="U158" s="5"/>
       <c r="V158" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W158" s="5">
         <v>0</v>
       </c>
       <c r="X158" s="6"/>
       <c r="Y158" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z158" s="4"/>
       <c r="AA158" s="4"/>
@@ -10997,14 +11018,14 @@
         <v>29</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
@@ -11027,14 +11048,14 @@
       <c r="T159" s="5"/>
       <c r="U159" s="5"/>
       <c r="V159" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W159" s="5">
         <v>0</v>
       </c>
       <c r="X159" s="6"/>
       <c r="Y159" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z159" s="4"/>
       <c r="AA159" s="4"/>
@@ -11051,14 +11072,14 @@
         <v>29</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
@@ -11081,14 +11102,14 @@
       <c r="T160" s="5"/>
       <c r="U160" s="5"/>
       <c r="V160" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W160" s="5">
         <v>0</v>
       </c>
       <c r="X160" s="6"/>
       <c r="Y160" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Z160" s="4"/>
       <c r="AA160" s="4"/>
@@ -11105,14 +11126,14 @@
         <v>29</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
@@ -11142,7 +11163,7 @@
       </c>
       <c r="X161" s="6"/>
       <c r="Y161" s="4" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="Z161" s="4"/>
       <c r="AA161" s="4"/>
@@ -11159,14 +11180,14 @@
         <v>29</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
@@ -11196,7 +11217,7 @@
       </c>
       <c r="X162" s="6"/>
       <c r="Y162" s="4" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="Z162" s="4"/>
       <c r="AA162" s="4"/>
@@ -11213,14 +11234,14 @@
         <v>29</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
@@ -11250,7 +11271,7 @@
       </c>
       <c r="X163" s="6"/>
       <c r="Y163" s="4" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="Z163" s="4"/>
       <c r="AA163" s="4"/>
@@ -11267,14 +11288,14 @@
         <v>29</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
@@ -11304,7 +11325,7 @@
       </c>
       <c r="X164" s="6"/>
       <c r="Y164" s="4" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="Z164" s="4"/>
       <c r="AA164" s="4"/>
@@ -11318,17 +11339,17 @@
     </row>
     <row r="165" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
@@ -11354,7 +11375,7 @@
       <c r="W165" s="5"/>
       <c r="X165" s="6"/>
       <c r="Y165" s="4" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Z165" s="4"/>
       <c r="AA165" s="4"/>
@@ -11368,17 +11389,17 @@
     </row>
     <row r="166" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
@@ -11404,7 +11425,7 @@
       <c r="W166" s="5"/>
       <c r="X166" s="6"/>
       <c r="Y166" s="4" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Z166" s="4"/>
       <c r="AA166" s="4"/>
@@ -11418,17 +11439,17 @@
     </row>
     <row r="167" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
@@ -11454,7 +11475,7 @@
       <c r="W167" s="5"/>
       <c r="X167" s="6"/>
       <c r="Y167" s="4" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Z167" s="4"/>
       <c r="AA167" s="4"/>
@@ -11468,17 +11489,17 @@
     </row>
     <row r="168" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="5" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
@@ -11504,7 +11525,7 @@
       <c r="W168" s="5"/>
       <c r="X168" s="6"/>
       <c r="Y168" s="4" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Z168" s="4"/>
       <c r="AA168" s="4"/>
@@ -11518,17 +11539,17 @@
     </row>
     <row r="169" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="5" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
@@ -11554,7 +11575,7 @@
       <c r="W169" s="5"/>
       <c r="X169" s="6"/>
       <c r="Y169" s="4" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Z169" s="4"/>
       <c r="AA169" s="4"/>
@@ -11568,17 +11589,17 @@
     </row>
     <row r="170" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
@@ -11604,7 +11625,7 @@
       <c r="W170" s="5"/>
       <c r="X170" s="6"/>
       <c r="Y170" s="4" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Z170" s="4"/>
       <c r="AA170" s="4"/>
@@ -11618,17 +11639,17 @@
     </row>
     <row r="171" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="5" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
@@ -11654,7 +11675,7 @@
       <c r="W171" s="5"/>
       <c r="X171" s="6"/>
       <c r="Y171" s="4" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Z171" s="4"/>
       <c r="AA171" s="4"/>
@@ -11668,17 +11689,17 @@
     </row>
     <row r="172" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="5" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
@@ -11704,7 +11725,7 @@
       <c r="W172" s="5"/>
       <c r="X172" s="6"/>
       <c r="Y172" s="4" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Z172" s="4"/>
       <c r="AA172" s="4"/>
@@ -11718,17 +11739,17 @@
     </row>
     <row r="173" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="5" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
@@ -11754,7 +11775,7 @@
       <c r="W173" s="5"/>
       <c r="X173" s="6"/>
       <c r="Y173" s="4" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Z173" s="4"/>
       <c r="AA173" s="4"/>
@@ -11768,17 +11789,17 @@
     </row>
     <row r="174" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="5" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
@@ -11804,7 +11825,7 @@
       <c r="W174" s="5"/>
       <c r="X174" s="6"/>
       <c r="Y174" s="4" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Z174" s="4"/>
       <c r="AA174" s="4"/>
@@ -11818,17 +11839,17 @@
     </row>
     <row r="175" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="5" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
@@ -11854,7 +11875,7 @@
       <c r="W175" s="5"/>
       <c r="X175" s="6"/>
       <c r="Y175" s="4" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Z175" s="4"/>
       <c r="AA175" s="4"/>
@@ -12084,18 +12105,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -12130,7 +12151,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B8" s="15"/>
     </row>
@@ -12142,7 +12163,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B10" s="15"/>
     </row>

--- a/exe/TSV/Excel/TH76_Tatehama_UIList.xlsx
+++ b/exe/TSV/Excel/TH76_Tatehama_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AE5985-0B3B-4A4D-880D-A1C7A18F3B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BA2FF5-DEB5-41E0-9764-73CEA06F0CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="3900" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4995" yWindow="4485" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH76_館浜駅_UIList" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="331">
   <si>
     <t>Type</t>
   </si>
@@ -576,6 +576,9 @@
     <t>物理てこ</t>
   </si>
   <si>
+    <t>TH76_1</t>
+  </si>
+  <si>
     <t>0,1</t>
   </si>
   <si>
@@ -618,6 +621,9 @@
     <t>2R</t>
   </si>
   <si>
+    <t>TH76_2</t>
+  </si>
+  <si>
     <t>2R_G</t>
   </si>
   <si>
@@ -630,6 +636,9 @@
     <t>3R</t>
   </si>
   <si>
+    <t>TH76_3</t>
+  </si>
+  <si>
     <t>3R_G</t>
   </si>
   <si>
@@ -642,6 +651,9 @@
     <t>4R</t>
   </si>
   <si>
+    <t>TH76_4</t>
+  </si>
+  <si>
     <t>4R_G</t>
   </si>
   <si>
@@ -654,6 +666,9 @@
     <t>5L</t>
   </si>
   <si>
+    <t>TH76_5</t>
+  </si>
+  <si>
     <t>-1,0</t>
   </si>
   <si>
@@ -681,6 +696,9 @@
     <t>着点ボタン</t>
   </si>
   <si>
+    <t>TH76_AP</t>
+  </si>
+  <si>
     <t>Image/Button/ArrivalButton_Base.png</t>
   </si>
   <si>
@@ -693,24 +711,36 @@
     <t>B</t>
   </si>
   <si>
+    <t>TH76_BP</t>
+  </si>
+  <si>
     <t>B_Label</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
+    <t>TH76_CP</t>
+  </si>
+  <si>
     <t>C_Label</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
+    <t>TH76_DP</t>
+  </si>
+  <si>
     <t>D_Label</t>
   </si>
   <si>
     <t>S</t>
   </si>
   <si>
+    <t>TH76_SP</t>
+  </si>
+  <si>
     <t>S_Label</t>
   </si>
   <si>
@@ -726,7 +756,7 @@
     <t>W21</t>
   </si>
   <si>
-    <t>P21</t>
+    <t>TH76_21</t>
   </si>
   <si>
     <t>-1,0,1</t>
@@ -747,15 +777,12 @@
     <t>転てつ器表示灯</t>
   </si>
   <si>
-    <t>TH76_W21イ</t>
+    <t>TH76_W21</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>TH76_W21ロ</t>
-  </si>
-  <si>
     <t>Image/Light/N.png,Image/Light/PG.png</t>
   </si>
   <si>
@@ -774,7 +801,7 @@
     <t>W22</t>
   </si>
   <si>
-    <t>P22</t>
+    <t>TH76_22</t>
   </si>
   <si>
     <t>W22_PG</t>
@@ -792,7 +819,7 @@
     <t>W23</t>
   </si>
   <si>
-    <t>P23</t>
+    <t>TH76_23</t>
   </si>
   <si>
     <t>W23_PG</t>
@@ -810,16 +837,13 @@
     <t>W24</t>
   </si>
   <si>
-    <t>P24</t>
+    <t>TH76_24</t>
   </si>
   <si>
     <t>W24_PG</t>
   </si>
   <si>
-    <t>TH76_W24イ</t>
-  </si>
-  <si>
-    <t>TH76_W24ロ</t>
+    <t>TH76_W24</t>
   </si>
   <si>
     <t>W24_PY</t>
@@ -831,7 +855,7 @@
     <t>W25</t>
   </si>
   <si>
-    <t>P25</t>
+    <t>TH76_25</t>
   </si>
   <si>
     <t>W25_PG</t>
@@ -849,16 +873,13 @@
     <t>W26</t>
   </si>
   <si>
-    <t>P26</t>
+    <t>TH76_26</t>
   </si>
   <si>
     <t>W26_PG</t>
   </si>
   <si>
-    <t>TH76_W26イ</t>
-  </si>
-  <si>
-    <t>TH76_W26ロ</t>
+    <t>TH76_W26</t>
   </si>
   <si>
     <t>W26_PY</t>
@@ -870,7 +891,7 @@
     <t>W27</t>
   </si>
   <si>
-    <t>P27</t>
+    <t>TH76_27</t>
   </si>
   <si>
     <t>W27_PG</t>
@@ -1032,9 +1053,6 @@
     <t>TH76_23T</t>
   </si>
   <si>
-    <t>W24ロ</t>
-  </si>
-  <si>
     <t>TH76_23T_W23N_W24ロN_2</t>
   </si>
   <si>
@@ -1161,7 +1179,7 @@
     <t>TH75_41イT</t>
   </si>
   <si>
-    <t>TH75_W41イ</t>
+    <t>TH75_W41</t>
   </si>
   <si>
     <t>TH75_41イT_W41イN_2</t>
@@ -1185,9 +1203,6 @@
     <t>TH75_41ロT</t>
   </si>
   <si>
-    <t>TH75_W41ロ</t>
-  </si>
-  <si>
     <t>TH75_41ロT_W41ロN_2</t>
   </si>
   <si>
@@ -1203,7 +1218,7 @@
     <t>TH75_43イT</t>
   </si>
   <si>
-    <t>TH75_W43イ</t>
+    <t>TH75_W43</t>
   </si>
   <si>
     <t>TH75_43イT_W43イN_2</t>
@@ -1221,9 +1236,6 @@
     <t>TH75_43ロT</t>
   </si>
   <si>
-    <t>TH75_W43ロ</t>
-  </si>
-  <si>
     <t>TH75_43ロT_W43ロN_2</t>
   </si>
   <si>
@@ -1239,10 +1251,10 @@
     <t>TH75_44T</t>
   </si>
   <si>
-    <t>TH75_W44イ</t>
-  </si>
-  <si>
-    <t>TH75_W45ロ</t>
+    <t>TH75_W44</t>
+  </si>
+  <si>
+    <t>TH75_W45</t>
   </si>
   <si>
     <t>TH75_44T_W44イN_W45ロN_2</t>
@@ -1276,12 +1288,6 @@
   </si>
   <si>
     <t>TH75_45T</t>
-  </si>
-  <si>
-    <t>TH75_W44ロ</t>
-  </si>
-  <si>
-    <t>TH75_W45イ</t>
   </si>
   <si>
     <t>TH75_45T_W44ロN_W45イN_2</t>
@@ -2087,7 +2093,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -2112,19 +2118,19 @@
         <v>39</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W6" s="5">
         <v>0</v>
       </c>
       <c r="X6" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
@@ -2140,14 +2146,14 @@
         <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -2170,17 +2176,17 @@
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W7" s="5">
         <v>0</v>
       </c>
       <c r="X7" s="6"/>
       <c r="Y7" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
@@ -2193,10 +2199,10 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>39</v>
@@ -2229,10 +2235,10 @@
         <v>10</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>39</v>
@@ -2256,14 +2262,14 @@
         <v>38</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -2285,19 +2291,19 @@
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W9" s="5">
         <v>0</v>
       </c>
       <c r="X9" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y9" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
@@ -2314,14 +2320,14 @@
         <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -2344,14 +2350,14 @@
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W10" s="5">
         <v>0</v>
       </c>
       <c r="X10" s="6"/>
       <c r="Y10" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
@@ -2365,13 +2371,13 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -2401,13 +2407,13 @@
         <v>10</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
@@ -2428,14 +2434,14 @@
         <v>38</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -2457,19 +2463,19 @@
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W12" s="5">
         <v>0</v>
       </c>
       <c r="X12" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y12" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
@@ -2486,14 +2492,14 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -2516,14 +2522,14 @@
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W13" s="5">
         <v>0</v>
       </c>
       <c r="X13" s="6"/>
       <c r="Y13" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
@@ -2537,13 +2543,13 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -2573,13 +2579,13 @@
         <v>10</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
@@ -2600,14 +2606,14 @@
         <v>38</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -2629,19 +2635,19 @@
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W15" s="5">
         <v>0</v>
       </c>
       <c r="X15" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y15" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
@@ -2658,14 +2664,14 @@
         <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -2688,14 +2694,14 @@
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W16" s="5">
         <v>0</v>
       </c>
       <c r="X16" s="6"/>
       <c r="Y16" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
@@ -2709,13 +2715,13 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -2745,13 +2751,13 @@
         <v>10</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
@@ -2772,14 +2778,14 @@
         <v>38</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -2801,19 +2807,19 @@
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="W18" s="5">
         <v>0</v>
       </c>
       <c r="X18" s="6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="Y18" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
@@ -2830,14 +2836,14 @@
         <v>29</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -2860,14 +2866,14 @@
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W19" s="5">
         <v>0</v>
       </c>
       <c r="X19" s="6"/>
       <c r="Y19" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
@@ -2881,13 +2887,13 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -2917,13 +2923,13 @@
         <v>10</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
@@ -2941,17 +2947,17 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -2973,19 +2979,19 @@
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W21" s="5">
         <v>0</v>
       </c>
       <c r="X21" s="6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y21" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
@@ -2999,13 +3005,13 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -3029,19 +3035,19 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="R22" s="5">
         <v>10</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
@@ -3059,17 +3065,17 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -3091,19 +3097,19 @@
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W23" s="5">
         <v>0</v>
       </c>
       <c r="X23" s="6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y23" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
@@ -3117,13 +3123,13 @@
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -3147,19 +3153,19 @@
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="R24" s="5">
         <v>10</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
@@ -3177,17 +3183,17 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -3209,19 +3215,19 @@
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W25" s="5">
         <v>0</v>
       </c>
       <c r="X25" s="6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y25" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
@@ -3235,13 +3241,13 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -3265,19 +3271,19 @@
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="R26" s="5">
         <v>10</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
@@ -3295,17 +3301,17 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -3327,19 +3333,19 @@
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W27" s="5">
         <v>0</v>
       </c>
       <c r="X27" s="6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y27" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
@@ -3353,13 +3359,13 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -3383,19 +3389,19 @@
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="R28" s="5">
         <v>10</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
@@ -3413,17 +3419,17 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -3445,19 +3451,19 @@
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
       <c r="U29" s="5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="V29" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W29" s="5">
         <v>0</v>
       </c>
       <c r="X29" s="6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y29" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
@@ -3471,13 +3477,13 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -3501,19 +3507,19 @@
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="R30" s="5">
         <v>10</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T30" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U30" s="5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
@@ -3531,10 +3537,10 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -3559,19 +3565,19 @@
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="V31" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W31" s="5">
         <v>0</v>
       </c>
       <c r="X31" s="6" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="Y31" s="4" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
@@ -3588,14 +3594,14 @@
         <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="5"/>
@@ -3617,22 +3623,22 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
       <c r="U32" s="7" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="V32" s="5" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="W32" s="5">
         <v>0</v>
       </c>
       <c r="X32" s="6" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="Y32" s="4" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="Z32" s="4" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
@@ -3648,25 +3654,21 @@
         <v>29</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="5" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="5" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>99</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
       <c r="J33" s="5">
         <v>166</v>
       </c>
@@ -3684,14 +3686,14 @@
       <c r="T33" s="14"/>
       <c r="U33" s="14"/>
       <c r="V33" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W33" s="5">
         <v>0</v>
       </c>
       <c r="X33" s="6"/>
       <c r="Y33" s="4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
@@ -3708,25 +3710,21 @@
         <v>29</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="5" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>103</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
       <c r="J34" s="5">
         <v>200</v>
       </c>
@@ -3744,14 +3742,14 @@
       <c r="T34" s="14"/>
       <c r="U34" s="14"/>
       <c r="V34" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W34" s="5">
         <v>0</v>
       </c>
       <c r="X34" s="6"/>
       <c r="Y34" s="4" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
@@ -3765,13 +3763,13 @@
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="5"/>
@@ -3801,13 +3799,13 @@
         <v>10</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T35" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U35" s="10" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="V35" s="5"/>
       <c r="W35" s="5"/>
@@ -3828,14 +3826,14 @@
         <v>38</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="5"/>
@@ -3857,19 +3855,19 @@
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
       <c r="U36" s="7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="V36" s="5" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="W36" s="5">
         <v>0</v>
       </c>
       <c r="X36" s="6" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="Y36" s="4" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
@@ -3886,18 +3884,18 @@
         <v>29</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="5" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="H37" s="14"/>
       <c r="I37" s="5"/>
@@ -3918,14 +3916,14 @@
       <c r="T37" s="14"/>
       <c r="U37" s="14"/>
       <c r="V37" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W37" s="5">
         <v>0</v>
       </c>
       <c r="X37" s="6"/>
       <c r="Y37" s="4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
@@ -3942,18 +3940,18 @@
         <v>29</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="5" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="5"/>
@@ -3974,14 +3972,14 @@
       <c r="T38" s="14"/>
       <c r="U38" s="14"/>
       <c r="V38" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W38" s="5">
         <v>0</v>
       </c>
       <c r="X38" s="6"/>
       <c r="Y38" s="4" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
@@ -3995,13 +3993,13 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="5"/>
@@ -4031,13 +4029,13 @@
         <v>10</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T39" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U39" s="10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
@@ -4058,14 +4056,14 @@
         <v>38</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="5"/>
@@ -4087,19 +4085,19 @@
       <c r="S40" s="14"/>
       <c r="T40" s="14"/>
       <c r="U40" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="V40" s="5" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="W40" s="5">
         <v>0</v>
       </c>
       <c r="X40" s="6" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
@@ -4116,18 +4114,18 @@
         <v>29</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="5" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="5" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="5"/>
@@ -4148,14 +4146,14 @@
       <c r="T41" s="14"/>
       <c r="U41" s="14"/>
       <c r="V41" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W41" s="5">
         <v>0</v>
       </c>
       <c r="X41" s="6"/>
       <c r="Y41" s="4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
@@ -4172,18 +4170,18 @@
         <v>29</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="5" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="5" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H42" s="14"/>
       <c r="I42" s="5"/>
@@ -4204,14 +4202,14 @@
       <c r="T42" s="14"/>
       <c r="U42" s="14"/>
       <c r="V42" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W42" s="5">
         <v>0</v>
       </c>
       <c r="X42" s="6"/>
       <c r="Y42" s="4" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
@@ -4225,13 +4223,13 @@
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="5"/>
@@ -4261,13 +4259,13 @@
         <v>10</v>
       </c>
       <c r="S43" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T43" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U43" s="10" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="V43" s="5"/>
       <c r="W43" s="5"/>
@@ -4288,14 +4286,14 @@
         <v>38</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F44" s="14"/>
       <c r="G44" s="5"/>
@@ -4317,19 +4315,19 @@
       <c r="S44" s="14"/>
       <c r="T44" s="14"/>
       <c r="U44" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="V44" s="5" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="W44" s="5">
         <v>0</v>
       </c>
       <c r="X44" s="6" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="Y44" s="4" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
@@ -4346,25 +4344,21 @@
         <v>29</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="5" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>99</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
       <c r="J45" s="5">
         <v>370</v>
       </c>
@@ -4382,14 +4376,14 @@
       <c r="T45" s="5"/>
       <c r="U45" s="14"/>
       <c r="V45" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W45" s="5">
         <v>0</v>
       </c>
       <c r="X45" s="6"/>
       <c r="Y45" s="4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
@@ -4406,25 +4400,21 @@
         <v>29</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="5" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>103</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
       <c r="J46" s="5">
         <v>404</v>
       </c>
@@ -4442,14 +4432,14 @@
       <c r="T46" s="5"/>
       <c r="U46" s="14"/>
       <c r="V46" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W46" s="5">
         <v>0</v>
       </c>
       <c r="X46" s="6"/>
       <c r="Y46" s="4" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
@@ -4463,13 +4453,13 @@
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="5"/>
@@ -4499,13 +4489,13 @@
         <v>10</v>
       </c>
       <c r="S47" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T47" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U47" s="10" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="V47" s="5"/>
       <c r="W47" s="5"/>
@@ -4526,14 +4516,14 @@
         <v>38</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -4555,19 +4545,19 @@
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
       <c r="U48" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="V48" s="5" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="W48" s="5">
         <v>0</v>
       </c>
       <c r="X48" s="6" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="Y48" s="4" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="Z48" s="4"/>
       <c r="AA48" s="4"/>
@@ -4584,18 +4574,18 @@
         <v>29</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="5" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
@@ -4616,14 +4606,14 @@
       <c r="T49" s="5"/>
       <c r="U49" s="14"/>
       <c r="V49" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W49" s="5">
         <v>0</v>
       </c>
       <c r="X49" s="6"/>
       <c r="Y49" s="4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="Z49" s="4"/>
       <c r="AA49" s="4"/>
@@ -4640,18 +4630,18 @@
         <v>29</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="5" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
@@ -4672,14 +4662,14 @@
       <c r="T50" s="5"/>
       <c r="U50" s="14"/>
       <c r="V50" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W50" s="5">
         <v>0</v>
       </c>
       <c r="X50" s="6"/>
       <c r="Y50" s="4" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
@@ -4693,13 +4683,13 @@
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="5"/>
@@ -4729,13 +4719,13 @@
         <v>10</v>
       </c>
       <c r="S51" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T51" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U51" s="10" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
@@ -4756,14 +4746,14 @@
         <v>38</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
@@ -4785,19 +4775,19 @@
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
       <c r="U52" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="V52" s="5" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="W52" s="5">
         <v>0</v>
       </c>
       <c r="X52" s="6" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="Y52" s="4" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="Z52" s="4"/>
       <c r="AA52" s="4"/>
@@ -4814,25 +4804,21 @@
         <v>29</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="5" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>99</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
       <c r="J53" s="5">
         <v>506</v>
       </c>
@@ -4850,14 +4836,14 @@
       <c r="T53" s="5"/>
       <c r="U53" s="7"/>
       <c r="V53" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W53" s="5">
         <v>0</v>
       </c>
       <c r="X53" s="6"/>
       <c r="Y53" s="4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="Z53" s="4"/>
       <c r="AA53" s="4"/>
@@ -4874,25 +4860,21 @@
         <v>29</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="5" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>103</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
       <c r="J54" s="5">
         <v>540</v>
       </c>
@@ -4910,14 +4892,14 @@
       <c r="T54" s="5"/>
       <c r="U54" s="5"/>
       <c r="V54" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W54" s="5">
         <v>0</v>
       </c>
       <c r="X54" s="6"/>
       <c r="Y54" s="4" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="Z54" s="4"/>
       <c r="AA54" s="4"/>
@@ -4931,13 +4913,13 @@
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D55" s="10"/>
       <c r="E55" s="5"/>
@@ -4967,13 +4949,13 @@
         <v>10</v>
       </c>
       <c r="S55" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T55" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U55" s="10" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="V55" s="5"/>
       <c r="W55" s="5"/>
@@ -4994,14 +4976,14 @@
         <v>38</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
@@ -5023,19 +5005,19 @@
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
       <c r="U56" s="5" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="V56" s="5" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="W56" s="5">
         <v>0</v>
       </c>
       <c r="X56" s="6" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="Y56" s="4" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="Z56" s="4"/>
       <c r="AA56" s="4"/>
@@ -5052,18 +5034,18 @@
         <v>29</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
@@ -5084,14 +5066,14 @@
       <c r="T57" s="5"/>
       <c r="U57" s="7"/>
       <c r="V57" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W57" s="5">
         <v>0</v>
       </c>
       <c r="X57" s="6"/>
       <c r="Y57" s="4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="Z57" s="4"/>
       <c r="AA57" s="4"/>
@@ -5108,18 +5090,18 @@
         <v>29</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
@@ -5140,14 +5122,14 @@
       <c r="T58" s="5"/>
       <c r="U58" s="5"/>
       <c r="V58" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W58" s="5">
         <v>0</v>
       </c>
       <c r="X58" s="6"/>
       <c r="Y58" s="4" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="Z58" s="4"/>
       <c r="AA58" s="4"/>
@@ -5161,13 +5143,13 @@
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D59" s="10"/>
       <c r="E59" s="5"/>
@@ -5197,13 +5179,13 @@
         <v>10</v>
       </c>
       <c r="S59" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T59" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U59" s="10" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="V59" s="5"/>
       <c r="W59" s="5"/>
@@ -5221,17 +5203,17 @@
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -5253,22 +5235,22 @@
       <c r="S60" s="5"/>
       <c r="T60" s="5"/>
       <c r="U60" s="5" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="V60" s="5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="W60" s="5">
         <v>1</v>
       </c>
       <c r="X60" s="6" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="Y60" s="4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="Z60" s="4" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AA60" s="4"/>
       <c r="AB60" s="4"/>
@@ -5284,14 +5266,14 @@
         <v>29</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -5314,14 +5296,14 @@
       <c r="T61" s="5"/>
       <c r="U61" s="5"/>
       <c r="V61" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W61" s="5">
         <v>0</v>
       </c>
       <c r="X61" s="6"/>
       <c r="Y61" s="4" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="Z61" s="4"/>
       <c r="AA61" s="4"/>
@@ -5338,14 +5320,14 @@
         <v>29</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -5368,14 +5350,14 @@
       <c r="T62" s="5"/>
       <c r="U62" s="5"/>
       <c r="V62" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W62" s="5">
         <v>0</v>
       </c>
       <c r="X62" s="6"/>
       <c r="Y62" s="4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="Z62" s="4"/>
       <c r="AA62" s="4"/>
@@ -5392,14 +5374,14 @@
         <v>29</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
@@ -5422,17 +5404,17 @@
       <c r="T63" s="5"/>
       <c r="U63" s="5"/>
       <c r="V63" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W63" s="5">
         <v>0</v>
       </c>
       <c r="X63" s="6"/>
       <c r="Y63" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z63" s="4" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="AA63" s="4"/>
       <c r="AB63" s="4"/>
@@ -5448,14 +5430,14 @@
         <v>29</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -5478,14 +5460,14 @@
       <c r="T64" s="5"/>
       <c r="U64" s="5"/>
       <c r="V64" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W64" s="5">
         <v>0</v>
       </c>
       <c r="X64" s="6"/>
       <c r="Y64" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z64" s="4"/>
       <c r="AA64" s="4"/>
@@ -5502,14 +5484,14 @@
         <v>29</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
@@ -5532,14 +5514,14 @@
       <c r="T65" s="5"/>
       <c r="U65" s="5"/>
       <c r="V65" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W65" s="5">
         <v>0</v>
       </c>
       <c r="X65" s="6"/>
       <c r="Y65" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z65" s="4"/>
       <c r="AA65" s="4"/>
@@ -5556,14 +5538,14 @@
         <v>29</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
@@ -5586,14 +5568,14 @@
       <c r="T66" s="5"/>
       <c r="U66" s="5"/>
       <c r="V66" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W66" s="5">
         <v>0</v>
       </c>
       <c r="X66" s="6"/>
       <c r="Y66" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z66" s="4"/>
       <c r="AA66" s="4"/>
@@ -5610,14 +5592,14 @@
         <v>29</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
@@ -5640,14 +5622,14 @@
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
       <c r="V67" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W67" s="5">
         <v>0</v>
       </c>
       <c r="X67" s="6"/>
       <c r="Y67" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z67" s="4"/>
       <c r="AA67" s="4"/>
@@ -5664,14 +5646,14 @@
         <v>29</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
@@ -5694,14 +5676,14 @@
       <c r="T68" s="5"/>
       <c r="U68" s="5"/>
       <c r="V68" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W68" s="5">
         <v>0</v>
       </c>
       <c r="X68" s="6"/>
       <c r="Y68" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z68" s="4"/>
       <c r="AA68" s="4"/>
@@ -5718,14 +5700,14 @@
         <v>29</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
@@ -5748,14 +5730,14 @@
       <c r="T69" s="5"/>
       <c r="U69" s="5"/>
       <c r="V69" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W69" s="5">
         <v>0</v>
       </c>
       <c r="X69" s="6"/>
       <c r="Y69" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z69" s="4"/>
       <c r="AA69" s="4"/>
@@ -5772,14 +5754,14 @@
         <v>29</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -5802,14 +5784,14 @@
       <c r="T70" s="5"/>
       <c r="U70" s="5"/>
       <c r="V70" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W70" s="5">
         <v>0</v>
       </c>
       <c r="X70" s="6"/>
       <c r="Y70" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z70" s="4"/>
       <c r="AA70" s="4"/>
@@ -5826,20 +5808,20 @@
         <v>29</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
@@ -5860,14 +5842,14 @@
       <c r="T71" s="5"/>
       <c r="U71" s="5"/>
       <c r="V71" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W71" s="5">
         <v>0</v>
       </c>
       <c r="X71" s="6"/>
       <c r="Y71" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z71" s="4"/>
       <c r="AA71" s="4"/>
@@ -5884,20 +5866,20 @@
         <v>29</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
@@ -5918,17 +5900,17 @@
       <c r="T72" s="5"/>
       <c r="U72" s="5"/>
       <c r="V72" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W72" s="5">
         <v>0</v>
       </c>
       <c r="X72" s="6"/>
       <c r="Y72" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Z72" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AA72" s="4"/>
       <c r="AB72" s="4"/>
@@ -5944,20 +5926,20 @@
         <v>29</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
@@ -5978,14 +5960,14 @@
       <c r="T73" s="5"/>
       <c r="U73" s="5"/>
       <c r="V73" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W73" s="5">
         <v>0</v>
       </c>
       <c r="X73" s="6"/>
       <c r="Y73" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z73" s="4"/>
       <c r="AA73" s="4"/>
@@ -6002,20 +5984,20 @@
         <v>29</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
@@ -6036,17 +6018,17 @@
       <c r="T74" s="5"/>
       <c r="U74" s="5"/>
       <c r="V74" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W74" s="5">
         <v>0</v>
       </c>
       <c r="X74" s="6"/>
       <c r="Y74" s="4" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Z74" s="4" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AA74" s="4"/>
       <c r="AB74" s="4"/>
@@ -6062,20 +6044,20 @@
         <v>29</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
@@ -6096,14 +6078,14 @@
       <c r="T75" s="5"/>
       <c r="U75" s="5"/>
       <c r="V75" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W75" s="5">
         <v>0</v>
       </c>
       <c r="X75" s="6"/>
       <c r="Y75" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z75" s="4"/>
       <c r="AA75" s="4"/>
@@ -6120,20 +6102,20 @@
         <v>29</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
@@ -6154,14 +6136,14 @@
       <c r="T76" s="5"/>
       <c r="U76" s="5"/>
       <c r="V76" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W76" s="5">
         <v>0</v>
       </c>
       <c r="X76" s="6"/>
       <c r="Y76" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z76" s="4"/>
       <c r="AA76" s="4"/>
@@ -6178,20 +6160,20 @@
         <v>29</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
@@ -6212,17 +6194,17 @@
       <c r="T77" s="5"/>
       <c r="U77" s="5"/>
       <c r="V77" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W77" s="5">
         <v>0</v>
       </c>
       <c r="X77" s="6"/>
       <c r="Y77" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Z77" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AA77" s="4"/>
       <c r="AB77" s="4"/>
@@ -6238,20 +6220,20 @@
         <v>29</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
@@ -6272,17 +6254,17 @@
       <c r="T78" s="5"/>
       <c r="U78" s="5"/>
       <c r="V78" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W78" s="5">
         <v>0</v>
       </c>
       <c r="X78" s="6"/>
       <c r="Y78" s="4" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Z78" s="4" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AA78" s="4"/>
       <c r="AB78" s="4"/>
@@ -6298,20 +6280,20 @@
         <v>29</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
@@ -6332,14 +6314,14 @@
       <c r="T79" s="5"/>
       <c r="U79" s="5"/>
       <c r="V79" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W79" s="5">
         <v>0</v>
       </c>
       <c r="X79" s="6"/>
       <c r="Y79" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z79" s="4"/>
       <c r="AA79" s="4"/>
@@ -6356,20 +6338,20 @@
         <v>29</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
@@ -6390,17 +6372,17 @@
       <c r="T80" s="5"/>
       <c r="U80" s="5"/>
       <c r="V80" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W80" s="5">
         <v>0</v>
       </c>
       <c r="X80" s="6"/>
       <c r="Y80" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Z80" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AA80" s="4"/>
       <c r="AB80" s="4"/>
@@ -6416,20 +6398,20 @@
         <v>29</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F81" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G81" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
@@ -6450,14 +6432,14 @@
       <c r="T81" s="5"/>
       <c r="U81" s="5"/>
       <c r="V81" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W81" s="5">
         <v>0</v>
       </c>
       <c r="X81" s="6"/>
       <c r="Y81" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z81" s="4"/>
       <c r="AA81" s="4"/>
@@ -6474,20 +6456,20 @@
         <v>29</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F82" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G82" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
@@ -6508,17 +6490,17 @@
       <c r="T82" s="5"/>
       <c r="U82" s="5"/>
       <c r="V82" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W82" s="5">
         <v>0</v>
       </c>
       <c r="X82" s="6"/>
       <c r="Y82" s="4" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Z82" s="4" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AA82" s="4"/>
       <c r="AB82" s="4"/>
@@ -6534,20 +6516,20 @@
         <v>29</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
@@ -6568,14 +6550,14 @@
       <c r="T83" s="5"/>
       <c r="U83" s="5"/>
       <c r="V83" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W83" s="5">
         <v>0</v>
       </c>
       <c r="X83" s="6"/>
       <c r="Y83" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z83" s="4"/>
       <c r="AA83" s="4"/>
@@ -6592,20 +6574,20 @@
         <v>29</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
@@ -6626,14 +6608,14 @@
       <c r="T84" s="5"/>
       <c r="U84" s="5"/>
       <c r="V84" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W84" s="5">
         <v>0</v>
       </c>
       <c r="X84" s="6"/>
       <c r="Y84" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z84" s="4"/>
       <c r="AA84" s="4"/>
@@ -6650,20 +6632,20 @@
         <v>29</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
@@ -6684,14 +6666,14 @@
       <c r="T85" s="5"/>
       <c r="U85" s="5"/>
       <c r="V85" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W85" s="5">
         <v>0</v>
       </c>
       <c r="X85" s="6"/>
       <c r="Y85" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z85" s="4"/>
       <c r="AA85" s="4"/>
@@ -6708,26 +6690,26 @@
         <v>29</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="J86" s="5">
         <v>550</v>
@@ -6746,17 +6728,17 @@
       <c r="T86" s="5"/>
       <c r="U86" s="5"/>
       <c r="V86" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W86" s="5">
         <v>0</v>
       </c>
       <c r="X86" s="6"/>
       <c r="Y86" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Z86" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AA86" s="4"/>
       <c r="AB86" s="4"/>
@@ -6772,26 +6754,26 @@
         <v>29</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="J87" s="5">
         <v>594</v>
@@ -6810,17 +6792,17 @@
       <c r="T87" s="5"/>
       <c r="U87" s="5"/>
       <c r="V87" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W87" s="5">
         <v>0</v>
       </c>
       <c r="X87" s="6"/>
       <c r="Y87" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Z87" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AA87" s="4"/>
       <c r="AB87" s="4"/>
@@ -6836,26 +6818,26 @@
         <v>29</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="J88" s="5">
         <v>480</v>
@@ -6874,14 +6856,14 @@
       <c r="T88" s="5"/>
       <c r="U88" s="5"/>
       <c r="V88" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W88" s="5">
         <v>0</v>
       </c>
       <c r="X88" s="6"/>
       <c r="Y88" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z88" s="4"/>
       <c r="AA88" s="4"/>
@@ -6898,26 +6880,26 @@
         <v>29</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="J89" s="5">
         <v>539</v>
@@ -6936,14 +6918,14 @@
       <c r="T89" s="5"/>
       <c r="U89" s="5"/>
       <c r="V89" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W89" s="5">
         <v>0</v>
       </c>
       <c r="X89" s="6"/>
       <c r="Y89" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z89" s="4"/>
       <c r="AA89" s="4"/>
@@ -6960,26 +6942,26 @@
         <v>29</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="J90" s="5">
         <v>594</v>
@@ -6998,17 +6980,17 @@
       <c r="T90" s="5"/>
       <c r="U90" s="5"/>
       <c r="V90" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W90" s="5">
         <v>0</v>
       </c>
       <c r="X90" s="6"/>
       <c r="Y90" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Z90" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AA90" s="4"/>
       <c r="AB90" s="4"/>
@@ -7024,20 +7006,20 @@
         <v>29</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
@@ -7058,17 +7040,17 @@
       <c r="T91" s="5"/>
       <c r="U91" s="5"/>
       <c r="V91" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W91" s="5">
         <v>0</v>
       </c>
       <c r="X91" s="6"/>
       <c r="Y91" s="4" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Z91" s="4" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AA91" s="4"/>
       <c r="AB91" s="4"/>
@@ -7084,20 +7066,20 @@
         <v>29</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
@@ -7118,17 +7100,17 @@
       <c r="T92" s="5"/>
       <c r="U92" s="5"/>
       <c r="V92" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W92" s="5">
         <v>0</v>
       </c>
       <c r="X92" s="6"/>
       <c r="Y92" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Z92" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AA92" s="4"/>
       <c r="AB92" s="4"/>
@@ -7144,20 +7126,20 @@
         <v>29</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
@@ -7178,17 +7160,17 @@
       <c r="T93" s="5"/>
       <c r="U93" s="5"/>
       <c r="V93" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W93" s="5">
         <v>0</v>
       </c>
       <c r="X93" s="6"/>
       <c r="Y93" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Z93" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AA93" s="4"/>
       <c r="AB93" s="4"/>
@@ -7204,20 +7186,20 @@
         <v>29</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
@@ -7238,17 +7220,17 @@
       <c r="T94" s="5"/>
       <c r="U94" s="5"/>
       <c r="V94" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W94" s="5">
         <v>0</v>
       </c>
       <c r="X94" s="6"/>
       <c r="Y94" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Z94" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AA94" s="4"/>
       <c r="AB94" s="4"/>
@@ -7264,20 +7246,20 @@
         <v>29</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
@@ -7298,17 +7280,17 @@
       <c r="T95" s="5"/>
       <c r="U95" s="5"/>
       <c r="V95" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W95" s="5">
         <v>0</v>
       </c>
       <c r="X95" s="6"/>
       <c r="Y95" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Z95" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AA95" s="4"/>
       <c r="AB95" s="4"/>
@@ -7324,20 +7306,20 @@
         <v>29</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
@@ -7358,17 +7340,17 @@
       <c r="T96" s="5"/>
       <c r="U96" s="5"/>
       <c r="V96" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W96" s="5">
         <v>0</v>
       </c>
       <c r="X96" s="6"/>
       <c r="Y96" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Z96" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AA96" s="4"/>
       <c r="AB96" s="4"/>
@@ -7384,20 +7366,20 @@
         <v>29</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
@@ -7418,17 +7400,17 @@
       <c r="T97" s="5"/>
       <c r="U97" s="5"/>
       <c r="V97" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W97" s="5">
         <v>0</v>
       </c>
       <c r="X97" s="6"/>
       <c r="Y97" s="4" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Z97" s="4" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AA97" s="4"/>
       <c r="AB97" s="4"/>
@@ -7444,20 +7426,20 @@
         <v>29</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
@@ -7478,17 +7460,17 @@
       <c r="T98" s="5"/>
       <c r="U98" s="5"/>
       <c r="V98" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W98" s="5">
         <v>0</v>
       </c>
       <c r="X98" s="6"/>
       <c r="Y98" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Z98" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AA98" s="4"/>
       <c r="AB98" s="4"/>
@@ -7504,20 +7486,20 @@
         <v>29</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
@@ -7538,14 +7520,14 @@
       <c r="T99" s="5"/>
       <c r="U99" s="5"/>
       <c r="V99" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W99" s="5">
         <v>0</v>
       </c>
       <c r="X99" s="6"/>
       <c r="Y99" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z99" s="4"/>
       <c r="AA99" s="4"/>
@@ -7562,20 +7544,20 @@
         <v>29</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
@@ -7596,14 +7578,14 @@
       <c r="T100" s="5"/>
       <c r="U100" s="5"/>
       <c r="V100" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W100" s="5">
         <v>0</v>
       </c>
       <c r="X100" s="6"/>
       <c r="Y100" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z100" s="4"/>
       <c r="AA100" s="4"/>
@@ -7620,20 +7602,20 @@
         <v>29</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
@@ -7654,14 +7636,14 @@
       <c r="T101" s="5"/>
       <c r="U101" s="5"/>
       <c r="V101" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W101" s="5">
         <v>0</v>
       </c>
       <c r="X101" s="6"/>
       <c r="Y101" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z101" s="4"/>
       <c r="AA101" s="4"/>
@@ -7678,20 +7660,20 @@
         <v>29</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
@@ -7712,14 +7694,14 @@
       <c r="T102" s="5"/>
       <c r="U102" s="5"/>
       <c r="V102" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W102" s="5">
         <v>0</v>
       </c>
       <c r="X102" s="6"/>
       <c r="Y102" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z102" s="4"/>
       <c r="AA102" s="4"/>
@@ -7736,20 +7718,20 @@
         <v>29</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
@@ -7770,14 +7752,14 @@
       <c r="T103" s="5"/>
       <c r="U103" s="5"/>
       <c r="V103" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W103" s="5">
         <v>0</v>
       </c>
       <c r="X103" s="6"/>
       <c r="Y103" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z103" s="4"/>
       <c r="AA103" s="4"/>
@@ -7794,20 +7776,20 @@
         <v>29</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
@@ -7828,14 +7810,14 @@
       <c r="T104" s="5"/>
       <c r="U104" s="5"/>
       <c r="V104" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W104" s="5">
         <v>0</v>
       </c>
       <c r="X104" s="6"/>
       <c r="Y104" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z104" s="4"/>
       <c r="AA104" s="4"/>
@@ -7852,20 +7834,20 @@
         <v>29</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
@@ -7886,17 +7868,17 @@
       <c r="T105" s="5"/>
       <c r="U105" s="5"/>
       <c r="V105" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W105" s="5">
         <v>0</v>
       </c>
       <c r="X105" s="6"/>
       <c r="Y105" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Z105" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AA105" s="4"/>
       <c r="AB105" s="4"/>
@@ -7912,20 +7894,20 @@
         <v>29</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
@@ -7946,14 +7928,14 @@
       <c r="T106" s="5"/>
       <c r="U106" s="5"/>
       <c r="V106" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W106" s="5">
         <v>0</v>
       </c>
       <c r="X106" s="6"/>
       <c r="Y106" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z106" s="4"/>
       <c r="AA106" s="4"/>
@@ -7970,20 +7952,20 @@
         <v>29</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
@@ -8004,14 +7986,14 @@
       <c r="T107" s="5"/>
       <c r="U107" s="5"/>
       <c r="V107" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W107" s="5">
         <v>0</v>
       </c>
       <c r="X107" s="6"/>
       <c r="Y107" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z107" s="4"/>
       <c r="AA107" s="4"/>
@@ -8028,20 +8010,20 @@
         <v>29</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
@@ -8062,17 +8044,17 @@
       <c r="T108" s="5"/>
       <c r="U108" s="5"/>
       <c r="V108" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W108" s="5">
         <v>0</v>
       </c>
       <c r="X108" s="6"/>
       <c r="Y108" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Z108" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AA108" s="4"/>
       <c r="AB108" s="4"/>
@@ -8088,20 +8070,20 @@
         <v>29</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
@@ -8122,14 +8104,14 @@
       <c r="T109" s="5"/>
       <c r="U109" s="5"/>
       <c r="V109" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W109" s="5">
         <v>0</v>
       </c>
       <c r="X109" s="6"/>
       <c r="Y109" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z109" s="4"/>
       <c r="AA109" s="4"/>
@@ -8146,20 +8128,20 @@
         <v>29</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
@@ -8180,17 +8162,17 @@
       <c r="T110" s="5"/>
       <c r="U110" s="5"/>
       <c r="V110" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W110" s="5">
         <v>0</v>
       </c>
       <c r="X110" s="6"/>
       <c r="Y110" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Z110" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AA110" s="4"/>
       <c r="AB110" s="4"/>
@@ -8206,20 +8188,20 @@
         <v>29</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
@@ -8240,14 +8222,14 @@
       <c r="T111" s="5"/>
       <c r="U111" s="5"/>
       <c r="V111" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W111" s="5">
         <v>0</v>
       </c>
       <c r="X111" s="6"/>
       <c r="Y111" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z111" s="4"/>
       <c r="AA111" s="4"/>
@@ -8264,20 +8246,20 @@
         <v>29</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
@@ -8298,14 +8280,14 @@
       <c r="T112" s="5"/>
       <c r="U112" s="5"/>
       <c r="V112" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W112" s="5">
         <v>0</v>
       </c>
       <c r="X112" s="6"/>
       <c r="Y112" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z112" s="4"/>
       <c r="AA112" s="4"/>
@@ -8322,20 +8304,20 @@
         <v>29</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
@@ -8356,14 +8338,14 @@
       <c r="T113" s="5"/>
       <c r="U113" s="5"/>
       <c r="V113" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W113" s="5">
         <v>0</v>
       </c>
       <c r="X113" s="6"/>
       <c r="Y113" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z113" s="4"/>
       <c r="AA113" s="4"/>
@@ -8380,14 +8362,14 @@
         <v>29</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
@@ -8410,14 +8392,14 @@
       <c r="T114" s="5"/>
       <c r="U114" s="5"/>
       <c r="V114" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W114" s="5">
         <v>0</v>
       </c>
       <c r="X114" s="6"/>
       <c r="Y114" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z114" s="4"/>
       <c r="AA114" s="4"/>
@@ -8434,14 +8416,14 @@
         <v>29</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
@@ -8464,14 +8446,14 @@
       <c r="T115" s="5"/>
       <c r="U115" s="5"/>
       <c r="V115" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W115" s="5">
         <v>0</v>
       </c>
       <c r="X115" s="6"/>
       <c r="Y115" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z115" s="4"/>
       <c r="AA115" s="4"/>
@@ -8488,14 +8470,14 @@
         <v>29</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
@@ -8518,14 +8500,14 @@
       <c r="T116" s="5"/>
       <c r="U116" s="5"/>
       <c r="V116" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W116" s="5">
         <v>0</v>
       </c>
       <c r="X116" s="6"/>
       <c r="Y116" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z116" s="4"/>
       <c r="AA116" s="4"/>
@@ -8542,20 +8524,20 @@
         <v>29</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
@@ -8576,14 +8558,14 @@
       <c r="T117" s="5"/>
       <c r="U117" s="5"/>
       <c r="V117" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W117" s="5">
         <v>0</v>
       </c>
       <c r="X117" s="6"/>
       <c r="Y117" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z117" s="4"/>
       <c r="AA117" s="4"/>
@@ -8600,20 +8582,20 @@
         <v>29</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
@@ -8634,14 +8616,14 @@
       <c r="T118" s="5"/>
       <c r="U118" s="5"/>
       <c r="V118" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W118" s="5">
         <v>0</v>
       </c>
       <c r="X118" s="6"/>
       <c r="Y118" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z118" s="4"/>
       <c r="AA118" s="4"/>
@@ -8658,20 +8640,20 @@
         <v>29</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
@@ -8692,14 +8674,14 @@
       <c r="T119" s="5"/>
       <c r="U119" s="5"/>
       <c r="V119" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W119" s="5">
         <v>0</v>
       </c>
       <c r="X119" s="6"/>
       <c r="Y119" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z119" s="4"/>
       <c r="AA119" s="4"/>
@@ -8716,20 +8698,20 @@
         <v>29</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
@@ -8750,17 +8732,17 @@
       <c r="T120" s="5"/>
       <c r="U120" s="5"/>
       <c r="V120" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W120" s="5">
         <v>0</v>
       </c>
       <c r="X120" s="6"/>
       <c r="Y120" s="4" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Z120" s="4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AA120" s="4"/>
       <c r="AB120" s="4"/>
@@ -8776,20 +8758,20 @@
         <v>29</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
@@ -8810,14 +8792,14 @@
       <c r="T121" s="5"/>
       <c r="U121" s="5"/>
       <c r="V121" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W121" s="5">
         <v>0</v>
       </c>
       <c r="X121" s="6"/>
       <c r="Y121" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z121" s="4"/>
       <c r="AA121" s="4"/>
@@ -8834,20 +8816,20 @@
         <v>29</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
@@ -8868,14 +8850,14 @@
       <c r="T122" s="5"/>
       <c r="U122" s="5"/>
       <c r="V122" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W122" s="5">
         <v>0</v>
       </c>
       <c r="X122" s="6"/>
       <c r="Y122" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z122" s="4"/>
       <c r="AA122" s="4"/>
@@ -8892,20 +8874,20 @@
         <v>29</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
@@ -8926,17 +8908,17 @@
       <c r="T123" s="5"/>
       <c r="U123" s="5"/>
       <c r="V123" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W123" s="5">
         <v>0</v>
       </c>
       <c r="X123" s="6"/>
       <c r="Y123" s="4" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Z123" s="4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AA123" s="4"/>
       <c r="AB123" s="4"/>
@@ -8952,20 +8934,20 @@
         <v>29</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
@@ -8986,14 +8968,14 @@
       <c r="T124" s="5"/>
       <c r="U124" s="5"/>
       <c r="V124" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W124" s="5">
         <v>0</v>
       </c>
       <c r="X124" s="6"/>
       <c r="Y124" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z124" s="4"/>
       <c r="AA124" s="4"/>
@@ -9010,20 +8992,20 @@
         <v>29</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
@@ -9044,14 +9026,14 @@
       <c r="T125" s="5"/>
       <c r="U125" s="5"/>
       <c r="V125" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W125" s="5">
         <v>0</v>
       </c>
       <c r="X125" s="6"/>
       <c r="Y125" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z125" s="4"/>
       <c r="AA125" s="4"/>
@@ -9068,20 +9050,20 @@
         <v>29</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
@@ -9102,14 +9084,14 @@
       <c r="T126" s="5"/>
       <c r="U126" s="5"/>
       <c r="V126" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W126" s="5">
         <v>0</v>
       </c>
       <c r="X126" s="6"/>
       <c r="Y126" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z126" s="4"/>
       <c r="AA126" s="4"/>
@@ -9126,20 +9108,20 @@
         <v>29</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
@@ -9160,14 +9142,14 @@
       <c r="T127" s="5"/>
       <c r="U127" s="5"/>
       <c r="V127" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W127" s="5">
         <v>0</v>
       </c>
       <c r="X127" s="6"/>
       <c r="Y127" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z127" s="4"/>
       <c r="AA127" s="4"/>
@@ -9184,20 +9166,20 @@
         <v>29</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
@@ -9218,17 +9200,17 @@
       <c r="T128" s="5"/>
       <c r="U128" s="5"/>
       <c r="V128" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W128" s="5">
         <v>0</v>
       </c>
       <c r="X128" s="6"/>
       <c r="Y128" s="4" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Z128" s="4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AA128" s="4"/>
       <c r="AB128" s="4"/>
@@ -9244,20 +9226,20 @@
         <v>29</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E129" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F129" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="F129" s="5" t="s">
-        <v>256</v>
-      </c>
       <c r="G129" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
@@ -9278,14 +9260,14 @@
       <c r="T129" s="5"/>
       <c r="U129" s="5"/>
       <c r="V129" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W129" s="5">
         <v>0</v>
       </c>
       <c r="X129" s="6"/>
       <c r="Y129" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z129" s="4"/>
       <c r="AA129" s="4"/>
@@ -9302,20 +9284,20 @@
         <v>29</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E130" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F130" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="F130" s="5" t="s">
-        <v>256</v>
-      </c>
       <c r="G130" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
@@ -9336,14 +9318,14 @@
       <c r="T130" s="5"/>
       <c r="U130" s="5"/>
       <c r="V130" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W130" s="5">
         <v>0</v>
       </c>
       <c r="X130" s="6"/>
       <c r="Y130" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z130" s="4"/>
       <c r="AA130" s="4"/>
@@ -9360,20 +9342,20 @@
         <v>29</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E131" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F131" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="F131" s="5" t="s">
-        <v>256</v>
-      </c>
       <c r="G131" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
@@ -9394,17 +9376,17 @@
       <c r="T131" s="5"/>
       <c r="U131" s="5"/>
       <c r="V131" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W131" s="5">
         <v>0</v>
       </c>
       <c r="X131" s="6"/>
       <c r="Y131" s="4" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Z131" s="4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AA131" s="4"/>
       <c r="AB131" s="4"/>
@@ -9420,20 +9402,20 @@
         <v>29</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E132" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="F132" s="5" t="s">
-        <v>256</v>
-      </c>
       <c r="G132" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
@@ -9454,14 +9436,14 @@
       <c r="T132" s="5"/>
       <c r="U132" s="5"/>
       <c r="V132" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W132" s="5">
         <v>0</v>
       </c>
       <c r="X132" s="6"/>
       <c r="Y132" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z132" s="4"/>
       <c r="AA132" s="4"/>
@@ -9478,26 +9460,26 @@
         <v>29</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="J133" s="5">
         <v>1066</v>
@@ -9516,14 +9498,14 @@
       <c r="T133" s="5"/>
       <c r="U133" s="5"/>
       <c r="V133" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W133" s="5">
         <v>0</v>
       </c>
       <c r="X133" s="6"/>
       <c r="Y133" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z133" s="4"/>
       <c r="AA133" s="4"/>
@@ -9540,26 +9522,26 @@
         <v>29</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="J134" s="5">
         <v>1096</v>
@@ -9578,14 +9560,14 @@
       <c r="T134" s="5"/>
       <c r="U134" s="5"/>
       <c r="V134" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W134" s="5">
         <v>0</v>
       </c>
       <c r="X134" s="6"/>
       <c r="Y134" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z134" s="4"/>
       <c r="AA134" s="4"/>
@@ -9602,26 +9584,26 @@
         <v>29</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="J135" s="5">
         <v>1126</v>
@@ -9640,14 +9622,14 @@
       <c r="T135" s="5"/>
       <c r="U135" s="5"/>
       <c r="V135" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W135" s="5">
         <v>0</v>
       </c>
       <c r="X135" s="6"/>
       <c r="Y135" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z135" s="4"/>
       <c r="AA135" s="4"/>
@@ -9664,26 +9646,26 @@
         <v>29</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J136" s="5">
         <v>1088</v>
@@ -9702,17 +9684,17 @@
       <c r="T136" s="5"/>
       <c r="U136" s="5"/>
       <c r="V136" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W136" s="5">
         <v>0</v>
       </c>
       <c r="X136" s="6"/>
       <c r="Y136" s="4" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Z136" s="4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AA136" s="4"/>
       <c r="AB136" s="4"/>
@@ -9728,26 +9710,26 @@
         <v>29</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J137" s="5">
         <v>1096</v>
@@ -9766,14 +9748,14 @@
       <c r="T137" s="5"/>
       <c r="U137" s="5"/>
       <c r="V137" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W137" s="5">
         <v>0</v>
       </c>
       <c r="X137" s="6"/>
       <c r="Y137" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z137" s="4"/>
       <c r="AA137" s="4"/>
@@ -9790,26 +9772,26 @@
         <v>29</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J138" s="5">
         <v>1126</v>
@@ -9828,14 +9810,14 @@
       <c r="T138" s="5"/>
       <c r="U138" s="5"/>
       <c r="V138" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W138" s="5">
         <v>0</v>
       </c>
       <c r="X138" s="6"/>
       <c r="Y138" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z138" s="4"/>
       <c r="AA138" s="4"/>
@@ -9852,26 +9834,26 @@
         <v>29</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="J139" s="5">
         <v>1066</v>
@@ -9890,14 +9872,14 @@
       <c r="T139" s="5"/>
       <c r="U139" s="5"/>
       <c r="V139" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W139" s="5">
         <v>0</v>
       </c>
       <c r="X139" s="6"/>
       <c r="Y139" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z139" s="4"/>
       <c r="AA139" s="4"/>
@@ -9914,26 +9896,26 @@
         <v>29</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="J140" s="5">
         <v>1078</v>
@@ -9952,17 +9934,17 @@
       <c r="T140" s="5"/>
       <c r="U140" s="5"/>
       <c r="V140" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W140" s="5">
         <v>0</v>
       </c>
       <c r="X140" s="6"/>
       <c r="Y140" s="4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Z140" s="4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AA140" s="4"/>
       <c r="AB140" s="4"/>
@@ -9978,26 +9960,26 @@
         <v>29</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="J141" s="5">
         <v>1066</v>
@@ -10016,14 +9998,14 @@
       <c r="T141" s="5"/>
       <c r="U141" s="5"/>
       <c r="V141" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W141" s="5">
         <v>0</v>
       </c>
       <c r="X141" s="6"/>
       <c r="Y141" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z141" s="4"/>
       <c r="AA141" s="4"/>
@@ -10040,26 +10022,26 @@
         <v>29</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="J142" s="5">
         <v>1096</v>
@@ -10078,14 +10060,14 @@
       <c r="T142" s="5"/>
       <c r="U142" s="5"/>
       <c r="V142" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W142" s="5">
         <v>0</v>
       </c>
       <c r="X142" s="6"/>
       <c r="Y142" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z142" s="4"/>
       <c r="AA142" s="4"/>
@@ -10102,26 +10084,26 @@
         <v>29</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="J143" s="5">
         <v>1126</v>
@@ -10140,14 +10122,14 @@
       <c r="T143" s="5"/>
       <c r="U143" s="5"/>
       <c r="V143" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W143" s="5">
         <v>0</v>
       </c>
       <c r="X143" s="6"/>
       <c r="Y143" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z143" s="4"/>
       <c r="AA143" s="4"/>
@@ -10164,26 +10146,26 @@
         <v>29</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J144" s="5">
         <v>1088</v>
@@ -10202,17 +10184,17 @@
       <c r="T144" s="5"/>
       <c r="U144" s="5"/>
       <c r="V144" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W144" s="5">
         <v>0</v>
       </c>
       <c r="X144" s="6"/>
       <c r="Y144" s="4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Z144" s="4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AA144" s="4"/>
       <c r="AB144" s="4"/>
@@ -10228,26 +10210,26 @@
         <v>29</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="I145" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J145" s="5">
         <v>1096</v>
@@ -10266,14 +10248,14 @@
       <c r="T145" s="5"/>
       <c r="U145" s="5"/>
       <c r="V145" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W145" s="5">
         <v>0</v>
       </c>
       <c r="X145" s="6"/>
       <c r="Y145" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z145" s="4"/>
       <c r="AA145" s="4"/>
@@ -10290,26 +10272,26 @@
         <v>29</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="I146" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J146" s="5">
         <v>1126</v>
@@ -10328,14 +10310,14 @@
       <c r="T146" s="5"/>
       <c r="U146" s="5"/>
       <c r="V146" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W146" s="5">
         <v>0</v>
       </c>
       <c r="X146" s="6"/>
       <c r="Y146" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z146" s="4"/>
       <c r="AA146" s="4"/>
@@ -10352,26 +10334,26 @@
         <v>29</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="I147" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="J147" s="5">
         <v>1066</v>
@@ -10390,14 +10372,14 @@
       <c r="T147" s="5"/>
       <c r="U147" s="5"/>
       <c r="V147" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W147" s="5">
         <v>0</v>
       </c>
       <c r="X147" s="6"/>
       <c r="Y147" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z147" s="4"/>
       <c r="AA147" s="4"/>
@@ -10414,26 +10396,26 @@
         <v>29</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="I148" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="J148" s="5">
         <v>1078</v>
@@ -10452,17 +10434,17 @@
       <c r="T148" s="5"/>
       <c r="U148" s="5"/>
       <c r="V148" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W148" s="5">
         <v>0</v>
       </c>
       <c r="X148" s="6"/>
       <c r="Y148" s="4" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Z148" s="4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AA148" s="4"/>
       <c r="AB148" s="4"/>
@@ -10478,14 +10460,14 @@
         <v>29</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
@@ -10508,14 +10490,14 @@
       <c r="T149" s="5"/>
       <c r="U149" s="5"/>
       <c r="V149" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W149" s="5">
         <v>0</v>
       </c>
       <c r="X149" s="6"/>
       <c r="Y149" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z149" s="4"/>
       <c r="AA149" s="4"/>
@@ -10532,14 +10514,14 @@
         <v>29</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
@@ -10562,14 +10544,14 @@
       <c r="T150" s="5"/>
       <c r="U150" s="5"/>
       <c r="V150" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W150" s="5">
         <v>0</v>
       </c>
       <c r="X150" s="6"/>
       <c r="Y150" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z150" s="4"/>
       <c r="AA150" s="4"/>
@@ -10586,14 +10568,14 @@
         <v>29</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
@@ -10616,14 +10598,14 @@
       <c r="T151" s="5"/>
       <c r="U151" s="5"/>
       <c r="V151" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W151" s="5">
         <v>0</v>
       </c>
       <c r="X151" s="6"/>
       <c r="Y151" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z151" s="4"/>
       <c r="AA151" s="4"/>
@@ -10640,14 +10622,14 @@
         <v>29</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
@@ -10670,14 +10652,14 @@
       <c r="T152" s="5"/>
       <c r="U152" s="5"/>
       <c r="V152" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W152" s="5">
         <v>0</v>
       </c>
       <c r="X152" s="6"/>
       <c r="Y152" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z152" s="4"/>
       <c r="AA152" s="4"/>
@@ -10694,14 +10676,14 @@
         <v>29</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
@@ -10724,14 +10706,14 @@
       <c r="T153" s="5"/>
       <c r="U153" s="5"/>
       <c r="V153" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W153" s="5">
         <v>0</v>
       </c>
       <c r="X153" s="6"/>
       <c r="Y153" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z153" s="4"/>
       <c r="AA153" s="4"/>
@@ -10748,14 +10730,14 @@
         <v>29</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
@@ -10778,14 +10760,14 @@
       <c r="T154" s="5"/>
       <c r="U154" s="5"/>
       <c r="V154" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W154" s="5">
         <v>0</v>
       </c>
       <c r="X154" s="6"/>
       <c r="Y154" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z154" s="4"/>
       <c r="AA154" s="4"/>
@@ -10802,14 +10784,14 @@
         <v>29</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
@@ -10832,14 +10814,14 @@
       <c r="T155" s="5"/>
       <c r="U155" s="5"/>
       <c r="V155" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W155" s="5">
         <v>0</v>
       </c>
       <c r="X155" s="6"/>
       <c r="Y155" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z155" s="4"/>
       <c r="AA155" s="4"/>
@@ -10856,14 +10838,14 @@
         <v>29</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
@@ -10886,14 +10868,14 @@
       <c r="T156" s="5"/>
       <c r="U156" s="5"/>
       <c r="V156" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W156" s="5">
         <v>0</v>
       </c>
       <c r="X156" s="6"/>
       <c r="Y156" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z156" s="4"/>
       <c r="AA156" s="4"/>
@@ -10910,14 +10892,14 @@
         <v>29</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
@@ -10940,14 +10922,14 @@
       <c r="T157" s="5"/>
       <c r="U157" s="5"/>
       <c r="V157" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W157" s="5">
         <v>0</v>
       </c>
       <c r="X157" s="6"/>
       <c r="Y157" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z157" s="4"/>
       <c r="AA157" s="4"/>
@@ -10964,14 +10946,14 @@
         <v>29</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
@@ -10994,14 +10976,14 @@
       <c r="T158" s="5"/>
       <c r="U158" s="5"/>
       <c r="V158" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W158" s="5">
         <v>0</v>
       </c>
       <c r="X158" s="6"/>
       <c r="Y158" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z158" s="4"/>
       <c r="AA158" s="4"/>
@@ -11018,14 +11000,14 @@
         <v>29</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
@@ -11048,14 +11030,14 @@
       <c r="T159" s="5"/>
       <c r="U159" s="5"/>
       <c r="V159" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W159" s="5">
         <v>0</v>
       </c>
       <c r="X159" s="6"/>
       <c r="Y159" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z159" s="4"/>
       <c r="AA159" s="4"/>
@@ -11072,14 +11054,14 @@
         <v>29</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
@@ -11102,14 +11084,14 @@
       <c r="T160" s="5"/>
       <c r="U160" s="5"/>
       <c r="V160" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="W160" s="5">
         <v>0</v>
       </c>
       <c r="X160" s="6"/>
       <c r="Y160" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Z160" s="4"/>
       <c r="AA160" s="4"/>
@@ -11126,14 +11108,14 @@
         <v>29</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
@@ -11156,14 +11138,14 @@
       <c r="T161" s="5"/>
       <c r="U161" s="5"/>
       <c r="V161" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W161" s="5">
         <v>0</v>
       </c>
       <c r="X161" s="6"/>
       <c r="Y161" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Z161" s="4"/>
       <c r="AA161" s="4"/>
@@ -11180,14 +11162,14 @@
         <v>29</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
@@ -11210,14 +11192,14 @@
       <c r="T162" s="5"/>
       <c r="U162" s="5"/>
       <c r="V162" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W162" s="5">
         <v>0</v>
       </c>
       <c r="X162" s="6"/>
       <c r="Y162" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Z162" s="4"/>
       <c r="AA162" s="4"/>
@@ -11234,14 +11216,14 @@
         <v>29</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
@@ -11264,14 +11246,14 @@
       <c r="T163" s="5"/>
       <c r="U163" s="5"/>
       <c r="V163" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W163" s="5">
         <v>0</v>
       </c>
       <c r="X163" s="6"/>
       <c r="Y163" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Z163" s="4"/>
       <c r="AA163" s="4"/>
@@ -11288,14 +11270,14 @@
         <v>29</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
@@ -11318,14 +11300,14 @@
       <c r="T164" s="5"/>
       <c r="U164" s="5"/>
       <c r="V164" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W164" s="5">
         <v>0</v>
       </c>
       <c r="X164" s="6"/>
       <c r="Y164" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Z164" s="4"/>
       <c r="AA164" s="4"/>
@@ -11339,17 +11321,17 @@
     </row>
     <row r="165" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
@@ -11375,7 +11357,7 @@
       <c r="W165" s="5"/>
       <c r="X165" s="6"/>
       <c r="Y165" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Z165" s="4"/>
       <c r="AA165" s="4"/>
@@ -11389,17 +11371,17 @@
     </row>
     <row r="166" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
@@ -11425,7 +11407,7 @@
       <c r="W166" s="5"/>
       <c r="X166" s="6"/>
       <c r="Y166" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Z166" s="4"/>
       <c r="AA166" s="4"/>
@@ -11439,17 +11421,17 @@
     </row>
     <row r="167" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
@@ -11475,7 +11457,7 @@
       <c r="W167" s="5"/>
       <c r="X167" s="6"/>
       <c r="Y167" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Z167" s="4"/>
       <c r="AA167" s="4"/>
@@ -11489,17 +11471,17 @@
     </row>
     <row r="168" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
@@ -11525,7 +11507,7 @@
       <c r="W168" s="5"/>
       <c r="X168" s="6"/>
       <c r="Y168" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Z168" s="4"/>
       <c r="AA168" s="4"/>
@@ -11539,17 +11521,17 @@
     </row>
     <row r="169" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
@@ -11575,7 +11557,7 @@
       <c r="W169" s="5"/>
       <c r="X169" s="6"/>
       <c r="Y169" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Z169" s="4"/>
       <c r="AA169" s="4"/>
@@ -11589,17 +11571,17 @@
     </row>
     <row r="170" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
@@ -11625,7 +11607,7 @@
       <c r="W170" s="5"/>
       <c r="X170" s="6"/>
       <c r="Y170" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Z170" s="4"/>
       <c r="AA170" s="4"/>
@@ -11639,17 +11621,17 @@
     </row>
     <row r="171" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
@@ -11675,7 +11657,7 @@
       <c r="W171" s="5"/>
       <c r="X171" s="6"/>
       <c r="Y171" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Z171" s="4"/>
       <c r="AA171" s="4"/>
@@ -11689,17 +11671,17 @@
     </row>
     <row r="172" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
@@ -11725,7 +11707,7 @@
       <c r="W172" s="5"/>
       <c r="X172" s="6"/>
       <c r="Y172" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Z172" s="4"/>
       <c r="AA172" s="4"/>
@@ -11739,17 +11721,17 @@
     </row>
     <row r="173" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
@@ -11775,7 +11757,7 @@
       <c r="W173" s="5"/>
       <c r="X173" s="6"/>
       <c r="Y173" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Z173" s="4"/>
       <c r="AA173" s="4"/>
@@ -11789,17 +11771,17 @@
     </row>
     <row r="174" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
@@ -11825,7 +11807,7 @@
       <c r="W174" s="5"/>
       <c r="X174" s="6"/>
       <c r="Y174" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Z174" s="4"/>
       <c r="AA174" s="4"/>
@@ -11839,17 +11821,17 @@
     </row>
     <row r="175" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
@@ -11875,7 +11857,7 @@
       <c r="W175" s="5"/>
       <c r="X175" s="6"/>
       <c r="Y175" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Z175" s="4"/>
       <c r="AA175" s="4"/>
@@ -12105,23 +12087,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="10"/>
     </row>
@@ -12151,19 +12133,19 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B8" s="15"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B9" s="15"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B10" s="15"/>
     </row>

--- a/exe/TSV/Excel/TH76_Tatehama_UIList.xlsx
+++ b/exe/TSV/Excel/TH76_Tatehama_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BA2FF5-DEB5-41E0-9764-73CEA06F0CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159BC05A-0DED-4A7D-BEE7-DF8F7208E698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4995" yWindow="4485" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8640" yWindow="4320" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH76_館浜駅_UIList" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="335">
   <si>
     <t>Type</t>
   </si>
@@ -912,6 +912,12 @@
     <t>駅扱切換</t>
   </si>
   <si>
+    <t>物理鍵てこ</t>
+  </si>
+  <si>
+    <t>TH76_81</t>
+  </si>
+  <si>
     <t>-1,1,-11,11</t>
   </si>
   <si>
@@ -930,9 +936,15 @@
     <t>駅扱切換表示灯</t>
   </si>
   <si>
+    <t>TH76_81L</t>
+  </si>
+  <si>
     <t>駅扱切換_PG</t>
   </si>
   <si>
+    <t>TH76_81R</t>
+  </si>
+  <si>
     <t>TH76_5LAT_1</t>
   </si>
   <si>
@@ -1389,13 +1401,13 @@
     <t>鎖錠60秒_R</t>
   </si>
   <si>
-    <t>TH76_鎖錠60秒</t>
+    <t>TH76_60TEK</t>
   </si>
   <si>
     <t>鎖錠30秒_R</t>
   </si>
   <si>
-    <t>TH76_鎖錠30秒</t>
+    <t>TH76_30TEK</t>
   </si>
   <si>
     <t>Retsuban</t>
@@ -1782,7 +1794,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5210,10 +5222,10 @@
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -5238,19 +5250,19 @@
         <v>152</v>
       </c>
       <c r="V60" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="W60" s="5">
         <v>1</v>
       </c>
       <c r="X60" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y60" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Z60" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA60" s="4"/>
       <c r="AB60" s="4"/>
@@ -5266,14 +5278,14 @@
         <v>29</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -5320,14 +5332,14 @@
         <v>29</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -5374,14 +5386,14 @@
         <v>29</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
@@ -5404,17 +5416,17 @@
       <c r="T63" s="5"/>
       <c r="U63" s="5"/>
       <c r="V63" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W63" s="5">
         <v>0</v>
       </c>
       <c r="X63" s="6"/>
       <c r="Y63" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z63" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AA63" s="4"/>
       <c r="AB63" s="4"/>
@@ -5430,14 +5442,14 @@
         <v>29</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -5460,14 +5472,14 @@
       <c r="T64" s="5"/>
       <c r="U64" s="5"/>
       <c r="V64" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W64" s="5">
         <v>0</v>
       </c>
       <c r="X64" s="6"/>
       <c r="Y64" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z64" s="4"/>
       <c r="AA64" s="4"/>
@@ -5484,14 +5496,14 @@
         <v>29</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
@@ -5514,14 +5526,14 @@
       <c r="T65" s="5"/>
       <c r="U65" s="5"/>
       <c r="V65" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W65" s="5">
         <v>0</v>
       </c>
       <c r="X65" s="6"/>
       <c r="Y65" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z65" s="4"/>
       <c r="AA65" s="4"/>
@@ -5538,14 +5550,14 @@
         <v>29</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
@@ -5568,14 +5580,14 @@
       <c r="T66" s="5"/>
       <c r="U66" s="5"/>
       <c r="V66" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W66" s="5">
         <v>0</v>
       </c>
       <c r="X66" s="6"/>
       <c r="Y66" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z66" s="4"/>
       <c r="AA66" s="4"/>
@@ -5592,14 +5604,14 @@
         <v>29</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
@@ -5622,14 +5634,14 @@
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
       <c r="V67" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W67" s="5">
         <v>0</v>
       </c>
       <c r="X67" s="6"/>
       <c r="Y67" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z67" s="4"/>
       <c r="AA67" s="4"/>
@@ -5646,14 +5658,14 @@
         <v>29</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
@@ -5676,14 +5688,14 @@
       <c r="T68" s="5"/>
       <c r="U68" s="5"/>
       <c r="V68" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W68" s="5">
         <v>0</v>
       </c>
       <c r="X68" s="6"/>
       <c r="Y68" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z68" s="4"/>
       <c r="AA68" s="4"/>
@@ -5700,14 +5712,14 @@
         <v>29</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
@@ -5730,14 +5742,14 @@
       <c r="T69" s="5"/>
       <c r="U69" s="5"/>
       <c r="V69" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W69" s="5">
         <v>0</v>
       </c>
       <c r="X69" s="6"/>
       <c r="Y69" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z69" s="4"/>
       <c r="AA69" s="4"/>
@@ -5754,14 +5766,14 @@
         <v>29</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -5784,14 +5796,14 @@
       <c r="T70" s="5"/>
       <c r="U70" s="5"/>
       <c r="V70" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W70" s="5">
         <v>0</v>
       </c>
       <c r="X70" s="6"/>
       <c r="Y70" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z70" s="4"/>
       <c r="AA70" s="4"/>
@@ -5808,14 +5820,14 @@
         <v>29</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>108</v>
@@ -5842,14 +5854,14 @@
       <c r="T71" s="5"/>
       <c r="U71" s="5"/>
       <c r="V71" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W71" s="5">
         <v>0</v>
       </c>
       <c r="X71" s="6"/>
       <c r="Y71" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z71" s="4"/>
       <c r="AA71" s="4"/>
@@ -5866,14 +5878,14 @@
         <v>29</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>108</v>
@@ -5900,17 +5912,17 @@
       <c r="T72" s="5"/>
       <c r="U72" s="5"/>
       <c r="V72" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W72" s="5">
         <v>0</v>
       </c>
       <c r="X72" s="6"/>
       <c r="Y72" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Z72" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AA72" s="4"/>
       <c r="AB72" s="4"/>
@@ -5926,14 +5938,14 @@
         <v>29</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>108</v>
@@ -5960,14 +5972,14 @@
       <c r="T73" s="5"/>
       <c r="U73" s="5"/>
       <c r="V73" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W73" s="5">
         <v>0</v>
       </c>
       <c r="X73" s="6"/>
       <c r="Y73" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z73" s="4"/>
       <c r="AA73" s="4"/>
@@ -5984,14 +5996,14 @@
         <v>29</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>108</v>
@@ -6018,17 +6030,17 @@
       <c r="T74" s="5"/>
       <c r="U74" s="5"/>
       <c r="V74" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W74" s="5">
         <v>0</v>
       </c>
       <c r="X74" s="6"/>
       <c r="Y74" s="4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Z74" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AA74" s="4"/>
       <c r="AB74" s="4"/>
@@ -6044,14 +6056,14 @@
         <v>29</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>108</v>
@@ -6078,14 +6090,14 @@
       <c r="T75" s="5"/>
       <c r="U75" s="5"/>
       <c r="V75" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W75" s="5">
         <v>0</v>
       </c>
       <c r="X75" s="6"/>
       <c r="Y75" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z75" s="4"/>
       <c r="AA75" s="4"/>
@@ -6102,14 +6114,14 @@
         <v>29</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>108</v>
@@ -6136,14 +6148,14 @@
       <c r="T76" s="5"/>
       <c r="U76" s="5"/>
       <c r="V76" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W76" s="5">
         <v>0</v>
       </c>
       <c r="X76" s="6"/>
       <c r="Y76" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z76" s="4"/>
       <c r="AA76" s="4"/>
@@ -6160,14 +6172,14 @@
         <v>29</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>108</v>
@@ -6194,17 +6206,17 @@
       <c r="T77" s="5"/>
       <c r="U77" s="5"/>
       <c r="V77" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W77" s="5">
         <v>0</v>
       </c>
       <c r="X77" s="6"/>
       <c r="Y77" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Z77" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AA77" s="4"/>
       <c r="AB77" s="4"/>
@@ -6220,14 +6232,14 @@
         <v>29</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>108</v>
@@ -6254,17 +6266,17 @@
       <c r="T78" s="5"/>
       <c r="U78" s="5"/>
       <c r="V78" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W78" s="5">
         <v>0</v>
       </c>
       <c r="X78" s="6"/>
       <c r="Y78" s="4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Z78" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AA78" s="4"/>
       <c r="AB78" s="4"/>
@@ -6280,14 +6292,14 @@
         <v>29</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>108</v>
@@ -6314,14 +6326,14 @@
       <c r="T79" s="5"/>
       <c r="U79" s="5"/>
       <c r="V79" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W79" s="5">
         <v>0</v>
       </c>
       <c r="X79" s="6"/>
       <c r="Y79" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z79" s="4"/>
       <c r="AA79" s="4"/>
@@ -6338,14 +6350,14 @@
         <v>29</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>108</v>
@@ -6372,17 +6384,17 @@
       <c r="T80" s="5"/>
       <c r="U80" s="5"/>
       <c r="V80" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W80" s="5">
         <v>0</v>
       </c>
       <c r="X80" s="6"/>
       <c r="Y80" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Z80" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AA80" s="4"/>
       <c r="AB80" s="4"/>
@@ -6398,14 +6410,14 @@
         <v>29</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>118</v>
@@ -6432,14 +6444,14 @@
       <c r="T81" s="5"/>
       <c r="U81" s="5"/>
       <c r="V81" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W81" s="5">
         <v>0</v>
       </c>
       <c r="X81" s="6"/>
       <c r="Y81" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z81" s="4"/>
       <c r="AA81" s="4"/>
@@ -6456,14 +6468,14 @@
         <v>29</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>118</v>
@@ -6490,17 +6502,17 @@
       <c r="T82" s="5"/>
       <c r="U82" s="5"/>
       <c r="V82" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W82" s="5">
         <v>0</v>
       </c>
       <c r="X82" s="6"/>
       <c r="Y82" s="4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Z82" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AA82" s="4"/>
       <c r="AB82" s="4"/>
@@ -6516,14 +6528,14 @@
         <v>29</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>118</v>
@@ -6550,14 +6562,14 @@
       <c r="T83" s="5"/>
       <c r="U83" s="5"/>
       <c r="V83" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W83" s="5">
         <v>0</v>
       </c>
       <c r="X83" s="6"/>
       <c r="Y83" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z83" s="4"/>
       <c r="AA83" s="4"/>
@@ -6574,14 +6586,14 @@
         <v>29</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>118</v>
@@ -6608,14 +6620,14 @@
       <c r="T84" s="5"/>
       <c r="U84" s="5"/>
       <c r="V84" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W84" s="5">
         <v>0</v>
       </c>
       <c r="X84" s="6"/>
       <c r="Y84" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z84" s="4"/>
       <c r="AA84" s="4"/>
@@ -6632,14 +6644,14 @@
         <v>29</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>118</v>
@@ -6666,14 +6678,14 @@
       <c r="T85" s="5"/>
       <c r="U85" s="5"/>
       <c r="V85" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W85" s="5">
         <v>0</v>
       </c>
       <c r="X85" s="6"/>
       <c r="Y85" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z85" s="4"/>
       <c r="AA85" s="4"/>
@@ -6690,14 +6702,14 @@
         <v>29</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>124</v>
@@ -6728,17 +6740,17 @@
       <c r="T86" s="5"/>
       <c r="U86" s="5"/>
       <c r="V86" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W86" s="5">
         <v>0</v>
       </c>
       <c r="X86" s="6"/>
       <c r="Y86" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Z86" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AA86" s="4"/>
       <c r="AB86" s="4"/>
@@ -6754,14 +6766,14 @@
         <v>29</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>124</v>
@@ -6792,17 +6804,17 @@
       <c r="T87" s="5"/>
       <c r="U87" s="5"/>
       <c r="V87" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W87" s="5">
         <v>0</v>
       </c>
       <c r="X87" s="6"/>
       <c r="Y87" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Z87" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AA87" s="4"/>
       <c r="AB87" s="4"/>
@@ -6818,14 +6830,14 @@
         <v>29</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>124</v>
@@ -6856,14 +6868,14 @@
       <c r="T88" s="5"/>
       <c r="U88" s="5"/>
       <c r="V88" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W88" s="5">
         <v>0</v>
       </c>
       <c r="X88" s="6"/>
       <c r="Y88" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z88" s="4"/>
       <c r="AA88" s="4"/>
@@ -6880,14 +6892,14 @@
         <v>29</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>124</v>
@@ -6918,14 +6930,14 @@
       <c r="T89" s="5"/>
       <c r="U89" s="5"/>
       <c r="V89" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W89" s="5">
         <v>0</v>
       </c>
       <c r="X89" s="6"/>
       <c r="Y89" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z89" s="4"/>
       <c r="AA89" s="4"/>
@@ -6942,14 +6954,14 @@
         <v>29</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>124</v>
@@ -6980,17 +6992,17 @@
       <c r="T90" s="5"/>
       <c r="U90" s="5"/>
       <c r="V90" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W90" s="5">
         <v>0</v>
       </c>
       <c r="X90" s="6"/>
       <c r="Y90" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Z90" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AA90" s="4"/>
       <c r="AB90" s="4"/>
@@ -7006,14 +7018,14 @@
         <v>29</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>130</v>
@@ -7040,17 +7052,17 @@
       <c r="T91" s="5"/>
       <c r="U91" s="5"/>
       <c r="V91" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W91" s="5">
         <v>0</v>
       </c>
       <c r="X91" s="6"/>
       <c r="Y91" s="4" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Z91" s="4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AA91" s="4"/>
       <c r="AB91" s="4"/>
@@ -7066,14 +7078,14 @@
         <v>29</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>130</v>
@@ -7100,17 +7112,17 @@
       <c r="T92" s="5"/>
       <c r="U92" s="5"/>
       <c r="V92" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W92" s="5">
         <v>0</v>
       </c>
       <c r="X92" s="6"/>
       <c r="Y92" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Z92" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AA92" s="4"/>
       <c r="AB92" s="4"/>
@@ -7126,14 +7138,14 @@
         <v>29</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>130</v>
@@ -7160,17 +7172,17 @@
       <c r="T93" s="5"/>
       <c r="U93" s="5"/>
       <c r="V93" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W93" s="5">
         <v>0</v>
       </c>
       <c r="X93" s="6"/>
       <c r="Y93" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Z93" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AA93" s="4"/>
       <c r="AB93" s="4"/>
@@ -7186,14 +7198,14 @@
         <v>29</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>130</v>
@@ -7220,17 +7232,17 @@
       <c r="T94" s="5"/>
       <c r="U94" s="5"/>
       <c r="V94" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W94" s="5">
         <v>0</v>
       </c>
       <c r="X94" s="6"/>
       <c r="Y94" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Z94" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AA94" s="4"/>
       <c r="AB94" s="4"/>
@@ -7246,14 +7258,14 @@
         <v>29</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>130</v>
@@ -7280,17 +7292,17 @@
       <c r="T95" s="5"/>
       <c r="U95" s="5"/>
       <c r="V95" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W95" s="5">
         <v>0</v>
       </c>
       <c r="X95" s="6"/>
       <c r="Y95" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Z95" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AA95" s="4"/>
       <c r="AB95" s="4"/>
@@ -7306,14 +7318,14 @@
         <v>29</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>130</v>
@@ -7340,17 +7352,17 @@
       <c r="T96" s="5"/>
       <c r="U96" s="5"/>
       <c r="V96" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W96" s="5">
         <v>0</v>
       </c>
       <c r="X96" s="6"/>
       <c r="Y96" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Z96" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AA96" s="4"/>
       <c r="AB96" s="4"/>
@@ -7366,14 +7378,14 @@
         <v>29</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>130</v>
@@ -7400,17 +7412,17 @@
       <c r="T97" s="5"/>
       <c r="U97" s="5"/>
       <c r="V97" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W97" s="5">
         <v>0</v>
       </c>
       <c r="X97" s="6"/>
       <c r="Y97" s="4" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Z97" s="4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AA97" s="4"/>
       <c r="AB97" s="4"/>
@@ -7426,14 +7438,14 @@
         <v>29</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>136</v>
@@ -7460,17 +7472,17 @@
       <c r="T98" s="5"/>
       <c r="U98" s="5"/>
       <c r="V98" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W98" s="5">
         <v>0</v>
       </c>
       <c r="X98" s="6"/>
       <c r="Y98" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Z98" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AA98" s="4"/>
       <c r="AB98" s="4"/>
@@ -7486,14 +7498,14 @@
         <v>29</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>136</v>
@@ -7520,14 +7532,14 @@
       <c r="T99" s="5"/>
       <c r="U99" s="5"/>
       <c r="V99" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W99" s="5">
         <v>0</v>
       </c>
       <c r="X99" s="6"/>
       <c r="Y99" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z99" s="4"/>
       <c r="AA99" s="4"/>
@@ -7544,14 +7556,14 @@
         <v>29</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>136</v>
@@ -7578,14 +7590,14 @@
       <c r="T100" s="5"/>
       <c r="U100" s="5"/>
       <c r="V100" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W100" s="5">
         <v>0</v>
       </c>
       <c r="X100" s="6"/>
       <c r="Y100" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z100" s="4"/>
       <c r="AA100" s="4"/>
@@ -7602,14 +7614,14 @@
         <v>29</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>136</v>
@@ -7636,14 +7648,14 @@
       <c r="T101" s="5"/>
       <c r="U101" s="5"/>
       <c r="V101" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W101" s="5">
         <v>0</v>
       </c>
       <c r="X101" s="6"/>
       <c r="Y101" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z101" s="4"/>
       <c r="AA101" s="4"/>
@@ -7660,14 +7672,14 @@
         <v>29</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>142</v>
@@ -7694,14 +7706,14 @@
       <c r="T102" s="5"/>
       <c r="U102" s="5"/>
       <c r="V102" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W102" s="5">
         <v>0</v>
       </c>
       <c r="X102" s="6"/>
       <c r="Y102" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z102" s="4"/>
       <c r="AA102" s="4"/>
@@ -7718,14 +7730,14 @@
         <v>29</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>142</v>
@@ -7752,14 +7764,14 @@
       <c r="T103" s="5"/>
       <c r="U103" s="5"/>
       <c r="V103" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W103" s="5">
         <v>0</v>
       </c>
       <c r="X103" s="6"/>
       <c r="Y103" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z103" s="4"/>
       <c r="AA103" s="4"/>
@@ -7776,14 +7788,14 @@
         <v>29</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>142</v>
@@ -7810,14 +7822,14 @@
       <c r="T104" s="5"/>
       <c r="U104" s="5"/>
       <c r="V104" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W104" s="5">
         <v>0</v>
       </c>
       <c r="X104" s="6"/>
       <c r="Y104" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z104" s="4"/>
       <c r="AA104" s="4"/>
@@ -7834,14 +7846,14 @@
         <v>29</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>142</v>
@@ -7868,17 +7880,17 @@
       <c r="T105" s="5"/>
       <c r="U105" s="5"/>
       <c r="V105" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W105" s="5">
         <v>0</v>
       </c>
       <c r="X105" s="6"/>
       <c r="Y105" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Z105" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AA105" s="4"/>
       <c r="AB105" s="4"/>
@@ -7894,14 +7906,14 @@
         <v>29</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>142</v>
@@ -7928,14 +7940,14 @@
       <c r="T106" s="5"/>
       <c r="U106" s="5"/>
       <c r="V106" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W106" s="5">
         <v>0</v>
       </c>
       <c r="X106" s="6"/>
       <c r="Y106" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z106" s="4"/>
       <c r="AA106" s="4"/>
@@ -7952,14 +7964,14 @@
         <v>29</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>142</v>
@@ -7986,14 +7998,14 @@
       <c r="T107" s="5"/>
       <c r="U107" s="5"/>
       <c r="V107" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W107" s="5">
         <v>0</v>
       </c>
       <c r="X107" s="6"/>
       <c r="Y107" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z107" s="4"/>
       <c r="AA107" s="4"/>
@@ -8010,14 +8022,14 @@
         <v>29</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>142</v>
@@ -8044,17 +8056,17 @@
       <c r="T108" s="5"/>
       <c r="U108" s="5"/>
       <c r="V108" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W108" s="5">
         <v>0</v>
       </c>
       <c r="X108" s="6"/>
       <c r="Y108" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Z108" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AA108" s="4"/>
       <c r="AB108" s="4"/>
@@ -8070,14 +8082,14 @@
         <v>29</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>142</v>
@@ -8104,14 +8116,14 @@
       <c r="T109" s="5"/>
       <c r="U109" s="5"/>
       <c r="V109" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W109" s="5">
         <v>0</v>
       </c>
       <c r="X109" s="6"/>
       <c r="Y109" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z109" s="4"/>
       <c r="AA109" s="4"/>
@@ -8128,14 +8140,14 @@
         <v>29</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>148</v>
@@ -8162,17 +8174,17 @@
       <c r="T110" s="5"/>
       <c r="U110" s="5"/>
       <c r="V110" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W110" s="5">
         <v>0</v>
       </c>
       <c r="X110" s="6"/>
       <c r="Y110" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Z110" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AA110" s="4"/>
       <c r="AB110" s="4"/>
@@ -8188,14 +8200,14 @@
         <v>29</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>148</v>
@@ -8222,14 +8234,14 @@
       <c r="T111" s="5"/>
       <c r="U111" s="5"/>
       <c r="V111" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W111" s="5">
         <v>0</v>
       </c>
       <c r="X111" s="6"/>
       <c r="Y111" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z111" s="4"/>
       <c r="AA111" s="4"/>
@@ -8246,14 +8258,14 @@
         <v>29</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>148</v>
@@ -8280,14 +8292,14 @@
       <c r="T112" s="5"/>
       <c r="U112" s="5"/>
       <c r="V112" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W112" s="5">
         <v>0</v>
       </c>
       <c r="X112" s="6"/>
       <c r="Y112" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z112" s="4"/>
       <c r="AA112" s="4"/>
@@ -8304,14 +8316,14 @@
         <v>29</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>148</v>
@@ -8338,14 +8350,14 @@
       <c r="T113" s="5"/>
       <c r="U113" s="5"/>
       <c r="V113" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W113" s="5">
         <v>0</v>
       </c>
       <c r="X113" s="6"/>
       <c r="Y113" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z113" s="4"/>
       <c r="AA113" s="4"/>
@@ -8362,14 +8374,14 @@
         <v>29</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
@@ -8392,14 +8404,14 @@
       <c r="T114" s="5"/>
       <c r="U114" s="5"/>
       <c r="V114" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W114" s="5">
         <v>0</v>
       </c>
       <c r="X114" s="6"/>
       <c r="Y114" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z114" s="4"/>
       <c r="AA114" s="4"/>
@@ -8416,14 +8428,14 @@
         <v>29</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
@@ -8446,14 +8458,14 @@
       <c r="T115" s="5"/>
       <c r="U115" s="5"/>
       <c r="V115" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W115" s="5">
         <v>0</v>
       </c>
       <c r="X115" s="6"/>
       <c r="Y115" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z115" s="4"/>
       <c r="AA115" s="4"/>
@@ -8470,14 +8482,14 @@
         <v>29</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
@@ -8500,14 +8512,14 @@
       <c r="T116" s="5"/>
       <c r="U116" s="5"/>
       <c r="V116" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W116" s="5">
         <v>0</v>
       </c>
       <c r="X116" s="6"/>
       <c r="Y116" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z116" s="4"/>
       <c r="AA116" s="4"/>
@@ -8524,17 +8536,17 @@
         <v>29</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>109</v>
@@ -8558,14 +8570,14 @@
       <c r="T117" s="5"/>
       <c r="U117" s="5"/>
       <c r="V117" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W117" s="5">
         <v>0</v>
       </c>
       <c r="X117" s="6"/>
       <c r="Y117" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z117" s="4"/>
       <c r="AA117" s="4"/>
@@ -8582,17 +8594,17 @@
         <v>29</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G118" s="5" t="s">
         <v>109</v>
@@ -8616,14 +8628,14 @@
       <c r="T118" s="5"/>
       <c r="U118" s="5"/>
       <c r="V118" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W118" s="5">
         <v>0</v>
       </c>
       <c r="X118" s="6"/>
       <c r="Y118" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z118" s="4"/>
       <c r="AA118" s="4"/>
@@ -8640,17 +8652,17 @@
         <v>29</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G119" s="5" t="s">
         <v>112</v>
@@ -8674,14 +8686,14 @@
       <c r="T119" s="5"/>
       <c r="U119" s="5"/>
       <c r="V119" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W119" s="5">
         <v>0</v>
       </c>
       <c r="X119" s="6"/>
       <c r="Y119" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z119" s="4"/>
       <c r="AA119" s="4"/>
@@ -8698,17 +8710,17 @@
         <v>29</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G120" s="5" t="s">
         <v>112</v>
@@ -8732,17 +8744,17 @@
       <c r="T120" s="5"/>
       <c r="U120" s="5"/>
       <c r="V120" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W120" s="5">
         <v>0</v>
       </c>
       <c r="X120" s="6"/>
       <c r="Y120" s="4" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Z120" s="4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AA120" s="4"/>
       <c r="AB120" s="4"/>
@@ -8758,17 +8770,17 @@
         <v>29</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G121" s="5" t="s">
         <v>109</v>
@@ -8792,14 +8804,14 @@
       <c r="T121" s="5"/>
       <c r="U121" s="5"/>
       <c r="V121" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W121" s="5">
         <v>0</v>
       </c>
       <c r="X121" s="6"/>
       <c r="Y121" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z121" s="4"/>
       <c r="AA121" s="4"/>
@@ -8816,17 +8828,17 @@
         <v>29</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G122" s="5" t="s">
         <v>109</v>
@@ -8850,14 +8862,14 @@
       <c r="T122" s="5"/>
       <c r="U122" s="5"/>
       <c r="V122" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W122" s="5">
         <v>0</v>
       </c>
       <c r="X122" s="6"/>
       <c r="Y122" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z122" s="4"/>
       <c r="AA122" s="4"/>
@@ -8874,17 +8886,17 @@
         <v>29</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>112</v>
@@ -8908,17 +8920,17 @@
       <c r="T123" s="5"/>
       <c r="U123" s="5"/>
       <c r="V123" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W123" s="5">
         <v>0</v>
       </c>
       <c r="X123" s="6"/>
       <c r="Y123" s="4" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Z123" s="4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AA123" s="4"/>
       <c r="AB123" s="4"/>
@@ -8934,17 +8946,17 @@
         <v>29</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G124" s="5" t="s">
         <v>112</v>
@@ -8968,14 +8980,14 @@
       <c r="T124" s="5"/>
       <c r="U124" s="5"/>
       <c r="V124" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W124" s="5">
         <v>0</v>
       </c>
       <c r="X124" s="6"/>
       <c r="Y124" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z124" s="4"/>
       <c r="AA124" s="4"/>
@@ -8992,17 +9004,17 @@
         <v>29</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G125" s="5" t="s">
         <v>109</v>
@@ -9026,14 +9038,14 @@
       <c r="T125" s="5"/>
       <c r="U125" s="5"/>
       <c r="V125" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W125" s="5">
         <v>0</v>
       </c>
       <c r="X125" s="6"/>
       <c r="Y125" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z125" s="4"/>
       <c r="AA125" s="4"/>
@@ -9050,17 +9062,17 @@
         <v>29</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G126" s="5" t="s">
         <v>109</v>
@@ -9084,14 +9096,14 @@
       <c r="T126" s="5"/>
       <c r="U126" s="5"/>
       <c r="V126" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W126" s="5">
         <v>0</v>
       </c>
       <c r="X126" s="6"/>
       <c r="Y126" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z126" s="4"/>
       <c r="AA126" s="4"/>
@@ -9108,17 +9120,17 @@
         <v>29</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G127" s="5" t="s">
         <v>112</v>
@@ -9142,14 +9154,14 @@
       <c r="T127" s="5"/>
       <c r="U127" s="5"/>
       <c r="V127" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W127" s="5">
         <v>0</v>
       </c>
       <c r="X127" s="6"/>
       <c r="Y127" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z127" s="4"/>
       <c r="AA127" s="4"/>
@@ -9166,17 +9178,17 @@
         <v>29</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>112</v>
@@ -9200,17 +9212,17 @@
       <c r="T128" s="5"/>
       <c r="U128" s="5"/>
       <c r="V128" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W128" s="5">
         <v>0</v>
       </c>
       <c r="X128" s="6"/>
       <c r="Y128" s="4" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Z128" s="4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AA128" s="4"/>
       <c r="AB128" s="4"/>
@@ -9226,17 +9238,17 @@
         <v>29</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G129" s="5" t="s">
         <v>109</v>
@@ -9260,14 +9272,14 @@
       <c r="T129" s="5"/>
       <c r="U129" s="5"/>
       <c r="V129" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W129" s="5">
         <v>0</v>
       </c>
       <c r="X129" s="6"/>
       <c r="Y129" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z129" s="4"/>
       <c r="AA129" s="4"/>
@@ -9284,17 +9296,17 @@
         <v>29</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G130" s="5" t="s">
         <v>109</v>
@@ -9318,14 +9330,14 @@
       <c r="T130" s="5"/>
       <c r="U130" s="5"/>
       <c r="V130" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W130" s="5">
         <v>0</v>
       </c>
       <c r="X130" s="6"/>
       <c r="Y130" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z130" s="4"/>
       <c r="AA130" s="4"/>
@@ -9342,17 +9354,17 @@
         <v>29</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>112</v>
@@ -9376,17 +9388,17 @@
       <c r="T131" s="5"/>
       <c r="U131" s="5"/>
       <c r="V131" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W131" s="5">
         <v>0</v>
       </c>
       <c r="X131" s="6"/>
       <c r="Y131" s="4" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Z131" s="4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AA131" s="4"/>
       <c r="AB131" s="4"/>
@@ -9402,17 +9414,17 @@
         <v>29</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>112</v>
@@ -9436,14 +9448,14 @@
       <c r="T132" s="5"/>
       <c r="U132" s="5"/>
       <c r="V132" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W132" s="5">
         <v>0</v>
       </c>
       <c r="X132" s="6"/>
       <c r="Y132" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z132" s="4"/>
       <c r="AA132" s="4"/>
@@ -9460,23 +9472,23 @@
         <v>29</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>109</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="I133" s="5" t="s">
         <v>109</v>
@@ -9498,14 +9510,14 @@
       <c r="T133" s="5"/>
       <c r="U133" s="5"/>
       <c r="V133" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W133" s="5">
         <v>0</v>
       </c>
       <c r="X133" s="6"/>
       <c r="Y133" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z133" s="4"/>
       <c r="AA133" s="4"/>
@@ -9522,23 +9534,23 @@
         <v>29</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G134" s="5" t="s">
         <v>109</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="I134" s="5" t="s">
         <v>109</v>
@@ -9560,14 +9572,14 @@
       <c r="T134" s="5"/>
       <c r="U134" s="5"/>
       <c r="V134" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W134" s="5">
         <v>0</v>
       </c>
       <c r="X134" s="6"/>
       <c r="Y134" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z134" s="4"/>
       <c r="AA134" s="4"/>
@@ -9584,23 +9596,23 @@
         <v>29</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G135" s="5" t="s">
         <v>109</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="I135" s="5" t="s">
         <v>109</v>
@@ -9622,14 +9634,14 @@
       <c r="T135" s="5"/>
       <c r="U135" s="5"/>
       <c r="V135" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W135" s="5">
         <v>0</v>
       </c>
       <c r="X135" s="6"/>
       <c r="Y135" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z135" s="4"/>
       <c r="AA135" s="4"/>
@@ -9646,23 +9658,23 @@
         <v>29</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>112</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="I136" s="5" t="s">
         <v>112</v>
@@ -9684,17 +9696,17 @@
       <c r="T136" s="5"/>
       <c r="U136" s="5"/>
       <c r="V136" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W136" s="5">
         <v>0</v>
       </c>
       <c r="X136" s="6"/>
       <c r="Y136" s="4" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Z136" s="4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AA136" s="4"/>
       <c r="AB136" s="4"/>
@@ -9710,23 +9722,23 @@
         <v>29</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G137" s="5" t="s">
         <v>112</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="I137" s="5" t="s">
         <v>112</v>
@@ -9748,14 +9760,14 @@
       <c r="T137" s="5"/>
       <c r="U137" s="5"/>
       <c r="V137" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W137" s="5">
         <v>0</v>
       </c>
       <c r="X137" s="6"/>
       <c r="Y137" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z137" s="4"/>
       <c r="AA137" s="4"/>
@@ -9772,23 +9784,23 @@
         <v>29</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G138" s="5" t="s">
         <v>112</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="I138" s="5" t="s">
         <v>112</v>
@@ -9810,14 +9822,14 @@
       <c r="T138" s="5"/>
       <c r="U138" s="5"/>
       <c r="V138" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W138" s="5">
         <v>0</v>
       </c>
       <c r="X138" s="6"/>
       <c r="Y138" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z138" s="4"/>
       <c r="AA138" s="4"/>
@@ -9834,23 +9846,23 @@
         <v>29</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G139" s="5" t="s">
         <v>109</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="I139" s="5" t="s">
         <v>109</v>
@@ -9872,14 +9884,14 @@
       <c r="T139" s="5"/>
       <c r="U139" s="5"/>
       <c r="V139" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W139" s="5">
         <v>0</v>
       </c>
       <c r="X139" s="6"/>
       <c r="Y139" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z139" s="4"/>
       <c r="AA139" s="4"/>
@@ -9896,23 +9908,23 @@
         <v>29</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>109</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="I140" s="5" t="s">
         <v>109</v>
@@ -9934,17 +9946,17 @@
       <c r="T140" s="5"/>
       <c r="U140" s="5"/>
       <c r="V140" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W140" s="5">
         <v>0</v>
       </c>
       <c r="X140" s="6"/>
       <c r="Y140" s="4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Z140" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AA140" s="4"/>
       <c r="AB140" s="4"/>
@@ -9960,23 +9972,23 @@
         <v>29</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G141" s="5" t="s">
         <v>109</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="I141" s="5" t="s">
         <v>109</v>
@@ -9998,14 +10010,14 @@
       <c r="T141" s="5"/>
       <c r="U141" s="5"/>
       <c r="V141" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W141" s="5">
         <v>0</v>
       </c>
       <c r="X141" s="6"/>
       <c r="Y141" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z141" s="4"/>
       <c r="AA141" s="4"/>
@@ -10022,23 +10034,23 @@
         <v>29</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G142" s="5" t="s">
         <v>109</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="I142" s="5" t="s">
         <v>109</v>
@@ -10060,14 +10072,14 @@
       <c r="T142" s="5"/>
       <c r="U142" s="5"/>
       <c r="V142" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W142" s="5">
         <v>0</v>
       </c>
       <c r="X142" s="6"/>
       <c r="Y142" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z142" s="4"/>
       <c r="AA142" s="4"/>
@@ -10084,23 +10096,23 @@
         <v>29</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G143" s="5" t="s">
         <v>109</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="I143" s="5" t="s">
         <v>109</v>
@@ -10122,14 +10134,14 @@
       <c r="T143" s="5"/>
       <c r="U143" s="5"/>
       <c r="V143" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W143" s="5">
         <v>0</v>
       </c>
       <c r="X143" s="6"/>
       <c r="Y143" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z143" s="4"/>
       <c r="AA143" s="4"/>
@@ -10146,23 +10158,23 @@
         <v>29</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G144" s="5" t="s">
         <v>112</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="I144" s="5" t="s">
         <v>112</v>
@@ -10184,17 +10196,17 @@
       <c r="T144" s="5"/>
       <c r="U144" s="5"/>
       <c r="V144" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W144" s="5">
         <v>0</v>
       </c>
       <c r="X144" s="6"/>
       <c r="Y144" s="4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Z144" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AA144" s="4"/>
       <c r="AB144" s="4"/>
@@ -10210,23 +10222,23 @@
         <v>29</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G145" s="5" t="s">
         <v>112</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="I145" s="5" t="s">
         <v>112</v>
@@ -10248,14 +10260,14 @@
       <c r="T145" s="5"/>
       <c r="U145" s="5"/>
       <c r="V145" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W145" s="5">
         <v>0</v>
       </c>
       <c r="X145" s="6"/>
       <c r="Y145" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z145" s="4"/>
       <c r="AA145" s="4"/>
@@ -10272,23 +10284,23 @@
         <v>29</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G146" s="5" t="s">
         <v>112</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="I146" s="5" t="s">
         <v>112</v>
@@ -10310,14 +10322,14 @@
       <c r="T146" s="5"/>
       <c r="U146" s="5"/>
       <c r="V146" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W146" s="5">
         <v>0</v>
       </c>
       <c r="X146" s="6"/>
       <c r="Y146" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z146" s="4"/>
       <c r="AA146" s="4"/>
@@ -10334,23 +10346,23 @@
         <v>29</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G147" s="5" t="s">
         <v>109</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="I147" s="5" t="s">
         <v>109</v>
@@ -10372,14 +10384,14 @@
       <c r="T147" s="5"/>
       <c r="U147" s="5"/>
       <c r="V147" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W147" s="5">
         <v>0</v>
       </c>
       <c r="X147" s="6"/>
       <c r="Y147" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z147" s="4"/>
       <c r="AA147" s="4"/>
@@ -10396,23 +10408,23 @@
         <v>29</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G148" s="5" t="s">
         <v>109</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="I148" s="5" t="s">
         <v>109</v>
@@ -10434,17 +10446,17 @@
       <c r="T148" s="5"/>
       <c r="U148" s="5"/>
       <c r="V148" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W148" s="5">
         <v>0</v>
       </c>
       <c r="X148" s="6"/>
       <c r="Y148" s="4" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Z148" s="4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AA148" s="4"/>
       <c r="AB148" s="4"/>
@@ -10460,14 +10472,14 @@
         <v>29</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
@@ -10490,14 +10502,14 @@
       <c r="T149" s="5"/>
       <c r="U149" s="5"/>
       <c r="V149" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W149" s="5">
         <v>0</v>
       </c>
       <c r="X149" s="6"/>
       <c r="Y149" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z149" s="4"/>
       <c r="AA149" s="4"/>
@@ -10514,14 +10526,14 @@
         <v>29</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
@@ -10544,14 +10556,14 @@
       <c r="T150" s="5"/>
       <c r="U150" s="5"/>
       <c r="V150" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W150" s="5">
         <v>0</v>
       </c>
       <c r="X150" s="6"/>
       <c r="Y150" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z150" s="4"/>
       <c r="AA150" s="4"/>
@@ -10568,14 +10580,14 @@
         <v>29</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
@@ -10598,14 +10610,14 @@
       <c r="T151" s="5"/>
       <c r="U151" s="5"/>
       <c r="V151" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W151" s="5">
         <v>0</v>
       </c>
       <c r="X151" s="6"/>
       <c r="Y151" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z151" s="4"/>
       <c r="AA151" s="4"/>
@@ -10622,14 +10634,14 @@
         <v>29</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
@@ -10652,14 +10664,14 @@
       <c r="T152" s="5"/>
       <c r="U152" s="5"/>
       <c r="V152" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W152" s="5">
         <v>0</v>
       </c>
       <c r="X152" s="6"/>
       <c r="Y152" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z152" s="4"/>
       <c r="AA152" s="4"/>
@@ -10676,14 +10688,14 @@
         <v>29</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
@@ -10706,14 +10718,14 @@
       <c r="T153" s="5"/>
       <c r="U153" s="5"/>
       <c r="V153" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W153" s="5">
         <v>0</v>
       </c>
       <c r="X153" s="6"/>
       <c r="Y153" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z153" s="4"/>
       <c r="AA153" s="4"/>
@@ -10730,14 +10742,14 @@
         <v>29</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
@@ -10760,14 +10772,14 @@
       <c r="T154" s="5"/>
       <c r="U154" s="5"/>
       <c r="V154" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W154" s="5">
         <v>0</v>
       </c>
       <c r="X154" s="6"/>
       <c r="Y154" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z154" s="4"/>
       <c r="AA154" s="4"/>
@@ -10784,14 +10796,14 @@
         <v>29</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
@@ -10814,14 +10826,14 @@
       <c r="T155" s="5"/>
       <c r="U155" s="5"/>
       <c r="V155" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W155" s="5">
         <v>0</v>
       </c>
       <c r="X155" s="6"/>
       <c r="Y155" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z155" s="4"/>
       <c r="AA155" s="4"/>
@@ -10838,14 +10850,14 @@
         <v>29</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
@@ -10868,14 +10880,14 @@
       <c r="T156" s="5"/>
       <c r="U156" s="5"/>
       <c r="V156" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W156" s="5">
         <v>0</v>
       </c>
       <c r="X156" s="6"/>
       <c r="Y156" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z156" s="4"/>
       <c r="AA156" s="4"/>
@@ -10892,14 +10904,14 @@
         <v>29</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
@@ -10922,14 +10934,14 @@
       <c r="T157" s="5"/>
       <c r="U157" s="5"/>
       <c r="V157" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W157" s="5">
         <v>0</v>
       </c>
       <c r="X157" s="6"/>
       <c r="Y157" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z157" s="4"/>
       <c r="AA157" s="4"/>
@@ -10946,14 +10958,14 @@
         <v>29</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
@@ -10976,14 +10988,14 @@
       <c r="T158" s="5"/>
       <c r="U158" s="5"/>
       <c r="V158" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W158" s="5">
         <v>0</v>
       </c>
       <c r="X158" s="6"/>
       <c r="Y158" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z158" s="4"/>
       <c r="AA158" s="4"/>
@@ -11000,14 +11012,14 @@
         <v>29</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
@@ -11030,14 +11042,14 @@
       <c r="T159" s="5"/>
       <c r="U159" s="5"/>
       <c r="V159" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W159" s="5">
         <v>0</v>
       </c>
       <c r="X159" s="6"/>
       <c r="Y159" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z159" s="4"/>
       <c r="AA159" s="4"/>
@@ -11054,14 +11066,14 @@
         <v>29</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
@@ -11084,14 +11096,14 @@
       <c r="T160" s="5"/>
       <c r="U160" s="5"/>
       <c r="V160" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="W160" s="5">
         <v>0</v>
       </c>
       <c r="X160" s="6"/>
       <c r="Y160" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Z160" s="4"/>
       <c r="AA160" s="4"/>
@@ -11108,14 +11120,14 @@
         <v>29</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
@@ -11145,7 +11157,7 @@
       </c>
       <c r="X161" s="6"/>
       <c r="Y161" s="4" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Z161" s="4"/>
       <c r="AA161" s="4"/>
@@ -11162,14 +11174,14 @@
         <v>29</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
@@ -11199,7 +11211,7 @@
       </c>
       <c r="X162" s="6"/>
       <c r="Y162" s="4" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Z162" s="4"/>
       <c r="AA162" s="4"/>
@@ -11216,14 +11228,14 @@
         <v>29</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
@@ -11253,7 +11265,7 @@
       </c>
       <c r="X163" s="6"/>
       <c r="Y163" s="4" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Z163" s="4"/>
       <c r="AA163" s="4"/>
@@ -11270,14 +11282,14 @@
         <v>29</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
@@ -11307,7 +11319,7 @@
       </c>
       <c r="X164" s="6"/>
       <c r="Y164" s="4" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Z164" s="4"/>
       <c r="AA164" s="4"/>
@@ -11321,17 +11333,17 @@
     </row>
     <row r="165" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
@@ -11357,7 +11369,7 @@
       <c r="W165" s="5"/>
       <c r="X165" s="6"/>
       <c r="Y165" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Z165" s="4"/>
       <c r="AA165" s="4"/>
@@ -11371,17 +11383,17 @@
     </row>
     <row r="166" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
@@ -11407,7 +11419,7 @@
       <c r="W166" s="5"/>
       <c r="X166" s="6"/>
       <c r="Y166" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Z166" s="4"/>
       <c r="AA166" s="4"/>
@@ -11421,17 +11433,17 @@
     </row>
     <row r="167" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
@@ -11457,7 +11469,7 @@
       <c r="W167" s="5"/>
       <c r="X167" s="6"/>
       <c r="Y167" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Z167" s="4"/>
       <c r="AA167" s="4"/>
@@ -11471,17 +11483,17 @@
     </row>
     <row r="168" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="5" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
@@ -11507,7 +11519,7 @@
       <c r="W168" s="5"/>
       <c r="X168" s="6"/>
       <c r="Y168" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Z168" s="4"/>
       <c r="AA168" s="4"/>
@@ -11521,17 +11533,17 @@
     </row>
     <row r="169" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="5" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
@@ -11557,7 +11569,7 @@
       <c r="W169" s="5"/>
       <c r="X169" s="6"/>
       <c r="Y169" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Z169" s="4"/>
       <c r="AA169" s="4"/>
@@ -11571,17 +11583,17 @@
     </row>
     <row r="170" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
@@ -11607,7 +11619,7 @@
       <c r="W170" s="5"/>
       <c r="X170" s="6"/>
       <c r="Y170" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Z170" s="4"/>
       <c r="AA170" s="4"/>
@@ -11621,17 +11633,17 @@
     </row>
     <row r="171" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="5" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
@@ -11657,7 +11669,7 @@
       <c r="W171" s="5"/>
       <c r="X171" s="6"/>
       <c r="Y171" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Z171" s="4"/>
       <c r="AA171" s="4"/>
@@ -11671,17 +11683,17 @@
     </row>
     <row r="172" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="5" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
@@ -11707,7 +11719,7 @@
       <c r="W172" s="5"/>
       <c r="X172" s="6"/>
       <c r="Y172" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Z172" s="4"/>
       <c r="AA172" s="4"/>
@@ -11721,17 +11733,17 @@
     </row>
     <row r="173" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="5" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
@@ -11757,7 +11769,7 @@
       <c r="W173" s="5"/>
       <c r="X173" s="6"/>
       <c r="Y173" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Z173" s="4"/>
       <c r="AA173" s="4"/>
@@ -11771,17 +11783,17 @@
     </row>
     <row r="174" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="5" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
@@ -11807,7 +11819,7 @@
       <c r="W174" s="5"/>
       <c r="X174" s="6"/>
       <c r="Y174" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Z174" s="4"/>
       <c r="AA174" s="4"/>
@@ -11821,17 +11833,17 @@
     </row>
     <row r="175" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="5" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
@@ -11857,7 +11869,7 @@
       <c r="W175" s="5"/>
       <c r="X175" s="6"/>
       <c r="Y175" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Z175" s="4"/>
       <c r="AA175" s="4"/>
@@ -12087,7 +12099,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>109</v>
@@ -12095,7 +12107,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>112</v>
@@ -12145,7 +12157,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B10" s="15"/>
     </row>

--- a/exe/TSV/Excel/TH76_Tatehama_UIList.xlsx
+++ b/exe/TSV/Excel/TH76_Tatehama_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48E9480-13D1-4FB0-B365-B3EEB1D92243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C031A4DB-9BDC-4693-8463-CE862128C09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="5190" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="4920" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH76_館浜駅_UIList" sheetId="1" r:id="rId1"/>
@@ -1846,7 +1846,9 @@
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="25" width="15.140625" customWidth="1"/>
+    <col min="3" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="25" width="15.140625" customWidth="1"/>
     <col min="26" max="26" width="37.5703125" customWidth="1"/>
     <col min="27" max="27" width="100.140625" customWidth="1"/>
     <col min="28" max="28" width="62.5703125" customWidth="1"/>

--- a/exe/TSV/Excel/TH76_Tatehama_UIList.xlsx
+++ b/exe/TSV/Excel/TH76_Tatehama_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C031A4DB-9BDC-4693-8463-CE862128C09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF652EE8-8989-4846-B36D-1D2D5F803591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="4920" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6810" yWindow="4875" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH76_館浜駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="349">
   <si>
     <t>Type</t>
   </si>
@@ -630,7 +630,7 @@
     <t>信号機表示灯</t>
   </si>
   <si>
-    <t>TH76_1R</t>
+    <t>館浜上り出発1R</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/G.png</t>
@@ -660,7 +660,7 @@
     <t>2R_G</t>
   </si>
   <si>
-    <t>TH76_2R</t>
+    <t>館浜上り出発2R</t>
   </si>
   <si>
     <t>2R_Label</t>
@@ -675,7 +675,7 @@
     <t>3R_G</t>
   </si>
   <si>
-    <t>TH76_3R</t>
+    <t>館浜上り出発3R</t>
   </si>
   <si>
     <t>3R_Label</t>
@@ -690,7 +690,7 @@
     <t>4R_G</t>
   </si>
   <si>
-    <t>TH76_4R</t>
+    <t>館浜上り出発4R</t>
   </si>
   <si>
     <t>4R_Label</t>
@@ -714,7 +714,7 @@
     <t>5L_G</t>
   </si>
   <si>
-    <t>TH76_5L</t>
+    <t>館浜下り場内5L</t>
   </si>
   <si>
     <t>5L_Label</t>
@@ -969,15 +969,9 @@
     <t>駅扱切換表示灯</t>
   </si>
   <si>
-    <t>TH76_81L</t>
-  </si>
-  <si>
     <t>駅扱切換_PG</t>
   </si>
   <si>
-    <t>TH76_81R</t>
-  </si>
-  <si>
     <t>TH76_5LAT_1</t>
   </si>
   <si>
@@ -1413,22 +1407,28 @@
     <t>TH75_27T_2</t>
   </si>
   <si>
+    <t>転てつ不良_R</t>
+  </si>
+  <si>
+    <t>状態表示灯</t>
+  </si>
+  <si>
+    <t>TH76_W-FAILURE</t>
+  </si>
+  <si>
+    <t>Image/Light/N.png,Image/Light/R.png</t>
+  </si>
+  <si>
     <t>停電_R</t>
   </si>
   <si>
-    <t>状態表示灯</t>
-  </si>
-  <si>
-    <t>TH76_停電</t>
-  </si>
-  <si>
-    <t>Image/Light/N.png,Image/Light/R.png</t>
+    <t>TH76_PWR-FAILURE</t>
   </si>
   <si>
     <t>CTC故障_R</t>
   </si>
   <si>
-    <t>TH76_CTC故障</t>
+    <t>TH76_CTC-FAILURE</t>
   </si>
   <si>
     <t>鎖錠60秒_R</t>
@@ -1452,37 +1452,70 @@
     <t>列車番号</t>
   </si>
   <si>
+    <t>TH76_TTC_Track1</t>
+  </si>
+  <si>
     <t>Image/Retsuban/Retsuban-Window.png</t>
   </si>
   <si>
     <t>列番館浜2番線</t>
   </si>
   <si>
+    <t>TH76_TTC_Track2</t>
+  </si>
+  <si>
     <t>列番館浜3番線</t>
   </si>
   <si>
+    <t>TH76_TTC_Track3</t>
+  </si>
+  <si>
     <t>列番館浜4番線</t>
   </si>
   <si>
+    <t>TH76_TTC_Track4</t>
+  </si>
+  <si>
     <t>列番館浜下り第1接近</t>
   </si>
   <si>
+    <t>TH76_TTC_Down1</t>
+  </si>
+  <si>
     <t>列番館浜下り第2接近</t>
   </si>
   <si>
+    <t>TH76_TTC_Down2</t>
+  </si>
+  <si>
     <t>列番駒野下り出発</t>
   </si>
   <si>
+    <t>TH75_TTC_DownDep1</t>
+  </si>
+  <si>
     <t>列番駒野5番線</t>
   </si>
   <si>
+    <t>TH75_TTC_Track5</t>
+  </si>
+  <si>
     <t>列番駒野6番線</t>
   </si>
   <si>
+    <t>TH75_TTC_Track6</t>
+  </si>
+  <si>
     <t>列番駒野3番線</t>
   </si>
   <si>
+    <t>TH75_TTC_Track3</t>
+  </si>
+  <si>
     <t>列番駒野下り第1接近</t>
+  </si>
+  <si>
+    <t>TH75_TTC_Down1</t>
   </si>
   <si>
     <t>Button</t>
@@ -1833,7 +1866,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ180"/>
+  <dimension ref="A1:AJ181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -5456,7 +5489,7 @@
         <v>162</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -5505,14 +5538,14 @@
         <v>31</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5" t="s">
         <v>162</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -5561,14 +5594,14 @@
         <v>31</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
@@ -5593,17 +5626,17 @@
       <c r="V63" s="5"/>
       <c r="W63" s="5"/>
       <c r="X63" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y63" s="5">
         <v>0</v>
       </c>
       <c r="Z63" s="6"/>
       <c r="AA63" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB63" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AC63" s="4"/>
       <c r="AD63" s="4"/>
@@ -5619,14 +5652,14 @@
         <v>31</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -5651,14 +5684,14 @@
       <c r="V64" s="5"/>
       <c r="W64" s="5"/>
       <c r="X64" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y64" s="5">
         <v>0</v>
       </c>
       <c r="Z64" s="6"/>
       <c r="AA64" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
@@ -5675,14 +5708,14 @@
         <v>31</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
@@ -5707,14 +5740,14 @@
       <c r="V65" s="5"/>
       <c r="W65" s="5"/>
       <c r="X65" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y65" s="5">
         <v>0</v>
       </c>
       <c r="Z65" s="6"/>
       <c r="AA65" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
@@ -5731,14 +5764,14 @@
         <v>31</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
@@ -5763,14 +5796,14 @@
       <c r="V66" s="5"/>
       <c r="W66" s="5"/>
       <c r="X66" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y66" s="5">
         <v>0</v>
       </c>
       <c r="Z66" s="6"/>
       <c r="AA66" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
@@ -5787,14 +5820,14 @@
         <v>31</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
@@ -5819,14 +5852,14 @@
       <c r="V67" s="5"/>
       <c r="W67" s="5"/>
       <c r="X67" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y67" s="5">
         <v>0</v>
       </c>
       <c r="Z67" s="6"/>
       <c r="AA67" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
@@ -5843,14 +5876,14 @@
         <v>31</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
@@ -5875,14 +5908,14 @@
       <c r="V68" s="5"/>
       <c r="W68" s="5"/>
       <c r="X68" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y68" s="5">
         <v>0</v>
       </c>
       <c r="Z68" s="6"/>
       <c r="AA68" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
@@ -5899,14 +5932,14 @@
         <v>31</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
@@ -5931,14 +5964,14 @@
       <c r="V69" s="5"/>
       <c r="W69" s="5"/>
       <c r="X69" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y69" s="5">
         <v>0</v>
       </c>
       <c r="Z69" s="6"/>
       <c r="AA69" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
@@ -5955,14 +5988,14 @@
         <v>31</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -5987,14 +6020,14 @@
       <c r="V70" s="5"/>
       <c r="W70" s="5"/>
       <c r="X70" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y70" s="5">
         <v>0</v>
       </c>
       <c r="Z70" s="6"/>
       <c r="AA70" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
@@ -6011,14 +6044,14 @@
         <v>31</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>110</v>
@@ -6047,14 +6080,14 @@
       <c r="V71" s="5"/>
       <c r="W71" s="5"/>
       <c r="X71" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y71" s="5">
         <v>0</v>
       </c>
       <c r="Z71" s="6"/>
       <c r="AA71" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
@@ -6071,14 +6104,14 @@
         <v>31</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>110</v>
@@ -6107,17 +6140,17 @@
       <c r="V72" s="5"/>
       <c r="W72" s="5"/>
       <c r="X72" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y72" s="5">
         <v>0</v>
       </c>
       <c r="Z72" s="6"/>
       <c r="AA72" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB72" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AC72" s="4"/>
       <c r="AD72" s="4"/>
@@ -6133,14 +6166,14 @@
         <v>31</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>110</v>
@@ -6169,14 +6202,14 @@
       <c r="V73" s="5"/>
       <c r="W73" s="5"/>
       <c r="X73" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y73" s="5">
         <v>0</v>
       </c>
       <c r="Z73" s="6"/>
       <c r="AA73" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
@@ -6193,14 +6226,14 @@
         <v>31</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>110</v>
@@ -6229,17 +6262,17 @@
       <c r="V74" s="5"/>
       <c r="W74" s="5"/>
       <c r="X74" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y74" s="5">
         <v>0</v>
       </c>
       <c r="Z74" s="6"/>
       <c r="AA74" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AB74" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AC74" s="4"/>
       <c r="AD74" s="4"/>
@@ -6255,14 +6288,14 @@
         <v>31</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>110</v>
@@ -6291,14 +6324,14 @@
       <c r="V75" s="5"/>
       <c r="W75" s="5"/>
       <c r="X75" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y75" s="5">
         <v>0</v>
       </c>
       <c r="Z75" s="6"/>
       <c r="AA75" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
@@ -6315,14 +6348,14 @@
         <v>31</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>110</v>
@@ -6351,14 +6384,14 @@
       <c r="V76" s="5"/>
       <c r="W76" s="5"/>
       <c r="X76" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y76" s="5">
         <v>0</v>
       </c>
       <c r="Z76" s="6"/>
       <c r="AA76" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
@@ -6375,14 +6408,14 @@
         <v>31</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>110</v>
@@ -6411,17 +6444,17 @@
       <c r="V77" s="5"/>
       <c r="W77" s="5"/>
       <c r="X77" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y77" s="5">
         <v>0</v>
       </c>
       <c r="Z77" s="6"/>
       <c r="AA77" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB77" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AC77" s="4"/>
       <c r="AD77" s="4"/>
@@ -6437,14 +6470,14 @@
         <v>31</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>110</v>
@@ -6473,17 +6506,17 @@
       <c r="V78" s="5"/>
       <c r="W78" s="5"/>
       <c r="X78" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y78" s="5">
         <v>0</v>
       </c>
       <c r="Z78" s="6"/>
       <c r="AA78" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AB78" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AC78" s="4"/>
       <c r="AD78" s="4"/>
@@ -6499,14 +6532,14 @@
         <v>31</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>110</v>
@@ -6535,14 +6568,14 @@
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
       <c r="X79" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y79" s="5">
         <v>0</v>
       </c>
       <c r="Z79" s="6"/>
       <c r="AA79" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB79" s="4"/>
       <c r="AC79" s="4"/>
@@ -6559,14 +6592,14 @@
         <v>31</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>110</v>
@@ -6595,17 +6628,17 @@
       <c r="V80" s="5"/>
       <c r="W80" s="5"/>
       <c r="X80" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y80" s="5">
         <v>0</v>
       </c>
       <c r="Z80" s="6"/>
       <c r="AA80" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB80" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AC80" s="4"/>
       <c r="AD80" s="4"/>
@@ -6621,14 +6654,14 @@
         <v>31</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>120</v>
@@ -6657,14 +6690,14 @@
       <c r="V81" s="5"/>
       <c r="W81" s="5"/>
       <c r="X81" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y81" s="5">
         <v>0</v>
       </c>
       <c r="Z81" s="6"/>
       <c r="AA81" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB81" s="4"/>
       <c r="AC81" s="4"/>
@@ -6681,14 +6714,14 @@
         <v>31</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>120</v>
@@ -6717,17 +6750,17 @@
       <c r="V82" s="5"/>
       <c r="W82" s="5"/>
       <c r="X82" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y82" s="5">
         <v>0</v>
       </c>
       <c r="Z82" s="6"/>
       <c r="AA82" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AB82" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AC82" s="4"/>
       <c r="AD82" s="4"/>
@@ -6743,14 +6776,14 @@
         <v>31</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>120</v>
@@ -6779,14 +6812,14 @@
       <c r="V83" s="5"/>
       <c r="W83" s="5"/>
       <c r="X83" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y83" s="5">
         <v>0</v>
       </c>
       <c r="Z83" s="6"/>
       <c r="AA83" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB83" s="4"/>
       <c r="AC83" s="4"/>
@@ -6803,14 +6836,14 @@
         <v>31</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>120</v>
@@ -6839,14 +6872,14 @@
       <c r="V84" s="5"/>
       <c r="W84" s="5"/>
       <c r="X84" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y84" s="5">
         <v>0</v>
       </c>
       <c r="Z84" s="6"/>
       <c r="AA84" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB84" s="4"/>
       <c r="AC84" s="4"/>
@@ -6863,14 +6896,14 @@
         <v>31</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>120</v>
@@ -6899,14 +6932,14 @@
       <c r="V85" s="5"/>
       <c r="W85" s="5"/>
       <c r="X85" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y85" s="5">
         <v>0</v>
       </c>
       <c r="Z85" s="6"/>
       <c r="AA85" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB85" s="4"/>
       <c r="AC85" s="4"/>
@@ -6923,14 +6956,14 @@
         <v>31</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>126</v>
@@ -6963,17 +6996,17 @@
       <c r="V86" s="5"/>
       <c r="W86" s="5"/>
       <c r="X86" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y86" s="5">
         <v>0</v>
       </c>
       <c r="Z86" s="6"/>
       <c r="AA86" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB86" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AC86" s="4"/>
       <c r="AD86" s="4"/>
@@ -6989,14 +7022,14 @@
         <v>31</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>126</v>
@@ -7029,17 +7062,17 @@
       <c r="V87" s="5"/>
       <c r="W87" s="5"/>
       <c r="X87" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y87" s="5">
         <v>0</v>
       </c>
       <c r="Z87" s="6"/>
       <c r="AA87" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB87" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AC87" s="4"/>
       <c r="AD87" s="4"/>
@@ -7055,14 +7088,14 @@
         <v>31</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>126</v>
@@ -7095,14 +7128,14 @@
       <c r="V88" s="5"/>
       <c r="W88" s="5"/>
       <c r="X88" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y88" s="5">
         <v>0</v>
       </c>
       <c r="Z88" s="6"/>
       <c r="AA88" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB88" s="4"/>
       <c r="AC88" s="4"/>
@@ -7119,14 +7152,14 @@
         <v>31</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>126</v>
@@ -7159,14 +7192,14 @@
       <c r="V89" s="5"/>
       <c r="W89" s="5"/>
       <c r="X89" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y89" s="5">
         <v>0</v>
       </c>
       <c r="Z89" s="6"/>
       <c r="AA89" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB89" s="4"/>
       <c r="AC89" s="4"/>
@@ -7183,14 +7216,14 @@
         <v>31</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>126</v>
@@ -7223,17 +7256,17 @@
       <c r="V90" s="5"/>
       <c r="W90" s="5"/>
       <c r="X90" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y90" s="5">
         <v>0</v>
       </c>
       <c r="Z90" s="6"/>
       <c r="AA90" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB90" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AC90" s="4"/>
       <c r="AD90" s="4"/>
@@ -7249,14 +7282,14 @@
         <v>31</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>132</v>
@@ -7285,17 +7318,17 @@
       <c r="V91" s="5"/>
       <c r="W91" s="5"/>
       <c r="X91" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y91" s="5">
         <v>0</v>
       </c>
       <c r="Z91" s="6"/>
       <c r="AA91" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AB91" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AC91" s="4"/>
       <c r="AD91" s="4"/>
@@ -7311,14 +7344,14 @@
         <v>31</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>132</v>
@@ -7347,17 +7380,17 @@
       <c r="V92" s="5"/>
       <c r="W92" s="5"/>
       <c r="X92" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y92" s="5">
         <v>0</v>
       </c>
       <c r="Z92" s="6"/>
       <c r="AA92" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB92" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AC92" s="4"/>
       <c r="AD92" s="4"/>
@@ -7373,14 +7406,14 @@
         <v>31</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>132</v>
@@ -7409,17 +7442,17 @@
       <c r="V93" s="5"/>
       <c r="W93" s="5"/>
       <c r="X93" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y93" s="5">
         <v>0</v>
       </c>
       <c r="Z93" s="6"/>
       <c r="AA93" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB93" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AC93" s="4"/>
       <c r="AD93" s="4"/>
@@ -7435,14 +7468,14 @@
         <v>31</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>132</v>
@@ -7471,17 +7504,17 @@
       <c r="V94" s="5"/>
       <c r="W94" s="5"/>
       <c r="X94" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y94" s="5">
         <v>0</v>
       </c>
       <c r="Z94" s="6"/>
       <c r="AA94" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB94" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AC94" s="4"/>
       <c r="AD94" s="4"/>
@@ -7497,14 +7530,14 @@
         <v>31</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>132</v>
@@ -7533,17 +7566,17 @@
       <c r="V95" s="5"/>
       <c r="W95" s="5"/>
       <c r="X95" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y95" s="5">
         <v>0</v>
       </c>
       <c r="Z95" s="6"/>
       <c r="AA95" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB95" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AC95" s="4"/>
       <c r="AD95" s="4"/>
@@ -7559,14 +7592,14 @@
         <v>31</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>132</v>
@@ -7595,17 +7628,17 @@
       <c r="V96" s="5"/>
       <c r="W96" s="5"/>
       <c r="X96" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y96" s="5">
         <v>0</v>
       </c>
       <c r="Z96" s="6"/>
       <c r="AA96" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB96" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AC96" s="4"/>
       <c r="AD96" s="4"/>
@@ -7621,14 +7654,14 @@
         <v>31</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>132</v>
@@ -7657,17 +7690,17 @@
       <c r="V97" s="5"/>
       <c r="W97" s="5"/>
       <c r="X97" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y97" s="5">
         <v>0</v>
       </c>
       <c r="Z97" s="6"/>
       <c r="AA97" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AB97" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AC97" s="4"/>
       <c r="AD97" s="4"/>
@@ -7683,14 +7716,14 @@
         <v>31</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>138</v>
@@ -7719,17 +7752,17 @@
       <c r="V98" s="5"/>
       <c r="W98" s="5"/>
       <c r="X98" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y98" s="5">
         <v>0</v>
       </c>
       <c r="Z98" s="6"/>
       <c r="AA98" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB98" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AC98" s="4"/>
       <c r="AD98" s="4"/>
@@ -7745,14 +7778,14 @@
         <v>31</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>138</v>
@@ -7781,14 +7814,14 @@
       <c r="V99" s="5"/>
       <c r="W99" s="5"/>
       <c r="X99" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y99" s="5">
         <v>0</v>
       </c>
       <c r="Z99" s="6"/>
       <c r="AA99" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB99" s="4"/>
       <c r="AC99" s="4"/>
@@ -7805,14 +7838,14 @@
         <v>31</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>138</v>
@@ -7841,14 +7874,14 @@
       <c r="V100" s="5"/>
       <c r="W100" s="5"/>
       <c r="X100" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y100" s="5">
         <v>0</v>
       </c>
       <c r="Z100" s="6"/>
       <c r="AA100" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB100" s="4"/>
       <c r="AC100" s="4"/>
@@ -7865,14 +7898,14 @@
         <v>31</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>138</v>
@@ -7901,14 +7934,14 @@
       <c r="V101" s="5"/>
       <c r="W101" s="5"/>
       <c r="X101" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y101" s="5">
         <v>0</v>
       </c>
       <c r="Z101" s="6"/>
       <c r="AA101" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB101" s="4"/>
       <c r="AC101" s="4"/>
@@ -7925,14 +7958,14 @@
         <v>31</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>144</v>
@@ -7961,14 +7994,14 @@
       <c r="V102" s="5"/>
       <c r="W102" s="5"/>
       <c r="X102" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y102" s="5">
         <v>0</v>
       </c>
       <c r="Z102" s="6"/>
       <c r="AA102" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB102" s="4"/>
       <c r="AC102" s="4"/>
@@ -7985,14 +8018,14 @@
         <v>31</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>144</v>
@@ -8021,14 +8054,14 @@
       <c r="V103" s="5"/>
       <c r="W103" s="5"/>
       <c r="X103" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y103" s="5">
         <v>0</v>
       </c>
       <c r="Z103" s="6"/>
       <c r="AA103" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB103" s="4"/>
       <c r="AC103" s="4"/>
@@ -8045,14 +8078,14 @@
         <v>31</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>144</v>
@@ -8081,14 +8114,14 @@
       <c r="V104" s="5"/>
       <c r="W104" s="5"/>
       <c r="X104" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y104" s="5">
         <v>0</v>
       </c>
       <c r="Z104" s="6"/>
       <c r="AA104" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB104" s="4"/>
       <c r="AC104" s="4"/>
@@ -8105,14 +8138,14 @@
         <v>31</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>144</v>
@@ -8141,17 +8174,17 @@
       <c r="V105" s="5"/>
       <c r="W105" s="5"/>
       <c r="X105" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y105" s="5">
         <v>0</v>
       </c>
       <c r="Z105" s="6"/>
       <c r="AA105" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB105" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AC105" s="4"/>
       <c r="AD105" s="4"/>
@@ -8167,14 +8200,14 @@
         <v>31</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>144</v>
@@ -8203,14 +8236,14 @@
       <c r="V106" s="5"/>
       <c r="W106" s="5"/>
       <c r="X106" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y106" s="5">
         <v>0</v>
       </c>
       <c r="Z106" s="6"/>
       <c r="AA106" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB106" s="4"/>
       <c r="AC106" s="4"/>
@@ -8227,14 +8260,14 @@
         <v>31</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>144</v>
@@ -8263,14 +8296,14 @@
       <c r="V107" s="5"/>
       <c r="W107" s="5"/>
       <c r="X107" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y107" s="5">
         <v>0</v>
       </c>
       <c r="Z107" s="6"/>
       <c r="AA107" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB107" s="4"/>
       <c r="AC107" s="4"/>
@@ -8287,14 +8320,14 @@
         <v>31</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>144</v>
@@ -8323,17 +8356,17 @@
       <c r="V108" s="5"/>
       <c r="W108" s="5"/>
       <c r="X108" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y108" s="5">
         <v>0</v>
       </c>
       <c r="Z108" s="6"/>
       <c r="AA108" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB108" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AC108" s="4"/>
       <c r="AD108" s="4"/>
@@ -8349,14 +8382,14 @@
         <v>31</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>144</v>
@@ -8385,14 +8418,14 @@
       <c r="V109" s="5"/>
       <c r="W109" s="5"/>
       <c r="X109" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y109" s="5">
         <v>0</v>
       </c>
       <c r="Z109" s="6"/>
       <c r="AA109" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB109" s="4"/>
       <c r="AC109" s="4"/>
@@ -8409,14 +8442,14 @@
         <v>31</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>150</v>
@@ -8445,17 +8478,17 @@
       <c r="V110" s="5"/>
       <c r="W110" s="5"/>
       <c r="X110" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y110" s="5">
         <v>0</v>
       </c>
       <c r="Z110" s="6"/>
       <c r="AA110" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB110" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AC110" s="4"/>
       <c r="AD110" s="4"/>
@@ -8471,14 +8504,14 @@
         <v>31</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>150</v>
@@ -8507,14 +8540,14 @@
       <c r="V111" s="5"/>
       <c r="W111" s="5"/>
       <c r="X111" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y111" s="5">
         <v>0</v>
       </c>
       <c r="Z111" s="6"/>
       <c r="AA111" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB111" s="4"/>
       <c r="AC111" s="4"/>
@@ -8531,14 +8564,14 @@
         <v>31</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>150</v>
@@ -8567,14 +8600,14 @@
       <c r="V112" s="5"/>
       <c r="W112" s="5"/>
       <c r="X112" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y112" s="5">
         <v>0</v>
       </c>
       <c r="Z112" s="6"/>
       <c r="AA112" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB112" s="4"/>
       <c r="AC112" s="4"/>
@@ -8591,14 +8624,14 @@
         <v>31</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>150</v>
@@ -8627,14 +8660,14 @@
       <c r="V113" s="5"/>
       <c r="W113" s="5"/>
       <c r="X113" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y113" s="5">
         <v>0</v>
       </c>
       <c r="Z113" s="6"/>
       <c r="AA113" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB113" s="4"/>
       <c r="AC113" s="4"/>
@@ -8651,14 +8684,14 @@
         <v>31</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
@@ -8683,14 +8716,14 @@
       <c r="V114" s="5"/>
       <c r="W114" s="5"/>
       <c r="X114" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y114" s="5">
         <v>0</v>
       </c>
       <c r="Z114" s="6"/>
       <c r="AA114" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB114" s="4"/>
       <c r="AC114" s="4"/>
@@ -8707,14 +8740,14 @@
         <v>31</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
@@ -8739,14 +8772,14 @@
       <c r="V115" s="5"/>
       <c r="W115" s="5"/>
       <c r="X115" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y115" s="5">
         <v>0</v>
       </c>
       <c r="Z115" s="6"/>
       <c r="AA115" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB115" s="4"/>
       <c r="AC115" s="4"/>
@@ -8763,14 +8796,14 @@
         <v>31</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
@@ -8795,14 +8828,14 @@
       <c r="V116" s="5"/>
       <c r="W116" s="5"/>
       <c r="X116" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y116" s="5">
         <v>0</v>
       </c>
       <c r="Z116" s="6"/>
       <c r="AA116" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB116" s="4"/>
       <c r="AC116" s="4"/>
@@ -8819,17 +8852,17 @@
         <v>31</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>111</v>
@@ -8855,14 +8888,14 @@
       <c r="V117" s="5"/>
       <c r="W117" s="5"/>
       <c r="X117" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y117" s="5">
         <v>0</v>
       </c>
       <c r="Z117" s="6"/>
       <c r="AA117" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB117" s="4"/>
       <c r="AC117" s="4"/>
@@ -8879,17 +8912,17 @@
         <v>31</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G118" s="5" t="s">
         <v>111</v>
@@ -8915,14 +8948,14 @@
       <c r="V118" s="5"/>
       <c r="W118" s="5"/>
       <c r="X118" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y118" s="5">
         <v>0</v>
       </c>
       <c r="Z118" s="6"/>
       <c r="AA118" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB118" s="4"/>
       <c r="AC118" s="4"/>
@@ -8939,17 +8972,17 @@
         <v>31</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G119" s="5" t="s">
         <v>114</v>
@@ -8975,14 +9008,14 @@
       <c r="V119" s="5"/>
       <c r="W119" s="5"/>
       <c r="X119" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y119" s="5">
         <v>0</v>
       </c>
       <c r="Z119" s="6"/>
       <c r="AA119" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB119" s="4"/>
       <c r="AC119" s="4"/>
@@ -8999,17 +9032,17 @@
         <v>31</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G120" s="5" t="s">
         <v>114</v>
@@ -9035,17 +9068,17 @@
       <c r="V120" s="5"/>
       <c r="W120" s="5"/>
       <c r="X120" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y120" s="5">
         <v>0</v>
       </c>
       <c r="Z120" s="6"/>
       <c r="AA120" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AB120" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AC120" s="4"/>
       <c r="AD120" s="4"/>
@@ -9061,17 +9094,17 @@
         <v>31</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G121" s="5" t="s">
         <v>111</v>
@@ -9097,14 +9130,14 @@
       <c r="V121" s="5"/>
       <c r="W121" s="5"/>
       <c r="X121" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y121" s="5">
         <v>0</v>
       </c>
       <c r="Z121" s="6"/>
       <c r="AA121" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB121" s="4"/>
       <c r="AC121" s="4"/>
@@ -9121,17 +9154,17 @@
         <v>31</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G122" s="5" t="s">
         <v>111</v>
@@ -9157,14 +9190,14 @@
       <c r="V122" s="5"/>
       <c r="W122" s="5"/>
       <c r="X122" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y122" s="5">
         <v>0</v>
       </c>
       <c r="Z122" s="6"/>
       <c r="AA122" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB122" s="4"/>
       <c r="AC122" s="4"/>
@@ -9181,17 +9214,17 @@
         <v>31</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>114</v>
@@ -9217,17 +9250,17 @@
       <c r="V123" s="5"/>
       <c r="W123" s="5"/>
       <c r="X123" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y123" s="5">
         <v>0</v>
       </c>
       <c r="Z123" s="6"/>
       <c r="AA123" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AB123" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AC123" s="4"/>
       <c r="AD123" s="4"/>
@@ -9243,17 +9276,17 @@
         <v>31</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G124" s="5" t="s">
         <v>114</v>
@@ -9279,14 +9312,14 @@
       <c r="V124" s="5"/>
       <c r="W124" s="5"/>
       <c r="X124" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y124" s="5">
         <v>0</v>
       </c>
       <c r="Z124" s="6"/>
       <c r="AA124" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB124" s="4"/>
       <c r="AC124" s="4"/>
@@ -9303,17 +9336,17 @@
         <v>31</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G125" s="5" t="s">
         <v>111</v>
@@ -9339,14 +9372,14 @@
       <c r="V125" s="5"/>
       <c r="W125" s="5"/>
       <c r="X125" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y125" s="5">
         <v>0</v>
       </c>
       <c r="Z125" s="6"/>
       <c r="AA125" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB125" s="4"/>
       <c r="AC125" s="4"/>
@@ -9363,17 +9396,17 @@
         <v>31</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G126" s="5" t="s">
         <v>111</v>
@@ -9399,14 +9432,14 @@
       <c r="V126" s="5"/>
       <c r="W126" s="5"/>
       <c r="X126" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y126" s="5">
         <v>0</v>
       </c>
       <c r="Z126" s="6"/>
       <c r="AA126" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB126" s="4"/>
       <c r="AC126" s="4"/>
@@ -9423,17 +9456,17 @@
         <v>31</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G127" s="5" t="s">
         <v>114</v>
@@ -9459,14 +9492,14 @@
       <c r="V127" s="5"/>
       <c r="W127" s="5"/>
       <c r="X127" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y127" s="5">
         <v>0</v>
       </c>
       <c r="Z127" s="6"/>
       <c r="AA127" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB127" s="4"/>
       <c r="AC127" s="4"/>
@@ -9483,17 +9516,17 @@
         <v>31</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>114</v>
@@ -9519,17 +9552,17 @@
       <c r="V128" s="5"/>
       <c r="W128" s="5"/>
       <c r="X128" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y128" s="5">
         <v>0</v>
       </c>
       <c r="Z128" s="6"/>
       <c r="AA128" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AB128" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AC128" s="4"/>
       <c r="AD128" s="4"/>
@@ -9545,17 +9578,17 @@
         <v>31</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G129" s="5" t="s">
         <v>111</v>
@@ -9581,14 +9614,14 @@
       <c r="V129" s="5"/>
       <c r="W129" s="5"/>
       <c r="X129" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y129" s="5">
         <v>0</v>
       </c>
       <c r="Z129" s="6"/>
       <c r="AA129" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB129" s="4"/>
       <c r="AC129" s="4"/>
@@ -9605,17 +9638,17 @@
         <v>31</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G130" s="5" t="s">
         <v>111</v>
@@ -9641,14 +9674,14 @@
       <c r="V130" s="5"/>
       <c r="W130" s="5"/>
       <c r="X130" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y130" s="5">
         <v>0</v>
       </c>
       <c r="Z130" s="6"/>
       <c r="AA130" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB130" s="4"/>
       <c r="AC130" s="4"/>
@@ -9665,17 +9698,17 @@
         <v>31</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>114</v>
@@ -9701,17 +9734,17 @@
       <c r="V131" s="5"/>
       <c r="W131" s="5"/>
       <c r="X131" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y131" s="5">
         <v>0</v>
       </c>
       <c r="Z131" s="6"/>
       <c r="AA131" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AB131" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AC131" s="4"/>
       <c r="AD131" s="4"/>
@@ -9727,17 +9760,17 @@
         <v>31</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>114</v>
@@ -9763,14 +9796,14 @@
       <c r="V132" s="5"/>
       <c r="W132" s="5"/>
       <c r="X132" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y132" s="5">
         <v>0</v>
       </c>
       <c r="Z132" s="6"/>
       <c r="AA132" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB132" s="4"/>
       <c r="AC132" s="4"/>
@@ -9787,23 +9820,23 @@
         <v>31</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>111</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I133" s="5" t="s">
         <v>111</v>
@@ -9827,14 +9860,14 @@
       <c r="V133" s="5"/>
       <c r="W133" s="5"/>
       <c r="X133" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y133" s="5">
         <v>0</v>
       </c>
       <c r="Z133" s="6"/>
       <c r="AA133" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB133" s="4"/>
       <c r="AC133" s="4"/>
@@ -9851,23 +9884,23 @@
         <v>31</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G134" s="5" t="s">
         <v>111</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I134" s="5" t="s">
         <v>111</v>
@@ -9891,14 +9924,14 @@
       <c r="V134" s="5"/>
       <c r="W134" s="5"/>
       <c r="X134" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y134" s="5">
         <v>0</v>
       </c>
       <c r="Z134" s="6"/>
       <c r="AA134" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB134" s="4"/>
       <c r="AC134" s="4"/>
@@ -9915,23 +9948,23 @@
         <v>31</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G135" s="5" t="s">
         <v>111</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I135" s="5" t="s">
         <v>111</v>
@@ -9955,14 +9988,14 @@
       <c r="V135" s="5"/>
       <c r="W135" s="5"/>
       <c r="X135" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y135" s="5">
         <v>0</v>
       </c>
       <c r="Z135" s="6"/>
       <c r="AA135" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB135" s="4"/>
       <c r="AC135" s="4"/>
@@ -9979,23 +10012,23 @@
         <v>31</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E136" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H136" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G136" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H136" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="I136" s="5" t="s">
         <v>114</v>
@@ -10019,17 +10052,17 @@
       <c r="V136" s="5"/>
       <c r="W136" s="5"/>
       <c r="X136" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y136" s="5">
         <v>0</v>
       </c>
       <c r="Z136" s="6"/>
       <c r="AA136" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AB136" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AC136" s="4"/>
       <c r="AD136" s="4"/>
@@ -10045,23 +10078,23 @@
         <v>31</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E137" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H137" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G137" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H137" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="I137" s="5" t="s">
         <v>114</v>
@@ -10085,14 +10118,14 @@
       <c r="V137" s="5"/>
       <c r="W137" s="5"/>
       <c r="X137" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y137" s="5">
         <v>0</v>
       </c>
       <c r="Z137" s="6"/>
       <c r="AA137" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB137" s="4"/>
       <c r="AC137" s="4"/>
@@ -10109,23 +10142,23 @@
         <v>31</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E138" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H138" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="F138" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G138" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H138" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="I138" s="5" t="s">
         <v>114</v>
@@ -10149,14 +10182,14 @@
       <c r="V138" s="5"/>
       <c r="W138" s="5"/>
       <c r="X138" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y138" s="5">
         <v>0</v>
       </c>
       <c r="Z138" s="6"/>
       <c r="AA138" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB138" s="4"/>
       <c r="AC138" s="4"/>
@@ -10173,23 +10206,23 @@
         <v>31</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E139" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H139" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="F139" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G139" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H139" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="I139" s="5" t="s">
         <v>111</v>
@@ -10213,14 +10246,14 @@
       <c r="V139" s="5"/>
       <c r="W139" s="5"/>
       <c r="X139" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y139" s="5">
         <v>0</v>
       </c>
       <c r="Z139" s="6"/>
       <c r="AA139" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB139" s="4"/>
       <c r="AC139" s="4"/>
@@ -10237,23 +10270,23 @@
         <v>31</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E140" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H140" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G140" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H140" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="I140" s="5" t="s">
         <v>111</v>
@@ -10277,17 +10310,17 @@
       <c r="V140" s="5"/>
       <c r="W140" s="5"/>
       <c r="X140" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y140" s="5">
         <v>0</v>
       </c>
       <c r="Z140" s="6"/>
       <c r="AA140" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AB140" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AC140" s="4"/>
       <c r="AD140" s="4"/>
@@ -10303,23 +10336,23 @@
         <v>31</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G141" s="5" t="s">
         <v>111</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I141" s="5" t="s">
         <v>111</v>
@@ -10343,14 +10376,14 @@
       <c r="V141" s="5"/>
       <c r="W141" s="5"/>
       <c r="X141" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y141" s="5">
         <v>0</v>
       </c>
       <c r="Z141" s="6"/>
       <c r="AA141" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB141" s="4"/>
       <c r="AC141" s="4"/>
@@ -10367,23 +10400,23 @@
         <v>31</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G142" s="5" t="s">
         <v>111</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I142" s="5" t="s">
         <v>111</v>
@@ -10407,14 +10440,14 @@
       <c r="V142" s="5"/>
       <c r="W142" s="5"/>
       <c r="X142" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y142" s="5">
         <v>0</v>
       </c>
       <c r="Z142" s="6"/>
       <c r="AA142" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB142" s="4"/>
       <c r="AC142" s="4"/>
@@ -10431,23 +10464,23 @@
         <v>31</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G143" s="5" t="s">
         <v>111</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I143" s="5" t="s">
         <v>111</v>
@@ -10471,14 +10504,14 @@
       <c r="V143" s="5"/>
       <c r="W143" s="5"/>
       <c r="X143" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y143" s="5">
         <v>0</v>
       </c>
       <c r="Z143" s="6"/>
       <c r="AA143" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB143" s="4"/>
       <c r="AC143" s="4"/>
@@ -10495,23 +10528,23 @@
         <v>31</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I144" s="5" t="s">
         <v>114</v>
@@ -10535,17 +10568,17 @@
       <c r="V144" s="5"/>
       <c r="W144" s="5"/>
       <c r="X144" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y144" s="5">
         <v>0</v>
       </c>
       <c r="Z144" s="6"/>
       <c r="AA144" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AB144" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AC144" s="4"/>
       <c r="AD144" s="4"/>
@@ -10561,23 +10594,23 @@
         <v>31</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I145" s="5" t="s">
         <v>114</v>
@@ -10601,14 +10634,14 @@
       <c r="V145" s="5"/>
       <c r="W145" s="5"/>
       <c r="X145" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y145" s="5">
         <v>0</v>
       </c>
       <c r="Z145" s="6"/>
       <c r="AA145" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB145" s="4"/>
       <c r="AC145" s="4"/>
@@ -10625,23 +10658,23 @@
         <v>31</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I146" s="5" t="s">
         <v>114</v>
@@ -10665,14 +10698,14 @@
       <c r="V146" s="5"/>
       <c r="W146" s="5"/>
       <c r="X146" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y146" s="5">
         <v>0</v>
       </c>
       <c r="Z146" s="6"/>
       <c r="AA146" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB146" s="4"/>
       <c r="AC146" s="4"/>
@@ -10689,23 +10722,23 @@
         <v>31</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I147" s="5" t="s">
         <v>111</v>
@@ -10729,14 +10762,14 @@
       <c r="V147" s="5"/>
       <c r="W147" s="5"/>
       <c r="X147" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y147" s="5">
         <v>0</v>
       </c>
       <c r="Z147" s="6"/>
       <c r="AA147" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB147" s="4"/>
       <c r="AC147" s="4"/>
@@ -10753,23 +10786,23 @@
         <v>31</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I148" s="5" t="s">
         <v>111</v>
@@ -10793,17 +10826,17 @@
       <c r="V148" s="5"/>
       <c r="W148" s="5"/>
       <c r="X148" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y148" s="5">
         <v>0</v>
       </c>
       <c r="Z148" s="6"/>
       <c r="AA148" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AB148" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AC148" s="4"/>
       <c r="AD148" s="4"/>
@@ -10819,14 +10852,14 @@
         <v>31</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
@@ -10851,14 +10884,14 @@
       <c r="V149" s="5"/>
       <c r="W149" s="5"/>
       <c r="X149" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y149" s="5">
         <v>0</v>
       </c>
       <c r="Z149" s="6"/>
       <c r="AA149" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB149" s="4"/>
       <c r="AC149" s="4"/>
@@ -10875,14 +10908,14 @@
         <v>31</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
@@ -10907,14 +10940,14 @@
       <c r="V150" s="5"/>
       <c r="W150" s="5"/>
       <c r="X150" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y150" s="5">
         <v>0</v>
       </c>
       <c r="Z150" s="6"/>
       <c r="AA150" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB150" s="4"/>
       <c r="AC150" s="4"/>
@@ -10931,14 +10964,14 @@
         <v>31</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
@@ -10963,14 +10996,14 @@
       <c r="V151" s="5"/>
       <c r="W151" s="5"/>
       <c r="X151" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y151" s="5">
         <v>0</v>
       </c>
       <c r="Z151" s="6"/>
       <c r="AA151" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB151" s="4"/>
       <c r="AC151" s="4"/>
@@ -10987,14 +11020,14 @@
         <v>31</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
@@ -11019,14 +11052,14 @@
       <c r="V152" s="5"/>
       <c r="W152" s="5"/>
       <c r="X152" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y152" s="5">
         <v>0</v>
       </c>
       <c r="Z152" s="6"/>
       <c r="AA152" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB152" s="4"/>
       <c r="AC152" s="4"/>
@@ -11043,14 +11076,14 @@
         <v>31</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
@@ -11075,14 +11108,14 @@
       <c r="V153" s="5"/>
       <c r="W153" s="5"/>
       <c r="X153" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y153" s="5">
         <v>0</v>
       </c>
       <c r="Z153" s="6"/>
       <c r="AA153" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB153" s="4"/>
       <c r="AC153" s="4"/>
@@ -11099,14 +11132,14 @@
         <v>31</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
@@ -11131,14 +11164,14 @@
       <c r="V154" s="5"/>
       <c r="W154" s="5"/>
       <c r="X154" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y154" s="5">
         <v>0</v>
       </c>
       <c r="Z154" s="6"/>
       <c r="AA154" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB154" s="4"/>
       <c r="AC154" s="4"/>
@@ -11155,14 +11188,14 @@
         <v>31</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
@@ -11187,14 +11220,14 @@
       <c r="V155" s="5"/>
       <c r="W155" s="5"/>
       <c r="X155" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y155" s="5">
         <v>0</v>
       </c>
       <c r="Z155" s="6"/>
       <c r="AA155" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB155" s="4"/>
       <c r="AC155" s="4"/>
@@ -11211,14 +11244,14 @@
         <v>31</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
@@ -11243,14 +11276,14 @@
       <c r="V156" s="5"/>
       <c r="W156" s="5"/>
       <c r="X156" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y156" s="5">
         <v>0</v>
       </c>
       <c r="Z156" s="6"/>
       <c r="AA156" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB156" s="4"/>
       <c r="AC156" s="4"/>
@@ -11267,14 +11300,14 @@
         <v>31</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
@@ -11299,14 +11332,14 @@
       <c r="V157" s="5"/>
       <c r="W157" s="5"/>
       <c r="X157" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y157" s="5">
         <v>0</v>
       </c>
       <c r="Z157" s="6"/>
       <c r="AA157" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB157" s="4"/>
       <c r="AC157" s="4"/>
@@ -11323,14 +11356,14 @@
         <v>31</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
@@ -11355,14 +11388,14 @@
       <c r="V158" s="5"/>
       <c r="W158" s="5"/>
       <c r="X158" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y158" s="5">
         <v>0</v>
       </c>
       <c r="Z158" s="6"/>
       <c r="AA158" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB158" s="4"/>
       <c r="AC158" s="4"/>
@@ -11379,14 +11412,14 @@
         <v>31</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
@@ -11411,14 +11444,14 @@
       <c r="V159" s="5"/>
       <c r="W159" s="5"/>
       <c r="X159" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y159" s="5">
         <v>0</v>
       </c>
       <c r="Z159" s="6"/>
       <c r="AA159" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB159" s="4"/>
       <c r="AC159" s="4"/>
@@ -11435,14 +11468,14 @@
         <v>31</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
@@ -11467,14 +11500,14 @@
       <c r="V160" s="5"/>
       <c r="W160" s="5"/>
       <c r="X160" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y160" s="5">
         <v>0</v>
       </c>
       <c r="Z160" s="6"/>
       <c r="AA160" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB160" s="4"/>
       <c r="AC160" s="4"/>
@@ -11491,14 +11524,14 @@
         <v>31</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
@@ -11507,7 +11540,7 @@
       <c r="J161" s="5"/>
       <c r="K161" s="5"/>
       <c r="L161" s="5">
-        <v>54</v>
+        <v>1153</v>
       </c>
       <c r="M161" s="5">
         <v>45</v>
@@ -11530,7 +11563,7 @@
       </c>
       <c r="Z161" s="6"/>
       <c r="AA161" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AB161" s="4"/>
       <c r="AC161" s="4"/>
@@ -11547,14 +11580,14 @@
         <v>31</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
@@ -11563,7 +11596,7 @@
       <c r="J162" s="5"/>
       <c r="K162" s="5"/>
       <c r="L162" s="5">
-        <v>102</v>
+        <v>1211</v>
       </c>
       <c r="M162" s="5">
         <v>45</v>
@@ -11586,7 +11619,7 @@
       </c>
       <c r="Z162" s="6"/>
       <c r="AA162" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AB162" s="4"/>
       <c r="AC162" s="4"/>
@@ -11603,14 +11636,14 @@
         <v>31</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
@@ -11619,10 +11652,10 @@
       <c r="J163" s="5"/>
       <c r="K163" s="5"/>
       <c r="L163" s="5">
-        <v>696</v>
+        <v>1269</v>
       </c>
       <c r="M163" s="5">
-        <v>747</v>
+        <v>45</v>
       </c>
       <c r="N163" s="5"/>
       <c r="O163" s="5"/>
@@ -11642,7 +11675,7 @@
       </c>
       <c r="Z163" s="6"/>
       <c r="AA163" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AB163" s="4"/>
       <c r="AC163" s="4"/>
@@ -11659,14 +11692,14 @@
         <v>31</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
@@ -11675,7 +11708,7 @@
       <c r="J164" s="5"/>
       <c r="K164" s="5"/>
       <c r="L164" s="5">
-        <v>734</v>
+        <v>696</v>
       </c>
       <c r="M164" s="5">
         <v>747</v>
@@ -11698,7 +11731,7 @@
       </c>
       <c r="Z164" s="6"/>
       <c r="AA164" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AB164" s="4"/>
       <c r="AC164" s="4"/>
@@ -11712,17 +11745,17 @@
     </row>
     <row r="165" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>322</v>
+        <v>31</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>319</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
@@ -11731,10 +11764,10 @@
       <c r="J165" s="5"/>
       <c r="K165" s="5"/>
       <c r="L165" s="5">
-        <v>229</v>
+        <v>734</v>
       </c>
       <c r="M165" s="5">
-        <v>335</v>
+        <v>747</v>
       </c>
       <c r="N165" s="5"/>
       <c r="O165" s="5"/>
@@ -11746,11 +11779,15 @@
       <c r="U165" s="5"/>
       <c r="V165" s="5"/>
       <c r="W165" s="5"/>
-      <c r="X165" s="5"/>
-      <c r="Y165" s="5"/>
+      <c r="X165" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y165" s="5">
+        <v>0</v>
+      </c>
       <c r="Z165" s="6"/>
       <c r="AA165" s="4" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="AB165" s="4"/>
       <c r="AC165" s="4"/>
@@ -11767,14 +11804,14 @@
         <v>321</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E166" s="5" t="s">
-        <v>325</v>
+      <c r="E166" s="10" t="s">
+        <v>324</v>
       </c>
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
@@ -11786,7 +11823,7 @@
         <v>229</v>
       </c>
       <c r="M166" s="5">
-        <v>455</v>
+        <v>335</v>
       </c>
       <c r="N166" s="5"/>
       <c r="O166" s="5"/>
@@ -11802,7 +11839,7 @@
       <c r="Y166" s="5"/>
       <c r="Z166" s="6"/>
       <c r="AA166" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AB166" s="4"/>
       <c r="AC166" s="4"/>
@@ -11825,8 +11862,8 @@
       <c r="D167" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E167" s="5" t="s">
-        <v>326</v>
+      <c r="E167" s="10" t="s">
+        <v>327</v>
       </c>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
@@ -11835,10 +11872,10 @@
       <c r="J167" s="5"/>
       <c r="K167" s="5"/>
       <c r="L167" s="5">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="M167" s="5">
-        <v>515</v>
+        <v>455</v>
       </c>
       <c r="N167" s="5"/>
       <c r="O167" s="5"/>
@@ -11854,7 +11891,7 @@
       <c r="Y167" s="5"/>
       <c r="Z167" s="6"/>
       <c r="AA167" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AB167" s="4"/>
       <c r="AC167" s="4"/>
@@ -11871,14 +11908,14 @@
         <v>321</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E168" s="5" t="s">
-        <v>327</v>
+      <c r="E168" s="10" t="s">
+        <v>329</v>
       </c>
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
@@ -11890,7 +11927,7 @@
         <v>203</v>
       </c>
       <c r="M168" s="5">
-        <v>575</v>
+        <v>515</v>
       </c>
       <c r="N168" s="5"/>
       <c r="O168" s="5"/>
@@ -11906,7 +11943,7 @@
       <c r="Y168" s="5"/>
       <c r="Z168" s="6"/>
       <c r="AA168" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AB168" s="4"/>
       <c r="AC168" s="4"/>
@@ -11923,14 +11960,14 @@
         <v>321</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E169" s="5" t="s">
-        <v>328</v>
+      <c r="E169" s="10" t="s">
+        <v>331</v>
       </c>
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
@@ -11939,10 +11976,10 @@
       <c r="J169" s="5"/>
       <c r="K169" s="5"/>
       <c r="L169" s="5">
-        <v>685</v>
+        <v>203</v>
       </c>
       <c r="M169" s="5">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N169" s="5"/>
       <c r="O169" s="5"/>
@@ -11958,7 +11995,7 @@
       <c r="Y169" s="5"/>
       <c r="Z169" s="6"/>
       <c r="AA169" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AB169" s="4"/>
       <c r="AC169" s="4"/>
@@ -11975,14 +12012,14 @@
         <v>321</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E170" s="5" t="s">
-        <v>329</v>
+      <c r="E170" s="10" t="s">
+        <v>333</v>
       </c>
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
@@ -11991,7 +12028,7 @@
       <c r="J170" s="5"/>
       <c r="K170" s="5"/>
       <c r="L170" s="5">
-        <v>835</v>
+        <v>685</v>
       </c>
       <c r="M170" s="5">
         <v>574</v>
@@ -12010,7 +12047,7 @@
       <c r="Y170" s="5"/>
       <c r="Z170" s="6"/>
       <c r="AA170" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AB170" s="4"/>
       <c r="AC170" s="4"/>
@@ -12027,14 +12064,14 @@
         <v>321</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E171" s="5" t="s">
-        <v>330</v>
+      <c r="E171" s="10" t="s">
+        <v>335</v>
       </c>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
@@ -12043,7 +12080,7 @@
       <c r="J171" s="5"/>
       <c r="K171" s="5"/>
       <c r="L171" s="5">
-        <v>985</v>
+        <v>835</v>
       </c>
       <c r="M171" s="5">
         <v>574</v>
@@ -12062,7 +12099,7 @@
       <c r="Y171" s="5"/>
       <c r="Z171" s="6"/>
       <c r="AA171" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AB171" s="4"/>
       <c r="AC171" s="4"/>
@@ -12079,14 +12116,14 @@
         <v>321</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E172" s="5" t="s">
-        <v>331</v>
+      <c r="E172" s="15" t="s">
+        <v>337</v>
       </c>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
@@ -12095,10 +12132,10 @@
       <c r="J172" s="5"/>
       <c r="K172" s="5"/>
       <c r="L172" s="5">
-        <v>1135</v>
+        <v>985</v>
       </c>
       <c r="M172" s="5">
-        <v>482</v>
+        <v>574</v>
       </c>
       <c r="N172" s="5"/>
       <c r="O172" s="5"/>
@@ -12114,7 +12151,7 @@
       <c r="Y172" s="5"/>
       <c r="Z172" s="6"/>
       <c r="AA172" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AB172" s="4"/>
       <c r="AC172" s="4"/>
@@ -12131,14 +12168,14 @@
         <v>321</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E173" s="5" t="s">
-        <v>332</v>
+      <c r="E173" s="15" t="s">
+        <v>339</v>
       </c>
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
@@ -12150,7 +12187,7 @@
         <v>1135</v>
       </c>
       <c r="M173" s="5">
-        <v>528</v>
+        <v>482</v>
       </c>
       <c r="N173" s="5"/>
       <c r="O173" s="5"/>
@@ -12166,7 +12203,7 @@
       <c r="Y173" s="5"/>
       <c r="Z173" s="6"/>
       <c r="AA173" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AB173" s="4"/>
       <c r="AC173" s="4"/>
@@ -12183,14 +12220,14 @@
         <v>321</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E174" s="5" t="s">
-        <v>333</v>
+      <c r="E174" s="15" t="s">
+        <v>341</v>
       </c>
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
@@ -12202,7 +12239,7 @@
         <v>1135</v>
       </c>
       <c r="M174" s="5">
-        <v>574</v>
+        <v>528</v>
       </c>
       <c r="N174" s="5"/>
       <c r="O174" s="5"/>
@@ -12218,7 +12255,7 @@
       <c r="Y174" s="5"/>
       <c r="Z174" s="6"/>
       <c r="AA174" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AB174" s="4"/>
       <c r="AC174" s="4"/>
@@ -12235,14 +12272,14 @@
         <v>321</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E175" s="5" t="s">
-        <v>334</v>
+      <c r="E175" s="15" t="s">
+        <v>343</v>
       </c>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
@@ -12251,7 +12288,7 @@
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
       <c r="L175" s="5">
-        <v>1285</v>
+        <v>1135</v>
       </c>
       <c r="M175" s="5">
         <v>574</v>
@@ -12270,7 +12307,7 @@
       <c r="Y175" s="5"/>
       <c r="Z175" s="6"/>
       <c r="AA175" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AB175" s="4"/>
       <c r="AC175" s="4"/>
@@ -12283,19 +12320,31 @@
       <c r="AJ175" s="4"/>
     </row>
     <row r="176" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A176" s="5"/>
-      <c r="B176" s="10"/>
-      <c r="C176" s="10"/>
-      <c r="D176" s="10"/>
-      <c r="E176" s="5"/>
-      <c r="F176" s="10"/>
-      <c r="G176" s="10"/>
-      <c r="H176" s="10"/>
-      <c r="I176" s="10"/>
+      <c r="A176" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E176" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="5"/>
       <c r="J176" s="5"/>
       <c r="K176" s="5"/>
-      <c r="L176" s="5"/>
-      <c r="M176" s="5"/>
+      <c r="L176" s="5">
+        <v>1285</v>
+      </c>
+      <c r="M176" s="5">
+        <v>574</v>
+      </c>
       <c r="N176" s="5"/>
       <c r="O176" s="5"/>
       <c r="P176" s="5"/>
@@ -12305,11 +12354,13 @@
       <c r="T176" s="5"/>
       <c r="U176" s="5"/>
       <c r="V176" s="5"/>
-      <c r="W176" s="10"/>
+      <c r="W176" s="5"/>
       <c r="X176" s="5"/>
       <c r="Y176" s="5"/>
       <c r="Z176" s="6"/>
-      <c r="AA176" s="4"/>
+      <c r="AA176" s="4" t="s">
+        <v>325</v>
+      </c>
       <c r="AB176" s="4"/>
       <c r="AC176" s="4"/>
       <c r="AD176" s="4"/>
@@ -12472,9 +12523,47 @@
       <c r="AI180" s="4"/>
       <c r="AJ180" s="4"/>
     </row>
+    <row r="181" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A181" s="5"/>
+      <c r="B181" s="10"/>
+      <c r="C181" s="10"/>
+      <c r="D181" s="10"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="10"/>
+      <c r="G181" s="10"/>
+      <c r="H181" s="10"/>
+      <c r="I181" s="10"/>
+      <c r="J181" s="5"/>
+      <c r="K181" s="5"/>
+      <c r="L181" s="5"/>
+      <c r="M181" s="5"/>
+      <c r="N181" s="5"/>
+      <c r="O181" s="5"/>
+      <c r="P181" s="5"/>
+      <c r="Q181" s="5"/>
+      <c r="R181" s="5"/>
+      <c r="S181" s="5"/>
+      <c r="T181" s="5"/>
+      <c r="U181" s="5"/>
+      <c r="V181" s="5"/>
+      <c r="W181" s="10"/>
+      <c r="X181" s="5"/>
+      <c r="Y181" s="5"/>
+      <c r="Z181" s="6"/>
+      <c r="AA181" s="4"/>
+      <c r="AB181" s="4"/>
+      <c r="AC181" s="4"/>
+      <c r="AD181" s="4"/>
+      <c r="AE181" s="4"/>
+      <c r="AF181" s="4"/>
+      <c r="AG181" s="4"/>
+      <c r="AH181" s="4"/>
+      <c r="AI181" s="4"/>
+      <c r="AJ181" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
-  <conditionalFormatting sqref="K2:K180">
+  <conditionalFormatting sqref="K2:K181">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(K2))&gt;0</formula>
     </cfRule>
@@ -12488,19 +12577,19 @@
           <x14:formula1>
             <xm:f>入力規則!$A$1:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A180</xm:sqref>
+          <xm:sqref>A2:A181</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>入力規則!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G180 I2:I180</xm:sqref>
+          <xm:sqref>G2:G181 I2:I181</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>入力規則!$C:$C</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K180</xm:sqref>
+          <xm:sqref>K2:K181</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12521,18 +12610,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>111</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>114</v>

--- a/exe/TSV/Excel/TH76_Tatehama_UIList.xlsx
+++ b/exe/TSV/Excel/TH76_Tatehama_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF652EE8-8989-4846-B36D-1D2D5F803591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45727355-50BC-43D6-8E09-13E73DA84923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6810" yWindow="4875" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4590" yWindow="4590" windowWidth="23940" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH76_館浜駅_UIList" sheetId="1" r:id="rId1"/>
@@ -1341,13 +1341,13 @@
     <t>TH75_45T_W44ロN_W45イR_2</t>
   </si>
   <si>
-    <t>TH75_45T_W44ロN_W45イR_3</t>
-  </si>
-  <si>
     <t>TH75_45T_W44ロR_W45イN_1</t>
   </si>
   <si>
     <t>TH75_45T_W44ロR_W45イN_2</t>
+  </si>
+  <si>
+    <t>TH75_45T_W44ロR_W45イN_3</t>
   </si>
   <si>
     <t>TH75_6LT_1</t>
@@ -10552,10 +10552,10 @@
       <c r="J144" s="5"/>
       <c r="K144" s="5"/>
       <c r="L144" s="5">
-        <v>1088</v>
+        <v>1066</v>
       </c>
       <c r="M144" s="5">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="N144" s="5"/>
       <c r="O144" s="5"/>
@@ -10575,11 +10575,9 @@
       </c>
       <c r="Z144" s="6"/>
       <c r="AA144" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB144" s="4" t="s">
-        <v>280</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="AB144" s="4"/>
       <c r="AC144" s="4"/>
       <c r="AD144" s="4"/>
       <c r="AE144" s="4"/>
@@ -10618,10 +10616,10 @@
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
       <c r="L145" s="5">
-        <v>1096</v>
+        <v>1078</v>
       </c>
       <c r="M145" s="5">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="N145" s="5"/>
       <c r="O145" s="5"/>
@@ -10641,9 +10639,11 @@
       </c>
       <c r="Z145" s="6"/>
       <c r="AA145" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB145" s="4"/>
+        <v>250</v>
+      </c>
+      <c r="AB145" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="AC145" s="4"/>
       <c r="AD145" s="4"/>
       <c r="AE145" s="4"/>
@@ -10671,21 +10671,21 @@
         <v>270</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H146" s="5" t="s">
         <v>271</v>
       </c>
       <c r="I146" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J146" s="5"/>
       <c r="K146" s="5"/>
       <c r="L146" s="5">
-        <v>1126</v>
+        <v>1088</v>
       </c>
       <c r="M146" s="5">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="N146" s="5"/>
       <c r="O146" s="5"/>
@@ -10705,9 +10705,11 @@
       </c>
       <c r="Z146" s="6"/>
       <c r="AA146" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB146" s="4"/>
+        <v>279</v>
+      </c>
+      <c r="AB146" s="4" t="s">
+        <v>280</v>
+      </c>
       <c r="AC146" s="4"/>
       <c r="AD146" s="4"/>
       <c r="AE146" s="4"/>
@@ -10746,7 +10748,7 @@
       <c r="J147" s="5"/>
       <c r="K147" s="5"/>
       <c r="L147" s="5">
-        <v>1066</v>
+        <v>1096</v>
       </c>
       <c r="M147" s="5">
         <v>286</v>
@@ -10810,10 +10812,10 @@
       <c r="J148" s="5"/>
       <c r="K148" s="5"/>
       <c r="L148" s="5">
-        <v>1078</v>
+        <v>1126</v>
       </c>
       <c r="M148" s="5">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="N148" s="5"/>
       <c r="O148" s="5"/>
@@ -10833,11 +10835,9 @@
       </c>
       <c r="Z148" s="6"/>
       <c r="AA148" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB148" s="4" t="s">
-        <v>251</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="AB148" s="4"/>
       <c r="AC148" s="4"/>
       <c r="AD148" s="4"/>
       <c r="AE148" s="4"/>
